--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="842" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="842" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Some Hints and Explanations" sheetId="3" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="168">
   <si>
     <t>Typ</t>
   </si>
@@ -525,6 +525,39 @@
   <si>
     <t>Set up Project Mgmt Tools</t>
   </si>
+  <si>
+    <t>Research and set up Project Mgmt Tools</t>
+  </si>
+  <si>
+    <t>13.4.15 - 15.04.15</t>
+  </si>
+  <si>
+    <t>Research application ideas</t>
+  </si>
+  <si>
+    <t>18.4.</t>
+  </si>
+  <si>
+    <t>20.4.</t>
+  </si>
+  <si>
+    <t>Project Schedule Template</t>
+  </si>
+  <si>
+    <t>Research Data Sets</t>
+  </si>
+  <si>
+    <t>20.4., 21.04.</t>
+  </si>
+  <si>
+    <t>Team Meeting 2: Tutorials &amp; Poster Ideas</t>
+  </si>
+  <si>
+    <t>23.4.</t>
+  </si>
+  <si>
+    <t>Team Meeting 1: Application Idea &amp; Schedule</t>
+  </si>
 </sst>
 </file>
 
@@ -935,7 +968,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -944,7 +980,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,13 +989,10 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -969,72 +1002,7 @@
     <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <b/>
@@ -1211,25 +1179,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -1251,8 +1200,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="28"/>
-      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4697,37 +4646,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A36:B321">
-    <cfRule type="expression" dxfId="13" priority="114">
+    <cfRule type="expression" dxfId="6" priority="114">
       <formula>(#REF!="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:XFD35 A36:XFD320">
-    <cfRule type="expression" dxfId="12" priority="116">
+    <cfRule type="expression" dxfId="5" priority="116">
       <formula>(#REF!="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:B35">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>(MID($A35,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L5 A7:L35">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>(MID($A3,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B5 A7:B35">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>(MID($A3,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:L6">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>(MID($A6,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>(MID($A6,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9187,17 +9136,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:B302">
-    <cfRule type="expression" dxfId="24" priority="79">
+    <cfRule type="expression" dxfId="17" priority="79">
       <formula>(MID($A15,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:XFD300">
-    <cfRule type="expression" dxfId="23" priority="83">
+    <cfRule type="expression" dxfId="16" priority="83">
       <formula>(MID($A3,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B300">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>(MID($A3,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9209,7 +9158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ430"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="128" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="128" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -9256,385 +9205,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="57"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="57"/>
-      <c r="BN1" s="57"/>
-      <c r="BO1" s="57"/>
-      <c r="BP1" s="57"/>
-      <c r="BQ1" s="57"/>
-      <c r="BR1" s="57"/>
-      <c r="BS1" s="57"/>
-      <c r="BT1" s="57"/>
-      <c r="BU1" s="57"/>
-      <c r="BV1" s="57"/>
-      <c r="BW1" s="57"/>
-      <c r="BX1" s="57"/>
-      <c r="BY1" s="57"/>
-      <c r="BZ1" s="57"/>
-      <c r="CA1" s="57"/>
-      <c r="CB1" s="57"/>
-      <c r="CC1" s="57"/>
-      <c r="CD1" s="57"/>
-      <c r="CE1" s="57"/>
-      <c r="CF1" s="57"/>
-      <c r="CG1" s="57"/>
-      <c r="CH1" s="57"/>
-      <c r="CI1" s="57"/>
-      <c r="CJ1" s="57"/>
-      <c r="CK1" s="57"/>
-      <c r="CL1" s="57"/>
-      <c r="CM1" s="57"/>
-      <c r="CN1" s="57"/>
-      <c r="CO1" s="57"/>
-      <c r="CP1" s="57"/>
-      <c r="CQ1" s="57"/>
-      <c r="CR1" s="57"/>
-      <c r="CS1" s="57"/>
-      <c r="CT1" s="57"/>
-      <c r="CU1" s="57"/>
-      <c r="CV1" s="57"/>
-      <c r="CW1" s="57"/>
-      <c r="CX1" s="57"/>
-      <c r="CY1" s="57"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
+      <c r="BJ1" s="51"/>
+      <c r="BK1" s="51"/>
+      <c r="BL1" s="51"/>
+      <c r="BM1" s="51"/>
+      <c r="BN1" s="51"/>
+      <c r="BO1" s="51"/>
+      <c r="BP1" s="51"/>
+      <c r="BQ1" s="51"/>
+      <c r="BR1" s="51"/>
+      <c r="BS1" s="51"/>
+      <c r="BT1" s="51"/>
+      <c r="BU1" s="51"/>
+      <c r="BV1" s="51"/>
+      <c r="BW1" s="51"/>
+      <c r="BX1" s="51"/>
+      <c r="BY1" s="51"/>
+      <c r="BZ1" s="51"/>
+      <c r="CA1" s="51"/>
+      <c r="CB1" s="51"/>
+      <c r="CC1" s="51"/>
+      <c r="CD1" s="51"/>
+      <c r="CE1" s="51"/>
+      <c r="CF1" s="51"/>
+      <c r="CG1" s="51"/>
+      <c r="CH1" s="51"/>
+      <c r="CI1" s="51"/>
+      <c r="CJ1" s="51"/>
+      <c r="CK1" s="51"/>
+      <c r="CL1" s="51"/>
+      <c r="CM1" s="51"/>
+      <c r="CN1" s="51"/>
+      <c r="CO1" s="51"/>
+      <c r="CP1" s="51"/>
+      <c r="CQ1" s="51"/>
+      <c r="CR1" s="51"/>
+      <c r="CS1" s="51"/>
+      <c r="CT1" s="51"/>
+      <c r="CU1" s="51"/>
+      <c r="CV1" s="51"/>
+      <c r="CW1" s="51"/>
+      <c r="CX1" s="51"/>
+      <c r="CY1" s="51"/>
       <c r="CZ1" s="11"/>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="51" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="51" t="s">
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="51" t="s">
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="51" t="s">
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="51" t="s">
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="53"/>
-      <c r="BD2" s="51" t="s">
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="52"/>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="53"/>
-      <c r="BK2" s="51" t="s">
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="54"/>
+      <c r="BK2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="52"/>
-      <c r="BN2" s="52"/>
-      <c r="BO2" s="52"/>
-      <c r="BP2" s="52"/>
-      <c r="BQ2" s="53"/>
-      <c r="BR2" s="51" t="s">
+      <c r="BL2" s="53"/>
+      <c r="BM2" s="53"/>
+      <c r="BN2" s="53"/>
+      <c r="BO2" s="53"/>
+      <c r="BP2" s="53"/>
+      <c r="BQ2" s="54"/>
+      <c r="BR2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="BS2" s="52"/>
-      <c r="BT2" s="52"/>
-      <c r="BU2" s="52"/>
-      <c r="BV2" s="52"/>
-      <c r="BW2" s="52"/>
-      <c r="BX2" s="53"/>
-      <c r="BY2" s="51" t="s">
+      <c r="BS2" s="53"/>
+      <c r="BT2" s="53"/>
+      <c r="BU2" s="53"/>
+      <c r="BV2" s="53"/>
+      <c r="BW2" s="53"/>
+      <c r="BX2" s="54"/>
+      <c r="BY2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="BZ2" s="52"/>
-      <c r="CA2" s="52"/>
-      <c r="CB2" s="52"/>
-      <c r="CC2" s="52"/>
-      <c r="CD2" s="52"/>
-      <c r="CE2" s="53"/>
-      <c r="CF2" s="51" t="s">
+      <c r="BZ2" s="53"/>
+      <c r="CA2" s="53"/>
+      <c r="CB2" s="53"/>
+      <c r="CC2" s="53"/>
+      <c r="CD2" s="53"/>
+      <c r="CE2" s="54"/>
+      <c r="CF2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="CG2" s="52"/>
-      <c r="CH2" s="52"/>
-      <c r="CI2" s="52"/>
-      <c r="CJ2" s="52"/>
-      <c r="CK2" s="52"/>
-      <c r="CL2" s="53"/>
-      <c r="CM2" s="51" t="s">
+      <c r="CG2" s="53"/>
+      <c r="CH2" s="53"/>
+      <c r="CI2" s="53"/>
+      <c r="CJ2" s="53"/>
+      <c r="CK2" s="53"/>
+      <c r="CL2" s="54"/>
+      <c r="CM2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" s="52"/>
-      <c r="CO2" s="52"/>
-      <c r="CP2" s="52"/>
-      <c r="CQ2" s="52"/>
-      <c r="CR2" s="52"/>
-      <c r="CS2" s="53"/>
-      <c r="CT2" s="51" t="s">
+      <c r="CN2" s="53"/>
+      <c r="CO2" s="53"/>
+      <c r="CP2" s="53"/>
+      <c r="CQ2" s="53"/>
+      <c r="CR2" s="53"/>
+      <c r="CS2" s="54"/>
+      <c r="CT2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="CU2" s="52"/>
-      <c r="CV2" s="52"/>
-      <c r="CW2" s="52"/>
-      <c r="CX2" s="52"/>
-      <c r="CY2" s="52"/>
-      <c r="CZ2" s="53"/>
+      <c r="CU2" s="53"/>
+      <c r="CV2" s="53"/>
+      <c r="CW2" s="53"/>
+      <c r="CX2" s="53"/>
+      <c r="CY2" s="53"/>
+      <c r="CZ2" s="54"/>
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="G3" s="59">
+      <c r="G3" s="55">
         <f>G5</f>
         <v>42107</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="54">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="59">
         <f>N5</f>
         <v>42114</v>
       </c>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="54">
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="59">
         <f>U5</f>
         <v>42121</v>
       </c>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="54">
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="59">
         <f>AB5</f>
         <v>42128</v>
       </c>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="54">
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="59">
         <f>AI5</f>
         <v>42135</v>
       </c>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="54">
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="59">
         <f>AP5</f>
         <v>42142</v>
       </c>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="54">
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="59">
         <f t="shared" ref="AW3" si="0">AW5</f>
         <v>42149</v>
       </c>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="55"/>
-      <c r="AZ3" s="55"/>
-      <c r="BA3" s="55"/>
-      <c r="BB3" s="55"/>
-      <c r="BC3" s="56"/>
-      <c r="BD3" s="54">
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="57"/>
+      <c r="BD3" s="59">
         <f t="shared" ref="BD3" si="1">BD5</f>
         <v>42156</v>
       </c>
-      <c r="BE3" s="55"/>
-      <c r="BF3" s="55"/>
-      <c r="BG3" s="55"/>
-      <c r="BH3" s="55"/>
-      <c r="BI3" s="55"/>
-      <c r="BJ3" s="56"/>
-      <c r="BK3" s="54">
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="56"/>
+      <c r="BG3" s="56"/>
+      <c r="BH3" s="56"/>
+      <c r="BI3" s="56"/>
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="59">
         <f t="shared" ref="BK3" si="2">BK5</f>
         <v>42163</v>
       </c>
-      <c r="BL3" s="55"/>
-      <c r="BM3" s="55"/>
-      <c r="BN3" s="55"/>
-      <c r="BO3" s="55"/>
-      <c r="BP3" s="55"/>
-      <c r="BQ3" s="56"/>
-      <c r="BR3" s="54">
+      <c r="BL3" s="56"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="56"/>
+      <c r="BP3" s="56"/>
+      <c r="BQ3" s="57"/>
+      <c r="BR3" s="59">
         <f t="shared" ref="BR3" si="3">BR5</f>
         <v>42170</v>
       </c>
-      <c r="BS3" s="55"/>
-      <c r="BT3" s="55"/>
-      <c r="BU3" s="55"/>
-      <c r="BV3" s="55"/>
-      <c r="BW3" s="55"/>
-      <c r="BX3" s="56"/>
-      <c r="BY3" s="54">
+      <c r="BS3" s="56"/>
+      <c r="BT3" s="56"/>
+      <c r="BU3" s="56"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="56"/>
+      <c r="BX3" s="57"/>
+      <c r="BY3" s="59">
         <f t="shared" ref="BY3" si="4">BY5</f>
         <v>42177</v>
       </c>
-      <c r="BZ3" s="55"/>
-      <c r="CA3" s="55"/>
-      <c r="CB3" s="55"/>
-      <c r="CC3" s="55"/>
-      <c r="CD3" s="55"/>
-      <c r="CE3" s="56"/>
-      <c r="CF3" s="54">
+      <c r="BZ3" s="56"/>
+      <c r="CA3" s="56"/>
+      <c r="CB3" s="56"/>
+      <c r="CC3" s="56"/>
+      <c r="CD3" s="56"/>
+      <c r="CE3" s="57"/>
+      <c r="CF3" s="59">
         <f t="shared" ref="CF3" si="5">CF5</f>
         <v>42184</v>
       </c>
-      <c r="CG3" s="55"/>
-      <c r="CH3" s="55"/>
-      <c r="CI3" s="55"/>
-      <c r="CJ3" s="55"/>
-      <c r="CK3" s="55"/>
-      <c r="CL3" s="56"/>
-      <c r="CM3" s="54">
+      <c r="CG3" s="56"/>
+      <c r="CH3" s="56"/>
+      <c r="CI3" s="56"/>
+      <c r="CJ3" s="56"/>
+      <c r="CK3" s="56"/>
+      <c r="CL3" s="57"/>
+      <c r="CM3" s="59">
         <f t="shared" ref="CM3" si="6">CM5</f>
         <v>42191</v>
       </c>
-      <c r="CN3" s="55"/>
-      <c r="CO3" s="55"/>
-      <c r="CP3" s="55"/>
-      <c r="CQ3" s="55"/>
-      <c r="CR3" s="55"/>
-      <c r="CS3" s="56"/>
-      <c r="CT3" s="54">
+      <c r="CN3" s="56"/>
+      <c r="CO3" s="56"/>
+      <c r="CP3" s="56"/>
+      <c r="CQ3" s="56"/>
+      <c r="CR3" s="56"/>
+      <c r="CS3" s="57"/>
+      <c r="CT3" s="59">
         <f t="shared" ref="CT3" si="7">CT5</f>
         <v>42198</v>
       </c>
-      <c r="CU3" s="55"/>
-      <c r="CV3" s="55"/>
-      <c r="CW3" s="55"/>
-      <c r="CX3" s="55"/>
-      <c r="CY3" s="55"/>
-      <c r="CZ3" s="56"/>
+      <c r="CU3" s="56"/>
+      <c r="CV3" s="56"/>
+      <c r="CW3" s="56"/>
+      <c r="CX3" s="56"/>
+      <c r="CY3" s="56"/>
+      <c r="CZ3" s="57"/>
     </row>
     <row r="4" spans="1:104" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -10235,7 +10184,7 @@
         <v>42204</v>
       </c>
     </row>
-    <row r="6" spans="1:104" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="str">
         <f>IF('Milestones + Packages'!B3&lt;&gt; "",'Milestones + Packages'!B3,"")</f>
         <v>Brainstorming phase</v>
@@ -22155,6 +22104,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CM3:CS3"/>
+    <mergeCell ref="CT3:CZ3"/>
+    <mergeCell ref="BY2:CE2"/>
+    <mergeCell ref="CF2:CL2"/>
+    <mergeCell ref="BY3:CE3"/>
+    <mergeCell ref="CF3:CL3"/>
+    <mergeCell ref="CM2:CS2"/>
+    <mergeCell ref="BD3:BJ3"/>
+    <mergeCell ref="BK2:BQ2"/>
+    <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="BK3:BQ3"/>
+    <mergeCell ref="BR3:BX3"/>
     <mergeCell ref="A1:CY1"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="G3:M3"/>
@@ -22171,22 +22133,9 @@
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="AP3:AV3"/>
     <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="BD3:BJ3"/>
-    <mergeCell ref="BK2:BQ2"/>
-    <mergeCell ref="BR2:BX2"/>
-    <mergeCell ref="BK3:BQ3"/>
-    <mergeCell ref="BR3:BX3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CM3:CS3"/>
-    <mergeCell ref="CT3:CZ3"/>
-    <mergeCell ref="BY2:CE2"/>
-    <mergeCell ref="CF2:CL2"/>
-    <mergeCell ref="BY3:CE3"/>
-    <mergeCell ref="CF3:CL3"/>
-    <mergeCell ref="CM2:CS2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:CW300">
-    <cfRule type="expression" dxfId="21" priority="77">
+    <cfRule type="expression" dxfId="14" priority="77">
       <formula>NOT(ISNA(VLOOKUP(G$5,$F:$F,1,FALSE)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45374,15 +45323,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="41.42578125" customWidth="1"/>
     <col min="4" max="4" width="46.140625" customWidth="1"/>
@@ -45417,26 +45366,73 @@
       </c>
       <c r="H3">
         <f>SUM(Table1345[Time Spent (hours)])</f>
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Git\CaseStudiesMachineLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fin Bauer\Documents\Case Studies\CaseStudiesMachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9570" tabRatio="842" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9570" tabRatio="842" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Some Hints and Explanations" sheetId="3" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="175">
   <si>
     <t>Typ</t>
   </si>
@@ -576,6 +576,9 @@
   <si>
     <t>29.4.</t>
   </si>
+  <si>
+    <t>24.4.2015, 25.4.2015, 27.4.2015, 29.4.2015</t>
+  </si>
 </sst>
 </file>
 
@@ -986,7 +989,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -995,7 +1001,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,21 +1010,18 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
-    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift 3" xfId="2" builtinId="18"/>
+    <cellStyle name="Überschrift 4" xfId="3" builtinId="19"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -1569,11 +1572,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="197" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="197" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="111.5703125" customWidth="1"/>
   </cols>
@@ -1677,7 +1680,7 @@
       <selection activeCell="L36" sqref="A36:L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="21" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="23" customWidth="1"/>
@@ -4706,11 +4709,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="139" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="139" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="21" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="23" customWidth="1"/>
@@ -9183,7 +9186,7 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
@@ -9223,385 +9226,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="57"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="57"/>
-      <c r="BN1" s="57"/>
-      <c r="BO1" s="57"/>
-      <c r="BP1" s="57"/>
-      <c r="BQ1" s="57"/>
-      <c r="BR1" s="57"/>
-      <c r="BS1" s="57"/>
-      <c r="BT1" s="57"/>
-      <c r="BU1" s="57"/>
-      <c r="BV1" s="57"/>
-      <c r="BW1" s="57"/>
-      <c r="BX1" s="57"/>
-      <c r="BY1" s="57"/>
-      <c r="BZ1" s="57"/>
-      <c r="CA1" s="57"/>
-      <c r="CB1" s="57"/>
-      <c r="CC1" s="57"/>
-      <c r="CD1" s="57"/>
-      <c r="CE1" s="57"/>
-      <c r="CF1" s="57"/>
-      <c r="CG1" s="57"/>
-      <c r="CH1" s="57"/>
-      <c r="CI1" s="57"/>
-      <c r="CJ1" s="57"/>
-      <c r="CK1" s="57"/>
-      <c r="CL1" s="57"/>
-      <c r="CM1" s="57"/>
-      <c r="CN1" s="57"/>
-      <c r="CO1" s="57"/>
-      <c r="CP1" s="57"/>
-      <c r="CQ1" s="57"/>
-      <c r="CR1" s="57"/>
-      <c r="CS1" s="57"/>
-      <c r="CT1" s="57"/>
-      <c r="CU1" s="57"/>
-      <c r="CV1" s="57"/>
-      <c r="CW1" s="57"/>
-      <c r="CX1" s="57"/>
-      <c r="CY1" s="57"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
+      <c r="BJ1" s="51"/>
+      <c r="BK1" s="51"/>
+      <c r="BL1" s="51"/>
+      <c r="BM1" s="51"/>
+      <c r="BN1" s="51"/>
+      <c r="BO1" s="51"/>
+      <c r="BP1" s="51"/>
+      <c r="BQ1" s="51"/>
+      <c r="BR1" s="51"/>
+      <c r="BS1" s="51"/>
+      <c r="BT1" s="51"/>
+      <c r="BU1" s="51"/>
+      <c r="BV1" s="51"/>
+      <c r="BW1" s="51"/>
+      <c r="BX1" s="51"/>
+      <c r="BY1" s="51"/>
+      <c r="BZ1" s="51"/>
+      <c r="CA1" s="51"/>
+      <c r="CB1" s="51"/>
+      <c r="CC1" s="51"/>
+      <c r="CD1" s="51"/>
+      <c r="CE1" s="51"/>
+      <c r="CF1" s="51"/>
+      <c r="CG1" s="51"/>
+      <c r="CH1" s="51"/>
+      <c r="CI1" s="51"/>
+      <c r="CJ1" s="51"/>
+      <c r="CK1" s="51"/>
+      <c r="CL1" s="51"/>
+      <c r="CM1" s="51"/>
+      <c r="CN1" s="51"/>
+      <c r="CO1" s="51"/>
+      <c r="CP1" s="51"/>
+      <c r="CQ1" s="51"/>
+      <c r="CR1" s="51"/>
+      <c r="CS1" s="51"/>
+      <c r="CT1" s="51"/>
+      <c r="CU1" s="51"/>
+      <c r="CV1" s="51"/>
+      <c r="CW1" s="51"/>
+      <c r="CX1" s="51"/>
+      <c r="CY1" s="51"/>
       <c r="CZ1" s="11"/>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="51" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="51" t="s">
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="51" t="s">
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="51" t="s">
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="51" t="s">
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="53"/>
-      <c r="BD2" s="51" t="s">
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="52"/>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="53"/>
-      <c r="BK2" s="51" t="s">
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="54"/>
+      <c r="BK2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="52"/>
-      <c r="BN2" s="52"/>
-      <c r="BO2" s="52"/>
-      <c r="BP2" s="52"/>
-      <c r="BQ2" s="53"/>
-      <c r="BR2" s="51" t="s">
+      <c r="BL2" s="53"/>
+      <c r="BM2" s="53"/>
+      <c r="BN2" s="53"/>
+      <c r="BO2" s="53"/>
+      <c r="BP2" s="53"/>
+      <c r="BQ2" s="54"/>
+      <c r="BR2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="BS2" s="52"/>
-      <c r="BT2" s="52"/>
-      <c r="BU2" s="52"/>
-      <c r="BV2" s="52"/>
-      <c r="BW2" s="52"/>
-      <c r="BX2" s="53"/>
-      <c r="BY2" s="51" t="s">
+      <c r="BS2" s="53"/>
+      <c r="BT2" s="53"/>
+      <c r="BU2" s="53"/>
+      <c r="BV2" s="53"/>
+      <c r="BW2" s="53"/>
+      <c r="BX2" s="54"/>
+      <c r="BY2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="BZ2" s="52"/>
-      <c r="CA2" s="52"/>
-      <c r="CB2" s="52"/>
-      <c r="CC2" s="52"/>
-      <c r="CD2" s="52"/>
-      <c r="CE2" s="53"/>
-      <c r="CF2" s="51" t="s">
+      <c r="BZ2" s="53"/>
+      <c r="CA2" s="53"/>
+      <c r="CB2" s="53"/>
+      <c r="CC2" s="53"/>
+      <c r="CD2" s="53"/>
+      <c r="CE2" s="54"/>
+      <c r="CF2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="CG2" s="52"/>
-      <c r="CH2" s="52"/>
-      <c r="CI2" s="52"/>
-      <c r="CJ2" s="52"/>
-      <c r="CK2" s="52"/>
-      <c r="CL2" s="53"/>
-      <c r="CM2" s="51" t="s">
+      <c r="CG2" s="53"/>
+      <c r="CH2" s="53"/>
+      <c r="CI2" s="53"/>
+      <c r="CJ2" s="53"/>
+      <c r="CK2" s="53"/>
+      <c r="CL2" s="54"/>
+      <c r="CM2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" s="52"/>
-      <c r="CO2" s="52"/>
-      <c r="CP2" s="52"/>
-      <c r="CQ2" s="52"/>
-      <c r="CR2" s="52"/>
-      <c r="CS2" s="53"/>
-      <c r="CT2" s="51" t="s">
+      <c r="CN2" s="53"/>
+      <c r="CO2" s="53"/>
+      <c r="CP2" s="53"/>
+      <c r="CQ2" s="53"/>
+      <c r="CR2" s="53"/>
+      <c r="CS2" s="54"/>
+      <c r="CT2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="CU2" s="52"/>
-      <c r="CV2" s="52"/>
-      <c r="CW2" s="52"/>
-      <c r="CX2" s="52"/>
-      <c r="CY2" s="52"/>
-      <c r="CZ2" s="53"/>
+      <c r="CU2" s="53"/>
+      <c r="CV2" s="53"/>
+      <c r="CW2" s="53"/>
+      <c r="CX2" s="53"/>
+      <c r="CY2" s="53"/>
+      <c r="CZ2" s="54"/>
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="G3" s="59">
+      <c r="G3" s="55">
         <f>G5</f>
         <v>42107</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="54">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="59">
         <f>N5</f>
         <v>42114</v>
       </c>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="54">
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="59">
         <f>U5</f>
         <v>42121</v>
       </c>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="54">
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="59">
         <f>AB5</f>
         <v>42128</v>
       </c>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="54">
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="59">
         <f>AI5</f>
         <v>42135</v>
       </c>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="54">
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="59">
         <f>AP5</f>
         <v>42142</v>
       </c>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="54">
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="59">
         <f t="shared" ref="AW3" si="0">AW5</f>
         <v>42149</v>
       </c>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="55"/>
-      <c r="AZ3" s="55"/>
-      <c r="BA3" s="55"/>
-      <c r="BB3" s="55"/>
-      <c r="BC3" s="56"/>
-      <c r="BD3" s="54">
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="57"/>
+      <c r="BD3" s="59">
         <f t="shared" ref="BD3" si="1">BD5</f>
         <v>42156</v>
       </c>
-      <c r="BE3" s="55"/>
-      <c r="BF3" s="55"/>
-      <c r="BG3" s="55"/>
-      <c r="BH3" s="55"/>
-      <c r="BI3" s="55"/>
-      <c r="BJ3" s="56"/>
-      <c r="BK3" s="54">
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="56"/>
+      <c r="BG3" s="56"/>
+      <c r="BH3" s="56"/>
+      <c r="BI3" s="56"/>
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="59">
         <f t="shared" ref="BK3" si="2">BK5</f>
         <v>42163</v>
       </c>
-      <c r="BL3" s="55"/>
-      <c r="BM3" s="55"/>
-      <c r="BN3" s="55"/>
-      <c r="BO3" s="55"/>
-      <c r="BP3" s="55"/>
-      <c r="BQ3" s="56"/>
-      <c r="BR3" s="54">
+      <c r="BL3" s="56"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="56"/>
+      <c r="BP3" s="56"/>
+      <c r="BQ3" s="57"/>
+      <c r="BR3" s="59">
         <f t="shared" ref="BR3" si="3">BR5</f>
         <v>42170</v>
       </c>
-      <c r="BS3" s="55"/>
-      <c r="BT3" s="55"/>
-      <c r="BU3" s="55"/>
-      <c r="BV3" s="55"/>
-      <c r="BW3" s="55"/>
-      <c r="BX3" s="56"/>
-      <c r="BY3" s="54">
+      <c r="BS3" s="56"/>
+      <c r="BT3" s="56"/>
+      <c r="BU3" s="56"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="56"/>
+      <c r="BX3" s="57"/>
+      <c r="BY3" s="59">
         <f t="shared" ref="BY3" si="4">BY5</f>
         <v>42177</v>
       </c>
-      <c r="BZ3" s="55"/>
-      <c r="CA3" s="55"/>
-      <c r="CB3" s="55"/>
-      <c r="CC3" s="55"/>
-      <c r="CD3" s="55"/>
-      <c r="CE3" s="56"/>
-      <c r="CF3" s="54">
+      <c r="BZ3" s="56"/>
+      <c r="CA3" s="56"/>
+      <c r="CB3" s="56"/>
+      <c r="CC3" s="56"/>
+      <c r="CD3" s="56"/>
+      <c r="CE3" s="57"/>
+      <c r="CF3" s="59">
         <f t="shared" ref="CF3" si="5">CF5</f>
         <v>42184</v>
       </c>
-      <c r="CG3" s="55"/>
-      <c r="CH3" s="55"/>
-      <c r="CI3" s="55"/>
-      <c r="CJ3" s="55"/>
-      <c r="CK3" s="55"/>
-      <c r="CL3" s="56"/>
-      <c r="CM3" s="54">
+      <c r="CG3" s="56"/>
+      <c r="CH3" s="56"/>
+      <c r="CI3" s="56"/>
+      <c r="CJ3" s="56"/>
+      <c r="CK3" s="56"/>
+      <c r="CL3" s="57"/>
+      <c r="CM3" s="59">
         <f t="shared" ref="CM3" si="6">CM5</f>
         <v>42191</v>
       </c>
-      <c r="CN3" s="55"/>
-      <c r="CO3" s="55"/>
-      <c r="CP3" s="55"/>
-      <c r="CQ3" s="55"/>
-      <c r="CR3" s="55"/>
-      <c r="CS3" s="56"/>
-      <c r="CT3" s="54">
+      <c r="CN3" s="56"/>
+      <c r="CO3" s="56"/>
+      <c r="CP3" s="56"/>
+      <c r="CQ3" s="56"/>
+      <c r="CR3" s="56"/>
+      <c r="CS3" s="57"/>
+      <c r="CT3" s="59">
         <f t="shared" ref="CT3" si="7">CT5</f>
         <v>42198</v>
       </c>
-      <c r="CU3" s="55"/>
-      <c r="CV3" s="55"/>
-      <c r="CW3" s="55"/>
-      <c r="CX3" s="55"/>
-      <c r="CY3" s="55"/>
-      <c r="CZ3" s="56"/>
+      <c r="CU3" s="56"/>
+      <c r="CV3" s="56"/>
+      <c r="CW3" s="56"/>
+      <c r="CX3" s="56"/>
+      <c r="CY3" s="56"/>
+      <c r="CZ3" s="57"/>
     </row>
     <row r="4" spans="1:104" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -22122,6 +22125,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CM3:CS3"/>
+    <mergeCell ref="CT3:CZ3"/>
+    <mergeCell ref="BY2:CE2"/>
+    <mergeCell ref="CF2:CL2"/>
+    <mergeCell ref="BY3:CE3"/>
+    <mergeCell ref="CF3:CL3"/>
+    <mergeCell ref="CM2:CS2"/>
+    <mergeCell ref="BD3:BJ3"/>
+    <mergeCell ref="BK2:BQ2"/>
+    <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="BK3:BQ3"/>
+    <mergeCell ref="BR3:BX3"/>
     <mergeCell ref="A1:CY1"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="G3:M3"/>
@@ -22138,19 +22154,6 @@
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="AP3:AV3"/>
     <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="BD3:BJ3"/>
-    <mergeCell ref="BK2:BQ2"/>
-    <mergeCell ref="BR2:BX2"/>
-    <mergeCell ref="BK3:BQ3"/>
-    <mergeCell ref="BR3:BX3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CM3:CS3"/>
-    <mergeCell ref="CT3:CZ3"/>
-    <mergeCell ref="BY2:CE2"/>
-    <mergeCell ref="CF2:CL2"/>
-    <mergeCell ref="BY3:CE3"/>
-    <mergeCell ref="CF3:CL3"/>
-    <mergeCell ref="CM2:CS2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:CW300">
     <cfRule type="expression" dxfId="14" priority="77">
@@ -22277,7 +22280,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
@@ -45068,11 +45071,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45108,7 +45111,7 @@
       </c>
       <c r="H3">
         <f>SUM(Table1[Time Spent (hours)])</f>
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -45133,6 +45136,12 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -45169,7 +45178,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45261,7 +45270,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45376,10 +45385,10 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.28515625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45547,7 +45556,7 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>

--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9570" tabRatio="842" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9570" tabRatio="842" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Some Hints and Explanations" sheetId="3" r:id="rId1"/>
@@ -45,15 +45,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="185">
   <si>
     <t>Typ</t>
   </si>
@@ -579,6 +576,36 @@
   <si>
     <t>24.4.2015, 25.4.2015, 27.4.2015, 29.4.2015</t>
   </si>
+  <si>
+    <t>Literature Research</t>
+  </si>
+  <si>
+    <t>13.-15.4.2015</t>
+  </si>
+  <si>
+    <t>Python Tutorial</t>
+  </si>
+  <si>
+    <t>13.4.-now</t>
+  </si>
+  <si>
+    <t>24.4.+25.4.+27.4.+29.4.</t>
+  </si>
+  <si>
+    <t>Prepare Pitch</t>
+  </si>
+  <si>
+    <t>15.4.</t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>20.4., 22.4., 27.4.</t>
+  </si>
+  <si>
+    <t>Special lecture</t>
+  </si>
 </sst>
 </file>
 
@@ -875,7 +902,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -989,10 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1001,7 +1025,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1010,12 +1034,17 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -9226,385 +9255,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="51"/>
-      <c r="BK1" s="51"/>
-      <c r="BL1" s="51"/>
-      <c r="BM1" s="51"/>
-      <c r="BN1" s="51"/>
-      <c r="BO1" s="51"/>
-      <c r="BP1" s="51"/>
-      <c r="BQ1" s="51"/>
-      <c r="BR1" s="51"/>
-      <c r="BS1" s="51"/>
-      <c r="BT1" s="51"/>
-      <c r="BU1" s="51"/>
-      <c r="BV1" s="51"/>
-      <c r="BW1" s="51"/>
-      <c r="BX1" s="51"/>
-      <c r="BY1" s="51"/>
-      <c r="BZ1" s="51"/>
-      <c r="CA1" s="51"/>
-      <c r="CB1" s="51"/>
-      <c r="CC1" s="51"/>
-      <c r="CD1" s="51"/>
-      <c r="CE1" s="51"/>
-      <c r="CF1" s="51"/>
-      <c r="CG1" s="51"/>
-      <c r="CH1" s="51"/>
-      <c r="CI1" s="51"/>
-      <c r="CJ1" s="51"/>
-      <c r="CK1" s="51"/>
-      <c r="CL1" s="51"/>
-      <c r="CM1" s="51"/>
-      <c r="CN1" s="51"/>
-      <c r="CO1" s="51"/>
-      <c r="CP1" s="51"/>
-      <c r="CQ1" s="51"/>
-      <c r="CR1" s="51"/>
-      <c r="CS1" s="51"/>
-      <c r="CT1" s="51"/>
-      <c r="CU1" s="51"/>
-      <c r="CV1" s="51"/>
-      <c r="CW1" s="51"/>
-      <c r="CX1" s="51"/>
-      <c r="CY1" s="51"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57"/>
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="57"/>
+      <c r="BN1" s="57"/>
+      <c r="BO1" s="57"/>
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="57"/>
+      <c r="BR1" s="57"/>
+      <c r="BS1" s="57"/>
+      <c r="BT1" s="57"/>
+      <c r="BU1" s="57"/>
+      <c r="BV1" s="57"/>
+      <c r="BW1" s="57"/>
+      <c r="BX1" s="57"/>
+      <c r="BY1" s="57"/>
+      <c r="BZ1" s="57"/>
+      <c r="CA1" s="57"/>
+      <c r="CB1" s="57"/>
+      <c r="CC1" s="57"/>
+      <c r="CD1" s="57"/>
+      <c r="CE1" s="57"/>
+      <c r="CF1" s="57"/>
+      <c r="CG1" s="57"/>
+      <c r="CH1" s="57"/>
+      <c r="CI1" s="57"/>
+      <c r="CJ1" s="57"/>
+      <c r="CK1" s="57"/>
+      <c r="CL1" s="57"/>
+      <c r="CM1" s="57"/>
+      <c r="CN1" s="57"/>
+      <c r="CO1" s="57"/>
+      <c r="CP1" s="57"/>
+      <c r="CQ1" s="57"/>
+      <c r="CR1" s="57"/>
+      <c r="CS1" s="57"/>
+      <c r="CT1" s="57"/>
+      <c r="CU1" s="57"/>
+      <c r="CV1" s="57"/>
+      <c r="CW1" s="57"/>
+      <c r="CX1" s="57"/>
+      <c r="CY1" s="57"/>
       <c r="CZ1" s="11"/>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="58" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="58" t="s">
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="58" t="s">
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="58" t="s">
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="58" t="s">
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="58" t="s">
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="53"/>
-      <c r="AY2" s="53"/>
-      <c r="AZ2" s="53"/>
-      <c r="BA2" s="53"/>
-      <c r="BB2" s="53"/>
-      <c r="BC2" s="54"/>
-      <c r="BD2" s="58" t="s">
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="BE2" s="53"/>
-      <c r="BF2" s="53"/>
-      <c r="BG2" s="53"/>
-      <c r="BH2" s="53"/>
-      <c r="BI2" s="53"/>
-      <c r="BJ2" s="54"/>
-      <c r="BK2" s="58" t="s">
+      <c r="BE2" s="52"/>
+      <c r="BF2" s="52"/>
+      <c r="BG2" s="52"/>
+      <c r="BH2" s="52"/>
+      <c r="BI2" s="52"/>
+      <c r="BJ2" s="53"/>
+      <c r="BK2" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="BL2" s="53"/>
-      <c r="BM2" s="53"/>
-      <c r="BN2" s="53"/>
-      <c r="BO2" s="53"/>
-      <c r="BP2" s="53"/>
-      <c r="BQ2" s="54"/>
-      <c r="BR2" s="58" t="s">
+      <c r="BL2" s="52"/>
+      <c r="BM2" s="52"/>
+      <c r="BN2" s="52"/>
+      <c r="BO2" s="52"/>
+      <c r="BP2" s="52"/>
+      <c r="BQ2" s="53"/>
+      <c r="BR2" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="BS2" s="53"/>
-      <c r="BT2" s="53"/>
-      <c r="BU2" s="53"/>
-      <c r="BV2" s="53"/>
-      <c r="BW2" s="53"/>
-      <c r="BX2" s="54"/>
-      <c r="BY2" s="58" t="s">
+      <c r="BS2" s="52"/>
+      <c r="BT2" s="52"/>
+      <c r="BU2" s="52"/>
+      <c r="BV2" s="52"/>
+      <c r="BW2" s="52"/>
+      <c r="BX2" s="53"/>
+      <c r="BY2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="BZ2" s="53"/>
-      <c r="CA2" s="53"/>
-      <c r="CB2" s="53"/>
-      <c r="CC2" s="53"/>
-      <c r="CD2" s="53"/>
-      <c r="CE2" s="54"/>
-      <c r="CF2" s="58" t="s">
+      <c r="BZ2" s="52"/>
+      <c r="CA2" s="52"/>
+      <c r="CB2" s="52"/>
+      <c r="CC2" s="52"/>
+      <c r="CD2" s="52"/>
+      <c r="CE2" s="53"/>
+      <c r="CF2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="CG2" s="53"/>
-      <c r="CH2" s="53"/>
-      <c r="CI2" s="53"/>
-      <c r="CJ2" s="53"/>
-      <c r="CK2" s="53"/>
-      <c r="CL2" s="54"/>
-      <c r="CM2" s="58" t="s">
+      <c r="CG2" s="52"/>
+      <c r="CH2" s="52"/>
+      <c r="CI2" s="52"/>
+      <c r="CJ2" s="52"/>
+      <c r="CK2" s="52"/>
+      <c r="CL2" s="53"/>
+      <c r="CM2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" s="53"/>
-      <c r="CO2" s="53"/>
-      <c r="CP2" s="53"/>
-      <c r="CQ2" s="53"/>
-      <c r="CR2" s="53"/>
-      <c r="CS2" s="54"/>
-      <c r="CT2" s="58" t="s">
+      <c r="CN2" s="52"/>
+      <c r="CO2" s="52"/>
+      <c r="CP2" s="52"/>
+      <c r="CQ2" s="52"/>
+      <c r="CR2" s="52"/>
+      <c r="CS2" s="53"/>
+      <c r="CT2" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="CU2" s="53"/>
-      <c r="CV2" s="53"/>
-      <c r="CW2" s="53"/>
-      <c r="CX2" s="53"/>
-      <c r="CY2" s="53"/>
-      <c r="CZ2" s="54"/>
+      <c r="CU2" s="52"/>
+      <c r="CV2" s="52"/>
+      <c r="CW2" s="52"/>
+      <c r="CX2" s="52"/>
+      <c r="CY2" s="52"/>
+      <c r="CZ2" s="53"/>
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="G3" s="55">
+      <c r="G3" s="59">
         <f>G5</f>
         <v>42107</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="59">
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="54">
         <f>N5</f>
         <v>42114</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="59">
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="54">
         <f>U5</f>
         <v>42121</v>
       </c>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="59">
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="54">
         <f>AB5</f>
         <v>42128</v>
       </c>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="59">
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="54">
         <f>AI5</f>
         <v>42135</v>
       </c>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="59">
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="54">
         <f>AP5</f>
         <v>42142</v>
       </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="59">
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="54">
         <f t="shared" ref="AW3" si="0">AW5</f>
         <v>42149</v>
       </c>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="56"/>
-      <c r="BC3" s="57"/>
-      <c r="BD3" s="59">
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="55"/>
+      <c r="BA3" s="55"/>
+      <c r="BB3" s="55"/>
+      <c r="BC3" s="56"/>
+      <c r="BD3" s="54">
         <f t="shared" ref="BD3" si="1">BD5</f>
         <v>42156</v>
       </c>
-      <c r="BE3" s="56"/>
-      <c r="BF3" s="56"/>
-      <c r="BG3" s="56"/>
-      <c r="BH3" s="56"/>
-      <c r="BI3" s="56"/>
-      <c r="BJ3" s="57"/>
-      <c r="BK3" s="59">
+      <c r="BE3" s="55"/>
+      <c r="BF3" s="55"/>
+      <c r="BG3" s="55"/>
+      <c r="BH3" s="55"/>
+      <c r="BI3" s="55"/>
+      <c r="BJ3" s="56"/>
+      <c r="BK3" s="54">
         <f t="shared" ref="BK3" si="2">BK5</f>
         <v>42163</v>
       </c>
-      <c r="BL3" s="56"/>
-      <c r="BM3" s="56"/>
-      <c r="BN3" s="56"/>
-      <c r="BO3" s="56"/>
-      <c r="BP3" s="56"/>
-      <c r="BQ3" s="57"/>
-      <c r="BR3" s="59">
+      <c r="BL3" s="55"/>
+      <c r="BM3" s="55"/>
+      <c r="BN3" s="55"/>
+      <c r="BO3" s="55"/>
+      <c r="BP3" s="55"/>
+      <c r="BQ3" s="56"/>
+      <c r="BR3" s="54">
         <f t="shared" ref="BR3" si="3">BR5</f>
         <v>42170</v>
       </c>
-      <c r="BS3" s="56"/>
-      <c r="BT3" s="56"/>
-      <c r="BU3" s="56"/>
-      <c r="BV3" s="56"/>
-      <c r="BW3" s="56"/>
-      <c r="BX3" s="57"/>
-      <c r="BY3" s="59">
+      <c r="BS3" s="55"/>
+      <c r="BT3" s="55"/>
+      <c r="BU3" s="55"/>
+      <c r="BV3" s="55"/>
+      <c r="BW3" s="55"/>
+      <c r="BX3" s="56"/>
+      <c r="BY3" s="54">
         <f t="shared" ref="BY3" si="4">BY5</f>
         <v>42177</v>
       </c>
-      <c r="BZ3" s="56"/>
-      <c r="CA3" s="56"/>
-      <c r="CB3" s="56"/>
-      <c r="CC3" s="56"/>
-      <c r="CD3" s="56"/>
-      <c r="CE3" s="57"/>
-      <c r="CF3" s="59">
+      <c r="BZ3" s="55"/>
+      <c r="CA3" s="55"/>
+      <c r="CB3" s="55"/>
+      <c r="CC3" s="55"/>
+      <c r="CD3" s="55"/>
+      <c r="CE3" s="56"/>
+      <c r="CF3" s="54">
         <f t="shared" ref="CF3" si="5">CF5</f>
         <v>42184</v>
       </c>
-      <c r="CG3" s="56"/>
-      <c r="CH3" s="56"/>
-      <c r="CI3" s="56"/>
-      <c r="CJ3" s="56"/>
-      <c r="CK3" s="56"/>
-      <c r="CL3" s="57"/>
-      <c r="CM3" s="59">
+      <c r="CG3" s="55"/>
+      <c r="CH3" s="55"/>
+      <c r="CI3" s="55"/>
+      <c r="CJ3" s="55"/>
+      <c r="CK3" s="55"/>
+      <c r="CL3" s="56"/>
+      <c r="CM3" s="54">
         <f t="shared" ref="CM3" si="6">CM5</f>
         <v>42191</v>
       </c>
-      <c r="CN3" s="56"/>
-      <c r="CO3" s="56"/>
-      <c r="CP3" s="56"/>
-      <c r="CQ3" s="56"/>
-      <c r="CR3" s="56"/>
-      <c r="CS3" s="57"/>
-      <c r="CT3" s="59">
+      <c r="CN3" s="55"/>
+      <c r="CO3" s="55"/>
+      <c r="CP3" s="55"/>
+      <c r="CQ3" s="55"/>
+      <c r="CR3" s="55"/>
+      <c r="CS3" s="56"/>
+      <c r="CT3" s="54">
         <f t="shared" ref="CT3" si="7">CT5</f>
         <v>42198</v>
       </c>
-      <c r="CU3" s="56"/>
-      <c r="CV3" s="56"/>
-      <c r="CW3" s="56"/>
-      <c r="CX3" s="56"/>
-      <c r="CY3" s="56"/>
-      <c r="CZ3" s="57"/>
+      <c r="CU3" s="55"/>
+      <c r="CV3" s="55"/>
+      <c r="CW3" s="55"/>
+      <c r="CX3" s="55"/>
+      <c r="CY3" s="55"/>
+      <c r="CZ3" s="56"/>
     </row>
     <row r="4" spans="1:104" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -22125,19 +22154,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CM3:CS3"/>
-    <mergeCell ref="CT3:CZ3"/>
-    <mergeCell ref="BY2:CE2"/>
-    <mergeCell ref="CF2:CL2"/>
-    <mergeCell ref="BY3:CE3"/>
-    <mergeCell ref="CF3:CL3"/>
-    <mergeCell ref="CM2:CS2"/>
-    <mergeCell ref="BD3:BJ3"/>
-    <mergeCell ref="BK2:BQ2"/>
-    <mergeCell ref="BR2:BX2"/>
-    <mergeCell ref="BK3:BQ3"/>
-    <mergeCell ref="BR3:BX3"/>
     <mergeCell ref="A1:CY1"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="G3:M3"/>
@@ -22154,6 +22170,19 @@
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="AP3:AV3"/>
     <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="BD3:BJ3"/>
+    <mergeCell ref="BK2:BQ2"/>
+    <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="BK3:BQ3"/>
+    <mergeCell ref="BR3:BX3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CM3:CS3"/>
+    <mergeCell ref="CT3:CZ3"/>
+    <mergeCell ref="BY2:CE2"/>
+    <mergeCell ref="CF2:CL2"/>
+    <mergeCell ref="BY3:CE3"/>
+    <mergeCell ref="CF3:CL3"/>
+    <mergeCell ref="CM2:CS2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:CW300">
     <cfRule type="expression" dxfId="14" priority="77">
@@ -45071,7 +45100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -45550,10 +45579,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45593,26 +45622,84 @@
       </c>
       <c r="H3">
         <f>SUM(Table13456[Time Spent (hours)])</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="60">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4">
+      <c r="C4" s="60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="60">
+        <v>4</v>
+      </c>
+      <c r="C5" s="61">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="60">
+        <v>8</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="60">
+        <v>18</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="60">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="C8" s="60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="60">
+        <v>10</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="60">
+        <v>2</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fin Bauer\Documents\Case Studies\CaseStudiesMachineLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Git\CaseStudiesMachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9570" tabRatio="842" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9570" tabRatio="842" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Some Hints and Explanations" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="188">
   <si>
     <t>Typ</t>
   </si>
@@ -606,6 +606,15 @@
   <si>
     <t>Special lecture</t>
   </si>
+  <si>
+    <t>6.9.</t>
+  </si>
+  <si>
+    <t>8.9.</t>
+  </si>
+  <si>
+    <t>10.9.</t>
+  </si>
 </sst>
 </file>
 
@@ -1016,7 +1025,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1025,7 +1039,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1034,23 +1048,18 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift 3" xfId="2" builtinId="18"/>
-    <cellStyle name="Überschrift 4" xfId="3" builtinId="19"/>
+    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -1605,7 +1614,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="111.5703125" customWidth="1"/>
   </cols>
@@ -1709,7 +1718,7 @@
       <selection activeCell="L36" sqref="A36:L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="21" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="23" customWidth="1"/>
@@ -4742,7 +4751,7 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="21" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="23" customWidth="1"/>
@@ -9215,7 +9224,7 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
@@ -9255,385 +9264,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="57"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="57"/>
-      <c r="BN1" s="57"/>
-      <c r="BO1" s="57"/>
-      <c r="BP1" s="57"/>
-      <c r="BQ1" s="57"/>
-      <c r="BR1" s="57"/>
-      <c r="BS1" s="57"/>
-      <c r="BT1" s="57"/>
-      <c r="BU1" s="57"/>
-      <c r="BV1" s="57"/>
-      <c r="BW1" s="57"/>
-      <c r="BX1" s="57"/>
-      <c r="BY1" s="57"/>
-      <c r="BZ1" s="57"/>
-      <c r="CA1" s="57"/>
-      <c r="CB1" s="57"/>
-      <c r="CC1" s="57"/>
-      <c r="CD1" s="57"/>
-      <c r="CE1" s="57"/>
-      <c r="CF1" s="57"/>
-      <c r="CG1" s="57"/>
-      <c r="CH1" s="57"/>
-      <c r="CI1" s="57"/>
-      <c r="CJ1" s="57"/>
-      <c r="CK1" s="57"/>
-      <c r="CL1" s="57"/>
-      <c r="CM1" s="57"/>
-      <c r="CN1" s="57"/>
-      <c r="CO1" s="57"/>
-      <c r="CP1" s="57"/>
-      <c r="CQ1" s="57"/>
-      <c r="CR1" s="57"/>
-      <c r="CS1" s="57"/>
-      <c r="CT1" s="57"/>
-      <c r="CU1" s="57"/>
-      <c r="CV1" s="57"/>
-      <c r="CW1" s="57"/>
-      <c r="CX1" s="57"/>
-      <c r="CY1" s="57"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="53"/>
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="53"/>
+      <c r="BG1" s="53"/>
+      <c r="BH1" s="53"/>
+      <c r="BI1" s="53"/>
+      <c r="BJ1" s="53"/>
+      <c r="BK1" s="53"/>
+      <c r="BL1" s="53"/>
+      <c r="BM1" s="53"/>
+      <c r="BN1" s="53"/>
+      <c r="BO1" s="53"/>
+      <c r="BP1" s="53"/>
+      <c r="BQ1" s="53"/>
+      <c r="BR1" s="53"/>
+      <c r="BS1" s="53"/>
+      <c r="BT1" s="53"/>
+      <c r="BU1" s="53"/>
+      <c r="BV1" s="53"/>
+      <c r="BW1" s="53"/>
+      <c r="BX1" s="53"/>
+      <c r="BY1" s="53"/>
+      <c r="BZ1" s="53"/>
+      <c r="CA1" s="53"/>
+      <c r="CB1" s="53"/>
+      <c r="CC1" s="53"/>
+      <c r="CD1" s="53"/>
+      <c r="CE1" s="53"/>
+      <c r="CF1" s="53"/>
+      <c r="CG1" s="53"/>
+      <c r="CH1" s="53"/>
+      <c r="CI1" s="53"/>
+      <c r="CJ1" s="53"/>
+      <c r="CK1" s="53"/>
+      <c r="CL1" s="53"/>
+      <c r="CM1" s="53"/>
+      <c r="CN1" s="53"/>
+      <c r="CO1" s="53"/>
+      <c r="CP1" s="53"/>
+      <c r="CQ1" s="53"/>
+      <c r="CR1" s="53"/>
+      <c r="CS1" s="53"/>
+      <c r="CT1" s="53"/>
+      <c r="CU1" s="53"/>
+      <c r="CV1" s="53"/>
+      <c r="CW1" s="53"/>
+      <c r="CX1" s="53"/>
+      <c r="CY1" s="53"/>
       <c r="CZ1" s="11"/>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="51" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="51" t="s">
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="51" t="s">
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="51" t="s">
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="51" t="s">
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="53"/>
-      <c r="BD2" s="51" t="s">
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="55"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="52"/>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="53"/>
-      <c r="BK2" s="51" t="s">
+      <c r="BE2" s="55"/>
+      <c r="BF2" s="55"/>
+      <c r="BG2" s="55"/>
+      <c r="BH2" s="55"/>
+      <c r="BI2" s="55"/>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="52"/>
-      <c r="BN2" s="52"/>
-      <c r="BO2" s="52"/>
-      <c r="BP2" s="52"/>
-      <c r="BQ2" s="53"/>
-      <c r="BR2" s="51" t="s">
+      <c r="BL2" s="55"/>
+      <c r="BM2" s="55"/>
+      <c r="BN2" s="55"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="55"/>
+      <c r="BQ2" s="56"/>
+      <c r="BR2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="BS2" s="52"/>
-      <c r="BT2" s="52"/>
-      <c r="BU2" s="52"/>
-      <c r="BV2" s="52"/>
-      <c r="BW2" s="52"/>
-      <c r="BX2" s="53"/>
-      <c r="BY2" s="51" t="s">
+      <c r="BS2" s="55"/>
+      <c r="BT2" s="55"/>
+      <c r="BU2" s="55"/>
+      <c r="BV2" s="55"/>
+      <c r="BW2" s="55"/>
+      <c r="BX2" s="56"/>
+      <c r="BY2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="BZ2" s="52"/>
-      <c r="CA2" s="52"/>
-      <c r="CB2" s="52"/>
-      <c r="CC2" s="52"/>
-      <c r="CD2" s="52"/>
-      <c r="CE2" s="53"/>
-      <c r="CF2" s="51" t="s">
+      <c r="BZ2" s="55"/>
+      <c r="CA2" s="55"/>
+      <c r="CB2" s="55"/>
+      <c r="CC2" s="55"/>
+      <c r="CD2" s="55"/>
+      <c r="CE2" s="56"/>
+      <c r="CF2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="CG2" s="52"/>
-      <c r="CH2" s="52"/>
-      <c r="CI2" s="52"/>
-      <c r="CJ2" s="52"/>
-      <c r="CK2" s="52"/>
-      <c r="CL2" s="53"/>
-      <c r="CM2" s="51" t="s">
+      <c r="CG2" s="55"/>
+      <c r="CH2" s="55"/>
+      <c r="CI2" s="55"/>
+      <c r="CJ2" s="55"/>
+      <c r="CK2" s="55"/>
+      <c r="CL2" s="56"/>
+      <c r="CM2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" s="52"/>
-      <c r="CO2" s="52"/>
-      <c r="CP2" s="52"/>
-      <c r="CQ2" s="52"/>
-      <c r="CR2" s="52"/>
-      <c r="CS2" s="53"/>
-      <c r="CT2" s="51" t="s">
+      <c r="CN2" s="55"/>
+      <c r="CO2" s="55"/>
+      <c r="CP2" s="55"/>
+      <c r="CQ2" s="55"/>
+      <c r="CR2" s="55"/>
+      <c r="CS2" s="56"/>
+      <c r="CT2" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="CU2" s="52"/>
-      <c r="CV2" s="52"/>
-      <c r="CW2" s="52"/>
-      <c r="CX2" s="52"/>
-      <c r="CY2" s="52"/>
-      <c r="CZ2" s="53"/>
+      <c r="CU2" s="55"/>
+      <c r="CV2" s="55"/>
+      <c r="CW2" s="55"/>
+      <c r="CX2" s="55"/>
+      <c r="CY2" s="55"/>
+      <c r="CZ2" s="56"/>
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="G3" s="59">
+      <c r="G3" s="57">
         <f>G5</f>
         <v>42107</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="54">
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="61">
         <f>N5</f>
         <v>42114</v>
       </c>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="54">
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="61">
         <f>U5</f>
         <v>42121</v>
       </c>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="54">
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="61">
         <f>AB5</f>
         <v>42128</v>
       </c>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="54">
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="61">
         <f>AI5</f>
         <v>42135</v>
       </c>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="54">
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="61">
         <f>AP5</f>
         <v>42142</v>
       </c>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="54">
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="58"/>
+      <c r="AU3" s="58"/>
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="61">
         <f t="shared" ref="AW3" si="0">AW5</f>
         <v>42149</v>
       </c>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="55"/>
-      <c r="AZ3" s="55"/>
-      <c r="BA3" s="55"/>
-      <c r="BB3" s="55"/>
-      <c r="BC3" s="56"/>
-      <c r="BD3" s="54">
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="58"/>
+      <c r="BA3" s="58"/>
+      <c r="BB3" s="58"/>
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="61">
         <f t="shared" ref="BD3" si="1">BD5</f>
         <v>42156</v>
       </c>
-      <c r="BE3" s="55"/>
-      <c r="BF3" s="55"/>
-      <c r="BG3" s="55"/>
-      <c r="BH3" s="55"/>
-      <c r="BI3" s="55"/>
-      <c r="BJ3" s="56"/>
-      <c r="BK3" s="54">
+      <c r="BE3" s="58"/>
+      <c r="BF3" s="58"/>
+      <c r="BG3" s="58"/>
+      <c r="BH3" s="58"/>
+      <c r="BI3" s="58"/>
+      <c r="BJ3" s="59"/>
+      <c r="BK3" s="61">
         <f t="shared" ref="BK3" si="2">BK5</f>
         <v>42163</v>
       </c>
-      <c r="BL3" s="55"/>
-      <c r="BM3" s="55"/>
-      <c r="BN3" s="55"/>
-      <c r="BO3" s="55"/>
-      <c r="BP3" s="55"/>
-      <c r="BQ3" s="56"/>
-      <c r="BR3" s="54">
+      <c r="BL3" s="58"/>
+      <c r="BM3" s="58"/>
+      <c r="BN3" s="58"/>
+      <c r="BO3" s="58"/>
+      <c r="BP3" s="58"/>
+      <c r="BQ3" s="59"/>
+      <c r="BR3" s="61">
         <f t="shared" ref="BR3" si="3">BR5</f>
         <v>42170</v>
       </c>
-      <c r="BS3" s="55"/>
-      <c r="BT3" s="55"/>
-      <c r="BU3" s="55"/>
-      <c r="BV3" s="55"/>
-      <c r="BW3" s="55"/>
-      <c r="BX3" s="56"/>
-      <c r="BY3" s="54">
+      <c r="BS3" s="58"/>
+      <c r="BT3" s="58"/>
+      <c r="BU3" s="58"/>
+      <c r="BV3" s="58"/>
+      <c r="BW3" s="58"/>
+      <c r="BX3" s="59"/>
+      <c r="BY3" s="61">
         <f t="shared" ref="BY3" si="4">BY5</f>
         <v>42177</v>
       </c>
-      <c r="BZ3" s="55"/>
-      <c r="CA3" s="55"/>
-      <c r="CB3" s="55"/>
-      <c r="CC3" s="55"/>
-      <c r="CD3" s="55"/>
-      <c r="CE3" s="56"/>
-      <c r="CF3" s="54">
+      <c r="BZ3" s="58"/>
+      <c r="CA3" s="58"/>
+      <c r="CB3" s="58"/>
+      <c r="CC3" s="58"/>
+      <c r="CD3" s="58"/>
+      <c r="CE3" s="59"/>
+      <c r="CF3" s="61">
         <f t="shared" ref="CF3" si="5">CF5</f>
         <v>42184</v>
       </c>
-      <c r="CG3" s="55"/>
-      <c r="CH3" s="55"/>
-      <c r="CI3" s="55"/>
-      <c r="CJ3" s="55"/>
-      <c r="CK3" s="55"/>
-      <c r="CL3" s="56"/>
-      <c r="CM3" s="54">
+      <c r="CG3" s="58"/>
+      <c r="CH3" s="58"/>
+      <c r="CI3" s="58"/>
+      <c r="CJ3" s="58"/>
+      <c r="CK3" s="58"/>
+      <c r="CL3" s="59"/>
+      <c r="CM3" s="61">
         <f t="shared" ref="CM3" si="6">CM5</f>
         <v>42191</v>
       </c>
-      <c r="CN3" s="55"/>
-      <c r="CO3" s="55"/>
-      <c r="CP3" s="55"/>
-      <c r="CQ3" s="55"/>
-      <c r="CR3" s="55"/>
-      <c r="CS3" s="56"/>
-      <c r="CT3" s="54">
+      <c r="CN3" s="58"/>
+      <c r="CO3" s="58"/>
+      <c r="CP3" s="58"/>
+      <c r="CQ3" s="58"/>
+      <c r="CR3" s="58"/>
+      <c r="CS3" s="59"/>
+      <c r="CT3" s="61">
         <f t="shared" ref="CT3" si="7">CT5</f>
         <v>42198</v>
       </c>
-      <c r="CU3" s="55"/>
-      <c r="CV3" s="55"/>
-      <c r="CW3" s="55"/>
-      <c r="CX3" s="55"/>
-      <c r="CY3" s="55"/>
-      <c r="CZ3" s="56"/>
+      <c r="CU3" s="58"/>
+      <c r="CV3" s="58"/>
+      <c r="CW3" s="58"/>
+      <c r="CX3" s="58"/>
+      <c r="CY3" s="58"/>
+      <c r="CZ3" s="59"/>
     </row>
     <row r="4" spans="1:104" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -22154,6 +22163,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CM3:CS3"/>
+    <mergeCell ref="CT3:CZ3"/>
+    <mergeCell ref="BY2:CE2"/>
+    <mergeCell ref="CF2:CL2"/>
+    <mergeCell ref="BY3:CE3"/>
+    <mergeCell ref="CF3:CL3"/>
+    <mergeCell ref="CM2:CS2"/>
+    <mergeCell ref="BD3:BJ3"/>
+    <mergeCell ref="BK2:BQ2"/>
+    <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="BK3:BQ3"/>
+    <mergeCell ref="BR3:BX3"/>
     <mergeCell ref="A1:CY1"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="G3:M3"/>
@@ -22170,19 +22192,6 @@
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="AP3:AV3"/>
     <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="BD3:BJ3"/>
-    <mergeCell ref="BK2:BQ2"/>
-    <mergeCell ref="BR2:BX2"/>
-    <mergeCell ref="BK3:BQ3"/>
-    <mergeCell ref="BR3:BX3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CM3:CS3"/>
-    <mergeCell ref="CT3:CZ3"/>
-    <mergeCell ref="BY2:CE2"/>
-    <mergeCell ref="CF2:CL2"/>
-    <mergeCell ref="BY3:CE3"/>
-    <mergeCell ref="CF3:CL3"/>
-    <mergeCell ref="CM2:CS2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:CW300">
     <cfRule type="expression" dxfId="14" priority="77">
@@ -22309,7 +22318,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
@@ -45104,7 +45113,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45207,7 +45216,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45299,7 +45308,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45411,15 +45420,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="41.42578125" customWidth="1"/>
     <col min="4" max="4" width="46.140625" customWidth="1"/>
@@ -45454,7 +45463,7 @@
       </c>
       <c r="H3">
         <f>SUM(Table1345[Time Spent (hours)])</f>
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -45554,6 +45563,39 @@
       </c>
       <c r="C12" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13">
+        <v>1.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15">
+        <v>9.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -45581,11 +45623,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45626,79 +45668,79 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="51">
         <v>3</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="51" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="51">
         <v>4</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="52">
         <v>42114</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="51">
         <v>8</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="51" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="51">
         <v>18</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="51" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="51">
         <v>2</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="51" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="51">
         <v>10</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="51" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="60">
+      <c r="B10" s="51">
         <v>2</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="51" t="s">
         <v>170</v>
       </c>
     </row>

--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Git\CaseStudiesMachineLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fin Bauer\Documents\Case Studies\CaseStudiesMachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9570" tabRatio="842" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9570" tabRatio="842" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Some Hints and Explanations" sheetId="3" r:id="rId1"/>
@@ -574,9 +574,6 @@
     <t>29.4.</t>
   </si>
   <si>
-    <t>24.4.2015, 25.4.2015, 27.4.2015, 29.4.2015</t>
-  </si>
-  <si>
     <t>Literature Research</t>
   </si>
   <si>
@@ -614,6 +611,9 @@
   </si>
   <si>
     <t>10.9.</t>
+  </si>
+  <si>
+    <t>24.4.2015, 25.4.2015, 27.4.2015, 29.4.2015, 6.5.2015, 8.5.2015, 10.5.2015</t>
   </si>
 </sst>
 </file>
@@ -1027,10 +1027,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1039,7 +1036,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1048,18 +1045,21 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
-    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift 3" xfId="2" builtinId="18"/>
+    <cellStyle name="Überschrift 4" xfId="3" builtinId="19"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -1614,7 +1614,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="111.5703125" customWidth="1"/>
   </cols>
@@ -1718,7 +1718,7 @@
       <selection activeCell="L36" sqref="A36:L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="21" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="23" customWidth="1"/>
@@ -4751,7 +4751,7 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="21" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="23" customWidth="1"/>
@@ -9224,7 +9224,7 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
@@ -9264,385 +9264,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="53"/>
-      <c r="BB1" s="53"/>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="53"/>
-      <c r="BG1" s="53"/>
-      <c r="BH1" s="53"/>
-      <c r="BI1" s="53"/>
-      <c r="BJ1" s="53"/>
-      <c r="BK1" s="53"/>
-      <c r="BL1" s="53"/>
-      <c r="BM1" s="53"/>
-      <c r="BN1" s="53"/>
-      <c r="BO1" s="53"/>
-      <c r="BP1" s="53"/>
-      <c r="BQ1" s="53"/>
-      <c r="BR1" s="53"/>
-      <c r="BS1" s="53"/>
-      <c r="BT1" s="53"/>
-      <c r="BU1" s="53"/>
-      <c r="BV1" s="53"/>
-      <c r="BW1" s="53"/>
-      <c r="BX1" s="53"/>
-      <c r="BY1" s="53"/>
-      <c r="BZ1" s="53"/>
-      <c r="CA1" s="53"/>
-      <c r="CB1" s="53"/>
-      <c r="CC1" s="53"/>
-      <c r="CD1" s="53"/>
-      <c r="CE1" s="53"/>
-      <c r="CF1" s="53"/>
-      <c r="CG1" s="53"/>
-      <c r="CH1" s="53"/>
-      <c r="CI1" s="53"/>
-      <c r="CJ1" s="53"/>
-      <c r="CK1" s="53"/>
-      <c r="CL1" s="53"/>
-      <c r="CM1" s="53"/>
-      <c r="CN1" s="53"/>
-      <c r="CO1" s="53"/>
-      <c r="CP1" s="53"/>
-      <c r="CQ1" s="53"/>
-      <c r="CR1" s="53"/>
-      <c r="CS1" s="53"/>
-      <c r="CT1" s="53"/>
-      <c r="CU1" s="53"/>
-      <c r="CV1" s="53"/>
-      <c r="CW1" s="53"/>
-      <c r="CX1" s="53"/>
-      <c r="CY1" s="53"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="59"/>
+      <c r="BC1" s="59"/>
+      <c r="BD1" s="59"/>
+      <c r="BE1" s="59"/>
+      <c r="BF1" s="59"/>
+      <c r="BG1" s="59"/>
+      <c r="BH1" s="59"/>
+      <c r="BI1" s="59"/>
+      <c r="BJ1" s="59"/>
+      <c r="BK1" s="59"/>
+      <c r="BL1" s="59"/>
+      <c r="BM1" s="59"/>
+      <c r="BN1" s="59"/>
+      <c r="BO1" s="59"/>
+      <c r="BP1" s="59"/>
+      <c r="BQ1" s="59"/>
+      <c r="BR1" s="59"/>
+      <c r="BS1" s="59"/>
+      <c r="BT1" s="59"/>
+      <c r="BU1" s="59"/>
+      <c r="BV1" s="59"/>
+      <c r="BW1" s="59"/>
+      <c r="BX1" s="59"/>
+      <c r="BY1" s="59"/>
+      <c r="BZ1" s="59"/>
+      <c r="CA1" s="59"/>
+      <c r="CB1" s="59"/>
+      <c r="CC1" s="59"/>
+      <c r="CD1" s="59"/>
+      <c r="CE1" s="59"/>
+      <c r="CF1" s="59"/>
+      <c r="CG1" s="59"/>
+      <c r="CH1" s="59"/>
+      <c r="CI1" s="59"/>
+      <c r="CJ1" s="59"/>
+      <c r="CK1" s="59"/>
+      <c r="CL1" s="59"/>
+      <c r="CM1" s="59"/>
+      <c r="CN1" s="59"/>
+      <c r="CO1" s="59"/>
+      <c r="CP1" s="59"/>
+      <c r="CQ1" s="59"/>
+      <c r="CR1" s="59"/>
+      <c r="CS1" s="59"/>
+      <c r="CT1" s="59"/>
+      <c r="CU1" s="59"/>
+      <c r="CV1" s="59"/>
+      <c r="CW1" s="59"/>
+      <c r="CX1" s="59"/>
+      <c r="CY1" s="59"/>
       <c r="CZ1" s="11"/>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="60" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="60" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="60" t="s">
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="60" t="s">
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="60" t="s">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="55"/>
-      <c r="AU2" s="55"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="60" t="s">
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="55"/>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="55"/>
-      <c r="BA2" s="55"/>
-      <c r="BB2" s="55"/>
-      <c r="BC2" s="56"/>
-      <c r="BD2" s="60" t="s">
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54"/>
+      <c r="BC2" s="55"/>
+      <c r="BD2" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BE2" s="55"/>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="55"/>
-      <c r="BH2" s="55"/>
-      <c r="BI2" s="55"/>
-      <c r="BJ2" s="56"/>
-      <c r="BK2" s="60" t="s">
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="BL2" s="55"/>
-      <c r="BM2" s="55"/>
-      <c r="BN2" s="55"/>
-      <c r="BO2" s="55"/>
-      <c r="BP2" s="55"/>
-      <c r="BQ2" s="56"/>
-      <c r="BR2" s="60" t="s">
+      <c r="BL2" s="54"/>
+      <c r="BM2" s="54"/>
+      <c r="BN2" s="54"/>
+      <c r="BO2" s="54"/>
+      <c r="BP2" s="54"/>
+      <c r="BQ2" s="55"/>
+      <c r="BR2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="BS2" s="55"/>
-      <c r="BT2" s="55"/>
-      <c r="BU2" s="55"/>
-      <c r="BV2" s="55"/>
-      <c r="BW2" s="55"/>
-      <c r="BX2" s="56"/>
-      <c r="BY2" s="60" t="s">
+      <c r="BS2" s="54"/>
+      <c r="BT2" s="54"/>
+      <c r="BU2" s="54"/>
+      <c r="BV2" s="54"/>
+      <c r="BW2" s="54"/>
+      <c r="BX2" s="55"/>
+      <c r="BY2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="BZ2" s="55"/>
-      <c r="CA2" s="55"/>
-      <c r="CB2" s="55"/>
-      <c r="CC2" s="55"/>
-      <c r="CD2" s="55"/>
-      <c r="CE2" s="56"/>
-      <c r="CF2" s="60" t="s">
+      <c r="BZ2" s="54"/>
+      <c r="CA2" s="54"/>
+      <c r="CB2" s="54"/>
+      <c r="CC2" s="54"/>
+      <c r="CD2" s="54"/>
+      <c r="CE2" s="55"/>
+      <c r="CF2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="CG2" s="55"/>
-      <c r="CH2" s="55"/>
-      <c r="CI2" s="55"/>
-      <c r="CJ2" s="55"/>
-      <c r="CK2" s="55"/>
-      <c r="CL2" s="56"/>
-      <c r="CM2" s="60" t="s">
+      <c r="CG2" s="54"/>
+      <c r="CH2" s="54"/>
+      <c r="CI2" s="54"/>
+      <c r="CJ2" s="54"/>
+      <c r="CK2" s="54"/>
+      <c r="CL2" s="55"/>
+      <c r="CM2" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" s="55"/>
-      <c r="CO2" s="55"/>
-      <c r="CP2" s="55"/>
-      <c r="CQ2" s="55"/>
-      <c r="CR2" s="55"/>
-      <c r="CS2" s="56"/>
-      <c r="CT2" s="60" t="s">
+      <c r="CN2" s="54"/>
+      <c r="CO2" s="54"/>
+      <c r="CP2" s="54"/>
+      <c r="CQ2" s="54"/>
+      <c r="CR2" s="54"/>
+      <c r="CS2" s="55"/>
+      <c r="CT2" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="CU2" s="55"/>
-      <c r="CV2" s="55"/>
-      <c r="CW2" s="55"/>
-      <c r="CX2" s="55"/>
-      <c r="CY2" s="55"/>
-      <c r="CZ2" s="56"/>
+      <c r="CU2" s="54"/>
+      <c r="CV2" s="54"/>
+      <c r="CW2" s="54"/>
+      <c r="CX2" s="54"/>
+      <c r="CY2" s="54"/>
+      <c r="CZ2" s="55"/>
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="G3" s="57">
+      <c r="G3" s="61">
         <f>G5</f>
         <v>42107</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="61">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="56">
         <f>N5</f>
         <v>42114</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="61">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="56">
         <f>U5</f>
         <v>42121</v>
       </c>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="61">
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="56">
         <f>AB5</f>
         <v>42128</v>
       </c>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="61">
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="56">
         <f>AI5</f>
         <v>42135</v>
       </c>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="61">
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="56">
         <f>AP5</f>
         <v>42142</v>
       </c>
-      <c r="AQ3" s="58"/>
-      <c r="AR3" s="58"/>
-      <c r="AS3" s="58"/>
-      <c r="AT3" s="58"/>
-      <c r="AU3" s="58"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="61">
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="56">
         <f t="shared" ref="AW3" si="0">AW5</f>
         <v>42149</v>
       </c>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="58"/>
-      <c r="AZ3" s="58"/>
-      <c r="BA3" s="58"/>
-      <c r="BB3" s="58"/>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="61">
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="57"/>
+      <c r="BC3" s="58"/>
+      <c r="BD3" s="56">
         <f t="shared" ref="BD3" si="1">BD5</f>
         <v>42156</v>
       </c>
-      <c r="BE3" s="58"/>
-      <c r="BF3" s="58"/>
-      <c r="BG3" s="58"/>
-      <c r="BH3" s="58"/>
-      <c r="BI3" s="58"/>
-      <c r="BJ3" s="59"/>
-      <c r="BK3" s="61">
+      <c r="BE3" s="57"/>
+      <c r="BF3" s="57"/>
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="57"/>
+      <c r="BI3" s="57"/>
+      <c r="BJ3" s="58"/>
+      <c r="BK3" s="56">
         <f t="shared" ref="BK3" si="2">BK5</f>
         <v>42163</v>
       </c>
-      <c r="BL3" s="58"/>
-      <c r="BM3" s="58"/>
-      <c r="BN3" s="58"/>
-      <c r="BO3" s="58"/>
-      <c r="BP3" s="58"/>
-      <c r="BQ3" s="59"/>
-      <c r="BR3" s="61">
+      <c r="BL3" s="57"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="58"/>
+      <c r="BR3" s="56">
         <f t="shared" ref="BR3" si="3">BR5</f>
         <v>42170</v>
       </c>
-      <c r="BS3" s="58"/>
-      <c r="BT3" s="58"/>
-      <c r="BU3" s="58"/>
-      <c r="BV3" s="58"/>
-      <c r="BW3" s="58"/>
-      <c r="BX3" s="59"/>
-      <c r="BY3" s="61">
+      <c r="BS3" s="57"/>
+      <c r="BT3" s="57"/>
+      <c r="BU3" s="57"/>
+      <c r="BV3" s="57"/>
+      <c r="BW3" s="57"/>
+      <c r="BX3" s="58"/>
+      <c r="BY3" s="56">
         <f t="shared" ref="BY3" si="4">BY5</f>
         <v>42177</v>
       </c>
-      <c r="BZ3" s="58"/>
-      <c r="CA3" s="58"/>
-      <c r="CB3" s="58"/>
-      <c r="CC3" s="58"/>
-      <c r="CD3" s="58"/>
-      <c r="CE3" s="59"/>
-      <c r="CF3" s="61">
+      <c r="BZ3" s="57"/>
+      <c r="CA3" s="57"/>
+      <c r="CB3" s="57"/>
+      <c r="CC3" s="57"/>
+      <c r="CD3" s="57"/>
+      <c r="CE3" s="58"/>
+      <c r="CF3" s="56">
         <f t="shared" ref="CF3" si="5">CF5</f>
         <v>42184</v>
       </c>
-      <c r="CG3" s="58"/>
-      <c r="CH3" s="58"/>
-      <c r="CI3" s="58"/>
-      <c r="CJ3" s="58"/>
-      <c r="CK3" s="58"/>
-      <c r="CL3" s="59"/>
-      <c r="CM3" s="61">
+      <c r="CG3" s="57"/>
+      <c r="CH3" s="57"/>
+      <c r="CI3" s="57"/>
+      <c r="CJ3" s="57"/>
+      <c r="CK3" s="57"/>
+      <c r="CL3" s="58"/>
+      <c r="CM3" s="56">
         <f t="shared" ref="CM3" si="6">CM5</f>
         <v>42191</v>
       </c>
-      <c r="CN3" s="58"/>
-      <c r="CO3" s="58"/>
-      <c r="CP3" s="58"/>
-      <c r="CQ3" s="58"/>
-      <c r="CR3" s="58"/>
-      <c r="CS3" s="59"/>
-      <c r="CT3" s="61">
+      <c r="CN3" s="57"/>
+      <c r="CO3" s="57"/>
+      <c r="CP3" s="57"/>
+      <c r="CQ3" s="57"/>
+      <c r="CR3" s="57"/>
+      <c r="CS3" s="58"/>
+      <c r="CT3" s="56">
         <f t="shared" ref="CT3" si="7">CT5</f>
         <v>42198</v>
       </c>
-      <c r="CU3" s="58"/>
-      <c r="CV3" s="58"/>
-      <c r="CW3" s="58"/>
-      <c r="CX3" s="58"/>
-      <c r="CY3" s="58"/>
-      <c r="CZ3" s="59"/>
+      <c r="CU3" s="57"/>
+      <c r="CV3" s="57"/>
+      <c r="CW3" s="57"/>
+      <c r="CX3" s="57"/>
+      <c r="CY3" s="57"/>
+      <c r="CZ3" s="58"/>
     </row>
     <row r="4" spans="1:104" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -22163,19 +22163,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CM3:CS3"/>
-    <mergeCell ref="CT3:CZ3"/>
-    <mergeCell ref="BY2:CE2"/>
-    <mergeCell ref="CF2:CL2"/>
-    <mergeCell ref="BY3:CE3"/>
-    <mergeCell ref="CF3:CL3"/>
-    <mergeCell ref="CM2:CS2"/>
-    <mergeCell ref="BD3:BJ3"/>
-    <mergeCell ref="BK2:BQ2"/>
-    <mergeCell ref="BR2:BX2"/>
-    <mergeCell ref="BK3:BQ3"/>
-    <mergeCell ref="BR3:BX3"/>
     <mergeCell ref="A1:CY1"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="G3:M3"/>
@@ -22192,6 +22179,19 @@
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="AP3:AV3"/>
     <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="BD3:BJ3"/>
+    <mergeCell ref="BK2:BQ2"/>
+    <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="BK3:BQ3"/>
+    <mergeCell ref="BR3:BX3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CM3:CS3"/>
+    <mergeCell ref="CT3:CZ3"/>
+    <mergeCell ref="BY2:CE2"/>
+    <mergeCell ref="CF2:CL2"/>
+    <mergeCell ref="BY3:CE3"/>
+    <mergeCell ref="CF3:CL3"/>
+    <mergeCell ref="CM2:CS2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:CW300">
     <cfRule type="expression" dxfId="14" priority="77">
@@ -22318,7 +22318,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
@@ -45109,11 +45109,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45149,7 +45149,7 @@
       </c>
       <c r="H3">
         <f>SUM(Table1[Time Spent (hours)])</f>
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -45176,10 +45176,10 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -45216,7 +45216,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45308,7 +45308,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45422,11 +45422,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.42578125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45573,7 +45573,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -45584,7 +45584,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -45595,7 +45595,7 @@
         <v>9.5</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -45627,7 +45627,7 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45669,13 +45669,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="51">
         <v>3</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -45691,13 +45691,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" s="51">
         <v>8</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -45708,34 +45708,34 @@
         <v>18</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="51">
         <v>2</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9" s="51">
         <v>10</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="51">
         <v>2</v>

--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fin Bauer\Documents\Case Studies\CaseStudiesMachineLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Git\CaseStudiesMachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9570" tabRatio="842" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9570" tabRatio="842" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Some Hints and Explanations" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="194">
   <si>
     <t>Typ</t>
   </si>
@@ -604,16 +604,34 @@
     <t>Special lecture</t>
   </si>
   <si>
-    <t>6.9.</t>
+    <t>24.4.2015, 25.4.2015, 27.4.2015, 29.4.2015, 6.5.2015, 8.5.2015, 10.5.2015</t>
   </si>
   <si>
-    <t>8.9.</t>
+    <t>Project Meeting</t>
   </si>
   <si>
-    <t>10.9.</t>
+    <t>6.5.</t>
   </si>
   <si>
-    <t>24.4.2015, 25.4.2015, 27.4.2015, 29.4.2015, 6.5.2015, 8.5.2015, 10.5.2015</t>
+    <t>8.5.</t>
+  </si>
+  <si>
+    <t>10.5.</t>
+  </si>
+  <si>
+    <t>18.5.</t>
+  </si>
+  <si>
+    <t>Reading Papers</t>
+  </si>
+  <si>
+    <t>17.5.</t>
+  </si>
+  <si>
+    <t>Implementing SQN algorithm</t>
+  </si>
+  <si>
+    <t>19.5.</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1045,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1036,7 +1057,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1045,21 +1066,18 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift 3" xfId="2" builtinId="18"/>
-    <cellStyle name="Überschrift 4" xfId="3" builtinId="19"/>
+    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -1320,8 +1338,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="A3:D18" totalsRowShown="0">
-  <autoFilter ref="A3:D18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="A3:D19" totalsRowShown="0">
+  <autoFilter ref="A3:D19"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Task"/>
     <tableColumn id="2" name="Time Spent (hours)"/>
@@ -1614,7 +1632,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="111.5703125" customWidth="1"/>
   </cols>
@@ -1718,7 +1736,7 @@
       <selection activeCell="L36" sqref="A36:L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="21" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="23" customWidth="1"/>
@@ -4751,7 +4769,7 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="21" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="23" customWidth="1"/>
@@ -9217,14 +9235,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ430"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="128" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="128" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
@@ -9264,385 +9282,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="59"/>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="59"/>
-      <c r="BF1" s="59"/>
-      <c r="BG1" s="59"/>
-      <c r="BH1" s="59"/>
-      <c r="BI1" s="59"/>
-      <c r="BJ1" s="59"/>
-      <c r="BK1" s="59"/>
-      <c r="BL1" s="59"/>
-      <c r="BM1" s="59"/>
-      <c r="BN1" s="59"/>
-      <c r="BO1" s="59"/>
-      <c r="BP1" s="59"/>
-      <c r="BQ1" s="59"/>
-      <c r="BR1" s="59"/>
-      <c r="BS1" s="59"/>
-      <c r="BT1" s="59"/>
-      <c r="BU1" s="59"/>
-      <c r="BV1" s="59"/>
-      <c r="BW1" s="59"/>
-      <c r="BX1" s="59"/>
-      <c r="BY1" s="59"/>
-      <c r="BZ1" s="59"/>
-      <c r="CA1" s="59"/>
-      <c r="CB1" s="59"/>
-      <c r="CC1" s="59"/>
-      <c r="CD1" s="59"/>
-      <c r="CE1" s="59"/>
-      <c r="CF1" s="59"/>
-      <c r="CG1" s="59"/>
-      <c r="CH1" s="59"/>
-      <c r="CI1" s="59"/>
-      <c r="CJ1" s="59"/>
-      <c r="CK1" s="59"/>
-      <c r="CL1" s="59"/>
-      <c r="CM1" s="59"/>
-      <c r="CN1" s="59"/>
-      <c r="CO1" s="59"/>
-      <c r="CP1" s="59"/>
-      <c r="CQ1" s="59"/>
-      <c r="CR1" s="59"/>
-      <c r="CS1" s="59"/>
-      <c r="CT1" s="59"/>
-      <c r="CU1" s="59"/>
-      <c r="CV1" s="59"/>
-      <c r="CW1" s="59"/>
-      <c r="CX1" s="59"/>
-      <c r="CY1" s="59"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="53"/>
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="53"/>
+      <c r="BG1" s="53"/>
+      <c r="BH1" s="53"/>
+      <c r="BI1" s="53"/>
+      <c r="BJ1" s="53"/>
+      <c r="BK1" s="53"/>
+      <c r="BL1" s="53"/>
+      <c r="BM1" s="53"/>
+      <c r="BN1" s="53"/>
+      <c r="BO1" s="53"/>
+      <c r="BP1" s="53"/>
+      <c r="BQ1" s="53"/>
+      <c r="BR1" s="53"/>
+      <c r="BS1" s="53"/>
+      <c r="BT1" s="53"/>
+      <c r="BU1" s="53"/>
+      <c r="BV1" s="53"/>
+      <c r="BW1" s="53"/>
+      <c r="BX1" s="53"/>
+      <c r="BY1" s="53"/>
+      <c r="BZ1" s="53"/>
+      <c r="CA1" s="53"/>
+      <c r="CB1" s="53"/>
+      <c r="CC1" s="53"/>
+      <c r="CD1" s="53"/>
+      <c r="CE1" s="53"/>
+      <c r="CF1" s="53"/>
+      <c r="CG1" s="53"/>
+      <c r="CH1" s="53"/>
+      <c r="CI1" s="53"/>
+      <c r="CJ1" s="53"/>
+      <c r="CK1" s="53"/>
+      <c r="CL1" s="53"/>
+      <c r="CM1" s="53"/>
+      <c r="CN1" s="53"/>
+      <c r="CO1" s="53"/>
+      <c r="CP1" s="53"/>
+      <c r="CQ1" s="53"/>
+      <c r="CR1" s="53"/>
+      <c r="CS1" s="53"/>
+      <c r="CT1" s="53"/>
+      <c r="CU1" s="53"/>
+      <c r="CV1" s="53"/>
+      <c r="CW1" s="53"/>
+      <c r="CX1" s="53"/>
+      <c r="CY1" s="53"/>
       <c r="CZ1" s="11"/>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="53" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="53" t="s">
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="53" t="s">
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="53" t="s">
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="53" t="s">
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="53" t="s">
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="54"/>
-      <c r="BB2" s="54"/>
-      <c r="BC2" s="55"/>
-      <c r="BD2" s="53" t="s">
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="55"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="53" t="s">
+      <c r="BE2" s="55"/>
+      <c r="BF2" s="55"/>
+      <c r="BG2" s="55"/>
+      <c r="BH2" s="55"/>
+      <c r="BI2" s="55"/>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="BL2" s="54"/>
-      <c r="BM2" s="54"/>
-      <c r="BN2" s="54"/>
-      <c r="BO2" s="54"/>
-      <c r="BP2" s="54"/>
-      <c r="BQ2" s="55"/>
-      <c r="BR2" s="53" t="s">
+      <c r="BL2" s="55"/>
+      <c r="BM2" s="55"/>
+      <c r="BN2" s="55"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="55"/>
+      <c r="BQ2" s="56"/>
+      <c r="BR2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="BS2" s="54"/>
-      <c r="BT2" s="54"/>
-      <c r="BU2" s="54"/>
-      <c r="BV2" s="54"/>
-      <c r="BW2" s="54"/>
-      <c r="BX2" s="55"/>
-      <c r="BY2" s="53" t="s">
+      <c r="BS2" s="55"/>
+      <c r="BT2" s="55"/>
+      <c r="BU2" s="55"/>
+      <c r="BV2" s="55"/>
+      <c r="BW2" s="55"/>
+      <c r="BX2" s="56"/>
+      <c r="BY2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="BZ2" s="54"/>
-      <c r="CA2" s="54"/>
-      <c r="CB2" s="54"/>
-      <c r="CC2" s="54"/>
-      <c r="CD2" s="54"/>
-      <c r="CE2" s="55"/>
-      <c r="CF2" s="53" t="s">
+      <c r="BZ2" s="55"/>
+      <c r="CA2" s="55"/>
+      <c r="CB2" s="55"/>
+      <c r="CC2" s="55"/>
+      <c r="CD2" s="55"/>
+      <c r="CE2" s="56"/>
+      <c r="CF2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="CG2" s="54"/>
-      <c r="CH2" s="54"/>
-      <c r="CI2" s="54"/>
-      <c r="CJ2" s="54"/>
-      <c r="CK2" s="54"/>
-      <c r="CL2" s="55"/>
-      <c r="CM2" s="53" t="s">
+      <c r="CG2" s="55"/>
+      <c r="CH2" s="55"/>
+      <c r="CI2" s="55"/>
+      <c r="CJ2" s="55"/>
+      <c r="CK2" s="55"/>
+      <c r="CL2" s="56"/>
+      <c r="CM2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" s="54"/>
-      <c r="CO2" s="54"/>
-      <c r="CP2" s="54"/>
-      <c r="CQ2" s="54"/>
-      <c r="CR2" s="54"/>
-      <c r="CS2" s="55"/>
-      <c r="CT2" s="53" t="s">
+      <c r="CN2" s="55"/>
+      <c r="CO2" s="55"/>
+      <c r="CP2" s="55"/>
+      <c r="CQ2" s="55"/>
+      <c r="CR2" s="55"/>
+      <c r="CS2" s="56"/>
+      <c r="CT2" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="CU2" s="54"/>
-      <c r="CV2" s="54"/>
-      <c r="CW2" s="54"/>
-      <c r="CX2" s="54"/>
-      <c r="CY2" s="54"/>
-      <c r="CZ2" s="55"/>
+      <c r="CU2" s="55"/>
+      <c r="CV2" s="55"/>
+      <c r="CW2" s="55"/>
+      <c r="CX2" s="55"/>
+      <c r="CY2" s="55"/>
+      <c r="CZ2" s="56"/>
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="G3" s="61">
+      <c r="G3" s="57">
         <f>G5</f>
         <v>42107</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="56">
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="61">
         <f>N5</f>
         <v>42114</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="56">
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="61">
         <f>U5</f>
         <v>42121</v>
       </c>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="56">
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="61">
         <f>AB5</f>
         <v>42128</v>
       </c>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="56">
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="61">
         <f>AI5</f>
         <v>42135</v>
       </c>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="56">
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="61">
         <f>AP5</f>
         <v>42142</v>
       </c>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="56">
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="58"/>
+      <c r="AU3" s="58"/>
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="61">
         <f t="shared" ref="AW3" si="0">AW5</f>
         <v>42149</v>
       </c>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="57"/>
-      <c r="BC3" s="58"/>
-      <c r="BD3" s="56">
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="58"/>
+      <c r="BA3" s="58"/>
+      <c r="BB3" s="58"/>
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="61">
         <f t="shared" ref="BD3" si="1">BD5</f>
         <v>42156</v>
       </c>
-      <c r="BE3" s="57"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="57"/>
-      <c r="BI3" s="57"/>
-      <c r="BJ3" s="58"/>
-      <c r="BK3" s="56">
+      <c r="BE3" s="58"/>
+      <c r="BF3" s="58"/>
+      <c r="BG3" s="58"/>
+      <c r="BH3" s="58"/>
+      <c r="BI3" s="58"/>
+      <c r="BJ3" s="59"/>
+      <c r="BK3" s="61">
         <f t="shared" ref="BK3" si="2">BK5</f>
         <v>42163</v>
       </c>
-      <c r="BL3" s="57"/>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="57"/>
-      <c r="BO3" s="57"/>
-      <c r="BP3" s="57"/>
-      <c r="BQ3" s="58"/>
-      <c r="BR3" s="56">
+      <c r="BL3" s="58"/>
+      <c r="BM3" s="58"/>
+      <c r="BN3" s="58"/>
+      <c r="BO3" s="58"/>
+      <c r="BP3" s="58"/>
+      <c r="BQ3" s="59"/>
+      <c r="BR3" s="61">
         <f t="shared" ref="BR3" si="3">BR5</f>
         <v>42170</v>
       </c>
-      <c r="BS3" s="57"/>
-      <c r="BT3" s="57"/>
-      <c r="BU3" s="57"/>
-      <c r="BV3" s="57"/>
-      <c r="BW3" s="57"/>
-      <c r="BX3" s="58"/>
-      <c r="BY3" s="56">
+      <c r="BS3" s="58"/>
+      <c r="BT3" s="58"/>
+      <c r="BU3" s="58"/>
+      <c r="BV3" s="58"/>
+      <c r="BW3" s="58"/>
+      <c r="BX3" s="59"/>
+      <c r="BY3" s="61">
         <f t="shared" ref="BY3" si="4">BY5</f>
         <v>42177</v>
       </c>
-      <c r="BZ3" s="57"/>
-      <c r="CA3" s="57"/>
-      <c r="CB3" s="57"/>
-      <c r="CC3" s="57"/>
-      <c r="CD3" s="57"/>
-      <c r="CE3" s="58"/>
-      <c r="CF3" s="56">
+      <c r="BZ3" s="58"/>
+      <c r="CA3" s="58"/>
+      <c r="CB3" s="58"/>
+      <c r="CC3" s="58"/>
+      <c r="CD3" s="58"/>
+      <c r="CE3" s="59"/>
+      <c r="CF3" s="61">
         <f t="shared" ref="CF3" si="5">CF5</f>
         <v>42184</v>
       </c>
-      <c r="CG3" s="57"/>
-      <c r="CH3" s="57"/>
-      <c r="CI3" s="57"/>
-      <c r="CJ3" s="57"/>
-      <c r="CK3" s="57"/>
-      <c r="CL3" s="58"/>
-      <c r="CM3" s="56">
+      <c r="CG3" s="58"/>
+      <c r="CH3" s="58"/>
+      <c r="CI3" s="58"/>
+      <c r="CJ3" s="58"/>
+      <c r="CK3" s="58"/>
+      <c r="CL3" s="59"/>
+      <c r="CM3" s="61">
         <f t="shared" ref="CM3" si="6">CM5</f>
         <v>42191</v>
       </c>
-      <c r="CN3" s="57"/>
-      <c r="CO3" s="57"/>
-      <c r="CP3" s="57"/>
-      <c r="CQ3" s="57"/>
-      <c r="CR3" s="57"/>
-      <c r="CS3" s="58"/>
-      <c r="CT3" s="56">
+      <c r="CN3" s="58"/>
+      <c r="CO3" s="58"/>
+      <c r="CP3" s="58"/>
+      <c r="CQ3" s="58"/>
+      <c r="CR3" s="58"/>
+      <c r="CS3" s="59"/>
+      <c r="CT3" s="61">
         <f t="shared" ref="CT3" si="7">CT5</f>
         <v>42198</v>
       </c>
-      <c r="CU3" s="57"/>
-      <c r="CV3" s="57"/>
-      <c r="CW3" s="57"/>
-      <c r="CX3" s="57"/>
-      <c r="CY3" s="57"/>
-      <c r="CZ3" s="58"/>
+      <c r="CU3" s="58"/>
+      <c r="CV3" s="58"/>
+      <c r="CW3" s="58"/>
+      <c r="CX3" s="58"/>
+      <c r="CY3" s="58"/>
+      <c r="CZ3" s="59"/>
     </row>
     <row r="4" spans="1:104" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -22163,6 +22181,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CM3:CS3"/>
+    <mergeCell ref="CT3:CZ3"/>
+    <mergeCell ref="BY2:CE2"/>
+    <mergeCell ref="CF2:CL2"/>
+    <mergeCell ref="BY3:CE3"/>
+    <mergeCell ref="CF3:CL3"/>
+    <mergeCell ref="CM2:CS2"/>
+    <mergeCell ref="BD3:BJ3"/>
+    <mergeCell ref="BK2:BQ2"/>
+    <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="BK3:BQ3"/>
+    <mergeCell ref="BR3:BX3"/>
     <mergeCell ref="A1:CY1"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="G3:M3"/>
@@ -22179,19 +22210,6 @@
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="AP3:AV3"/>
     <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="BD3:BJ3"/>
-    <mergeCell ref="BK2:BQ2"/>
-    <mergeCell ref="BR2:BX2"/>
-    <mergeCell ref="BK3:BQ3"/>
-    <mergeCell ref="BR3:BX3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CM3:CS3"/>
-    <mergeCell ref="CT3:CZ3"/>
-    <mergeCell ref="BY2:CE2"/>
-    <mergeCell ref="CF2:CL2"/>
-    <mergeCell ref="BY3:CE3"/>
-    <mergeCell ref="CF3:CL3"/>
-    <mergeCell ref="CM2:CS2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:CW300">
     <cfRule type="expression" dxfId="14" priority="77">
@@ -22318,7 +22336,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
@@ -45109,11 +45127,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45179,7 +45197,7 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -45216,7 +45234,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45308,7 +45326,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45420,13 +45438,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.42578125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45463,7 +45481,7 @@
       </c>
       <c r="H3">
         <f>SUM(Table1345[Time Spent (hours)])</f>
-        <v>59</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -45573,7 +45591,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -45584,7 +45602,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -45595,7 +45613,40 @@
         <v>9.5</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="51">
+        <v>3</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17">
+        <v>1.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -45611,7 +45662,7 @@
           <x14:formula1>
             <xm:f>'task extraction'!$H$2:$H$350</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A18</xm:sqref>
+          <xm:sqref>A4:A19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -45627,7 +45678,7 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>

--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Git\CaseStudiesMachineLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fin Bauer\Documents\Case Studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9570" tabRatio="842" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9570" tabRatio="842" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Some Hints and Explanations" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="198">
   <si>
     <t>Typ</t>
   </si>
@@ -633,6 +633,18 @@
   <si>
     <t>19.5.</t>
   </si>
+  <si>
+    <t>SQN-algorithm implementation</t>
+  </si>
+  <si>
+    <t>Mid-Term Presentation</t>
+  </si>
+  <si>
+    <t>23.4.2015,24.4.2015</t>
+  </si>
+  <si>
+    <t>19.4.2015,22.4.2015,24.4.2015</t>
+  </si>
 </sst>
 </file>
 
@@ -1045,10 +1057,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1057,7 +1066,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1066,18 +1075,21 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
-    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift 3" xfId="2" builtinId="18"/>
+    <cellStyle name="Überschrift 4" xfId="3" builtinId="19"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -1632,7 +1644,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="111.5703125" customWidth="1"/>
   </cols>
@@ -1736,7 +1748,7 @@
       <selection activeCell="L36" sqref="A36:L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="21" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="23" customWidth="1"/>
@@ -4769,7 +4781,7 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="21" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="23" customWidth="1"/>
@@ -9235,14 +9247,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ430"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="128" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="128" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
@@ -9282,385 +9294,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="53"/>
-      <c r="BB1" s="53"/>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="53"/>
-      <c r="BG1" s="53"/>
-      <c r="BH1" s="53"/>
-      <c r="BI1" s="53"/>
-      <c r="BJ1" s="53"/>
-      <c r="BK1" s="53"/>
-      <c r="BL1" s="53"/>
-      <c r="BM1" s="53"/>
-      <c r="BN1" s="53"/>
-      <c r="BO1" s="53"/>
-      <c r="BP1" s="53"/>
-      <c r="BQ1" s="53"/>
-      <c r="BR1" s="53"/>
-      <c r="BS1" s="53"/>
-      <c r="BT1" s="53"/>
-      <c r="BU1" s="53"/>
-      <c r="BV1" s="53"/>
-      <c r="BW1" s="53"/>
-      <c r="BX1" s="53"/>
-      <c r="BY1" s="53"/>
-      <c r="BZ1" s="53"/>
-      <c r="CA1" s="53"/>
-      <c r="CB1" s="53"/>
-      <c r="CC1" s="53"/>
-      <c r="CD1" s="53"/>
-      <c r="CE1" s="53"/>
-      <c r="CF1" s="53"/>
-      <c r="CG1" s="53"/>
-      <c r="CH1" s="53"/>
-      <c r="CI1" s="53"/>
-      <c r="CJ1" s="53"/>
-      <c r="CK1" s="53"/>
-      <c r="CL1" s="53"/>
-      <c r="CM1" s="53"/>
-      <c r="CN1" s="53"/>
-      <c r="CO1" s="53"/>
-      <c r="CP1" s="53"/>
-      <c r="CQ1" s="53"/>
-      <c r="CR1" s="53"/>
-      <c r="CS1" s="53"/>
-      <c r="CT1" s="53"/>
-      <c r="CU1" s="53"/>
-      <c r="CV1" s="53"/>
-      <c r="CW1" s="53"/>
-      <c r="CX1" s="53"/>
-      <c r="CY1" s="53"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="59"/>
+      <c r="BC1" s="59"/>
+      <c r="BD1" s="59"/>
+      <c r="BE1" s="59"/>
+      <c r="BF1" s="59"/>
+      <c r="BG1" s="59"/>
+      <c r="BH1" s="59"/>
+      <c r="BI1" s="59"/>
+      <c r="BJ1" s="59"/>
+      <c r="BK1" s="59"/>
+      <c r="BL1" s="59"/>
+      <c r="BM1" s="59"/>
+      <c r="BN1" s="59"/>
+      <c r="BO1" s="59"/>
+      <c r="BP1" s="59"/>
+      <c r="BQ1" s="59"/>
+      <c r="BR1" s="59"/>
+      <c r="BS1" s="59"/>
+      <c r="BT1" s="59"/>
+      <c r="BU1" s="59"/>
+      <c r="BV1" s="59"/>
+      <c r="BW1" s="59"/>
+      <c r="BX1" s="59"/>
+      <c r="BY1" s="59"/>
+      <c r="BZ1" s="59"/>
+      <c r="CA1" s="59"/>
+      <c r="CB1" s="59"/>
+      <c r="CC1" s="59"/>
+      <c r="CD1" s="59"/>
+      <c r="CE1" s="59"/>
+      <c r="CF1" s="59"/>
+      <c r="CG1" s="59"/>
+      <c r="CH1" s="59"/>
+      <c r="CI1" s="59"/>
+      <c r="CJ1" s="59"/>
+      <c r="CK1" s="59"/>
+      <c r="CL1" s="59"/>
+      <c r="CM1" s="59"/>
+      <c r="CN1" s="59"/>
+      <c r="CO1" s="59"/>
+      <c r="CP1" s="59"/>
+      <c r="CQ1" s="59"/>
+      <c r="CR1" s="59"/>
+      <c r="CS1" s="59"/>
+      <c r="CT1" s="59"/>
+      <c r="CU1" s="59"/>
+      <c r="CV1" s="59"/>
+      <c r="CW1" s="59"/>
+      <c r="CX1" s="59"/>
+      <c r="CY1" s="59"/>
       <c r="CZ1" s="11"/>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="60" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="60" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="60" t="s">
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="60" t="s">
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="60" t="s">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="55"/>
-      <c r="AU2" s="55"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="60" t="s">
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="55"/>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="55"/>
-      <c r="BA2" s="55"/>
-      <c r="BB2" s="55"/>
-      <c r="BC2" s="56"/>
-      <c r="BD2" s="60" t="s">
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54"/>
+      <c r="BC2" s="55"/>
+      <c r="BD2" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BE2" s="55"/>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="55"/>
-      <c r="BH2" s="55"/>
-      <c r="BI2" s="55"/>
-      <c r="BJ2" s="56"/>
-      <c r="BK2" s="60" t="s">
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="BL2" s="55"/>
-      <c r="BM2" s="55"/>
-      <c r="BN2" s="55"/>
-      <c r="BO2" s="55"/>
-      <c r="BP2" s="55"/>
-      <c r="BQ2" s="56"/>
-      <c r="BR2" s="60" t="s">
+      <c r="BL2" s="54"/>
+      <c r="BM2" s="54"/>
+      <c r="BN2" s="54"/>
+      <c r="BO2" s="54"/>
+      <c r="BP2" s="54"/>
+      <c r="BQ2" s="55"/>
+      <c r="BR2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="BS2" s="55"/>
-      <c r="BT2" s="55"/>
-      <c r="BU2" s="55"/>
-      <c r="BV2" s="55"/>
-      <c r="BW2" s="55"/>
-      <c r="BX2" s="56"/>
-      <c r="BY2" s="60" t="s">
+      <c r="BS2" s="54"/>
+      <c r="BT2" s="54"/>
+      <c r="BU2" s="54"/>
+      <c r="BV2" s="54"/>
+      <c r="BW2" s="54"/>
+      <c r="BX2" s="55"/>
+      <c r="BY2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="BZ2" s="55"/>
-      <c r="CA2" s="55"/>
-      <c r="CB2" s="55"/>
-      <c r="CC2" s="55"/>
-      <c r="CD2" s="55"/>
-      <c r="CE2" s="56"/>
-      <c r="CF2" s="60" t="s">
+      <c r="BZ2" s="54"/>
+      <c r="CA2" s="54"/>
+      <c r="CB2" s="54"/>
+      <c r="CC2" s="54"/>
+      <c r="CD2" s="54"/>
+      <c r="CE2" s="55"/>
+      <c r="CF2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="CG2" s="55"/>
-      <c r="CH2" s="55"/>
-      <c r="CI2" s="55"/>
-      <c r="CJ2" s="55"/>
-      <c r="CK2" s="55"/>
-      <c r="CL2" s="56"/>
-      <c r="CM2" s="60" t="s">
+      <c r="CG2" s="54"/>
+      <c r="CH2" s="54"/>
+      <c r="CI2" s="54"/>
+      <c r="CJ2" s="54"/>
+      <c r="CK2" s="54"/>
+      <c r="CL2" s="55"/>
+      <c r="CM2" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" s="55"/>
-      <c r="CO2" s="55"/>
-      <c r="CP2" s="55"/>
-      <c r="CQ2" s="55"/>
-      <c r="CR2" s="55"/>
-      <c r="CS2" s="56"/>
-      <c r="CT2" s="60" t="s">
+      <c r="CN2" s="54"/>
+      <c r="CO2" s="54"/>
+      <c r="CP2" s="54"/>
+      <c r="CQ2" s="54"/>
+      <c r="CR2" s="54"/>
+      <c r="CS2" s="55"/>
+      <c r="CT2" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="CU2" s="55"/>
-      <c r="CV2" s="55"/>
-      <c r="CW2" s="55"/>
-      <c r="CX2" s="55"/>
-      <c r="CY2" s="55"/>
-      <c r="CZ2" s="56"/>
+      <c r="CU2" s="54"/>
+      <c r="CV2" s="54"/>
+      <c r="CW2" s="54"/>
+      <c r="CX2" s="54"/>
+      <c r="CY2" s="54"/>
+      <c r="CZ2" s="55"/>
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="G3" s="57">
+      <c r="G3" s="61">
         <f>G5</f>
         <v>42107</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="61">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="56">
         <f>N5</f>
         <v>42114</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="61">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="56">
         <f>U5</f>
         <v>42121</v>
       </c>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="61">
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="56">
         <f>AB5</f>
         <v>42128</v>
       </c>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="61">
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="56">
         <f>AI5</f>
         <v>42135</v>
       </c>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="61">
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="56">
         <f>AP5</f>
         <v>42142</v>
       </c>
-      <c r="AQ3" s="58"/>
-      <c r="AR3" s="58"/>
-      <c r="AS3" s="58"/>
-      <c r="AT3" s="58"/>
-      <c r="AU3" s="58"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="61">
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="56">
         <f t="shared" ref="AW3" si="0">AW5</f>
         <v>42149</v>
       </c>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="58"/>
-      <c r="AZ3" s="58"/>
-      <c r="BA3" s="58"/>
-      <c r="BB3" s="58"/>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="61">
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="57"/>
+      <c r="BC3" s="58"/>
+      <c r="BD3" s="56">
         <f t="shared" ref="BD3" si="1">BD5</f>
         <v>42156</v>
       </c>
-      <c r="BE3" s="58"/>
-      <c r="BF3" s="58"/>
-      <c r="BG3" s="58"/>
-      <c r="BH3" s="58"/>
-      <c r="BI3" s="58"/>
-      <c r="BJ3" s="59"/>
-      <c r="BK3" s="61">
+      <c r="BE3" s="57"/>
+      <c r="BF3" s="57"/>
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="57"/>
+      <c r="BI3" s="57"/>
+      <c r="BJ3" s="58"/>
+      <c r="BK3" s="56">
         <f t="shared" ref="BK3" si="2">BK5</f>
         <v>42163</v>
       </c>
-      <c r="BL3" s="58"/>
-      <c r="BM3" s="58"/>
-      <c r="BN3" s="58"/>
-      <c r="BO3" s="58"/>
-      <c r="BP3" s="58"/>
-      <c r="BQ3" s="59"/>
-      <c r="BR3" s="61">
+      <c r="BL3" s="57"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="58"/>
+      <c r="BR3" s="56">
         <f t="shared" ref="BR3" si="3">BR5</f>
         <v>42170</v>
       </c>
-      <c r="BS3" s="58"/>
-      <c r="BT3" s="58"/>
-      <c r="BU3" s="58"/>
-      <c r="BV3" s="58"/>
-      <c r="BW3" s="58"/>
-      <c r="BX3" s="59"/>
-      <c r="BY3" s="61">
+      <c r="BS3" s="57"/>
+      <c r="BT3" s="57"/>
+      <c r="BU3" s="57"/>
+      <c r="BV3" s="57"/>
+      <c r="BW3" s="57"/>
+      <c r="BX3" s="58"/>
+      <c r="BY3" s="56">
         <f t="shared" ref="BY3" si="4">BY5</f>
         <v>42177</v>
       </c>
-      <c r="BZ3" s="58"/>
-      <c r="CA3" s="58"/>
-      <c r="CB3" s="58"/>
-      <c r="CC3" s="58"/>
-      <c r="CD3" s="58"/>
-      <c r="CE3" s="59"/>
-      <c r="CF3" s="61">
+      <c r="BZ3" s="57"/>
+      <c r="CA3" s="57"/>
+      <c r="CB3" s="57"/>
+      <c r="CC3" s="57"/>
+      <c r="CD3" s="57"/>
+      <c r="CE3" s="58"/>
+      <c r="CF3" s="56">
         <f t="shared" ref="CF3" si="5">CF5</f>
         <v>42184</v>
       </c>
-      <c r="CG3" s="58"/>
-      <c r="CH3" s="58"/>
-      <c r="CI3" s="58"/>
-      <c r="CJ3" s="58"/>
-      <c r="CK3" s="58"/>
-      <c r="CL3" s="59"/>
-      <c r="CM3" s="61">
+      <c r="CG3" s="57"/>
+      <c r="CH3" s="57"/>
+      <c r="CI3" s="57"/>
+      <c r="CJ3" s="57"/>
+      <c r="CK3" s="57"/>
+      <c r="CL3" s="58"/>
+      <c r="CM3" s="56">
         <f t="shared" ref="CM3" si="6">CM5</f>
         <v>42191</v>
       </c>
-      <c r="CN3" s="58"/>
-      <c r="CO3" s="58"/>
-      <c r="CP3" s="58"/>
-      <c r="CQ3" s="58"/>
-      <c r="CR3" s="58"/>
-      <c r="CS3" s="59"/>
-      <c r="CT3" s="61">
+      <c r="CN3" s="57"/>
+      <c r="CO3" s="57"/>
+      <c r="CP3" s="57"/>
+      <c r="CQ3" s="57"/>
+      <c r="CR3" s="57"/>
+      <c r="CS3" s="58"/>
+      <c r="CT3" s="56">
         <f t="shared" ref="CT3" si="7">CT5</f>
         <v>42198</v>
       </c>
-      <c r="CU3" s="58"/>
-      <c r="CV3" s="58"/>
-      <c r="CW3" s="58"/>
-      <c r="CX3" s="58"/>
-      <c r="CY3" s="58"/>
-      <c r="CZ3" s="59"/>
+      <c r="CU3" s="57"/>
+      <c r="CV3" s="57"/>
+      <c r="CW3" s="57"/>
+      <c r="CX3" s="57"/>
+      <c r="CY3" s="57"/>
+      <c r="CZ3" s="58"/>
     </row>
     <row r="4" spans="1:104" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -22181,19 +22193,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CM3:CS3"/>
-    <mergeCell ref="CT3:CZ3"/>
-    <mergeCell ref="BY2:CE2"/>
-    <mergeCell ref="CF2:CL2"/>
-    <mergeCell ref="BY3:CE3"/>
-    <mergeCell ref="CF3:CL3"/>
-    <mergeCell ref="CM2:CS2"/>
-    <mergeCell ref="BD3:BJ3"/>
-    <mergeCell ref="BK2:BQ2"/>
-    <mergeCell ref="BR2:BX2"/>
-    <mergeCell ref="BK3:BQ3"/>
-    <mergeCell ref="BR3:BX3"/>
     <mergeCell ref="A1:CY1"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="G3:M3"/>
@@ -22210,6 +22209,19 @@
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="AP3:AV3"/>
     <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="BD3:BJ3"/>
+    <mergeCell ref="BK2:BQ2"/>
+    <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="BK3:BQ3"/>
+    <mergeCell ref="BR3:BX3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CM3:CS3"/>
+    <mergeCell ref="CT3:CZ3"/>
+    <mergeCell ref="BY2:CE2"/>
+    <mergeCell ref="CF2:CL2"/>
+    <mergeCell ref="BY3:CE3"/>
+    <mergeCell ref="CF3:CL3"/>
+    <mergeCell ref="CM2:CS2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:CW300">
     <cfRule type="expression" dxfId="14" priority="77">
@@ -22336,7 +22348,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
@@ -45125,13 +45137,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45167,7 +45179,7 @@
       </c>
       <c r="H3">
         <f>SUM(Table1[Time Spent (hours)])</f>
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -45203,6 +45215,39 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="52">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -45234,7 +45279,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45326,7 +45371,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45444,7 +45489,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.42578125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45678,7 +45723,7 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>

--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fin Bauer\Documents\Case Studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fin Bauer\Documents\Case Studies\CaseStudiesMachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="200">
   <si>
     <t>Typ</t>
   </si>
@@ -645,6 +645,12 @@
   <si>
     <t>19.4.2015,22.4.2015,24.4.2015</t>
   </si>
+  <si>
+    <t>22.04.2015, 25.05.2015, 26.05.2015</t>
+  </si>
+  <si>
+    <t>GUI for Booth</t>
+  </si>
 </sst>
 </file>
 
@@ -1057,7 +1063,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1066,7 +1075,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,13 +1084,10 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -9294,385 +9300,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="59"/>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="59"/>
-      <c r="BF1" s="59"/>
-      <c r="BG1" s="59"/>
-      <c r="BH1" s="59"/>
-      <c r="BI1" s="59"/>
-      <c r="BJ1" s="59"/>
-      <c r="BK1" s="59"/>
-      <c r="BL1" s="59"/>
-      <c r="BM1" s="59"/>
-      <c r="BN1" s="59"/>
-      <c r="BO1" s="59"/>
-      <c r="BP1" s="59"/>
-      <c r="BQ1" s="59"/>
-      <c r="BR1" s="59"/>
-      <c r="BS1" s="59"/>
-      <c r="BT1" s="59"/>
-      <c r="BU1" s="59"/>
-      <c r="BV1" s="59"/>
-      <c r="BW1" s="59"/>
-      <c r="BX1" s="59"/>
-      <c r="BY1" s="59"/>
-      <c r="BZ1" s="59"/>
-      <c r="CA1" s="59"/>
-      <c r="CB1" s="59"/>
-      <c r="CC1" s="59"/>
-      <c r="CD1" s="59"/>
-      <c r="CE1" s="59"/>
-      <c r="CF1" s="59"/>
-      <c r="CG1" s="59"/>
-      <c r="CH1" s="59"/>
-      <c r="CI1" s="59"/>
-      <c r="CJ1" s="59"/>
-      <c r="CK1" s="59"/>
-      <c r="CL1" s="59"/>
-      <c r="CM1" s="59"/>
-      <c r="CN1" s="59"/>
-      <c r="CO1" s="59"/>
-      <c r="CP1" s="59"/>
-      <c r="CQ1" s="59"/>
-      <c r="CR1" s="59"/>
-      <c r="CS1" s="59"/>
-      <c r="CT1" s="59"/>
-      <c r="CU1" s="59"/>
-      <c r="CV1" s="59"/>
-      <c r="CW1" s="59"/>
-      <c r="CX1" s="59"/>
-      <c r="CY1" s="59"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="53"/>
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="53"/>
+      <c r="BG1" s="53"/>
+      <c r="BH1" s="53"/>
+      <c r="BI1" s="53"/>
+      <c r="BJ1" s="53"/>
+      <c r="BK1" s="53"/>
+      <c r="BL1" s="53"/>
+      <c r="BM1" s="53"/>
+      <c r="BN1" s="53"/>
+      <c r="BO1" s="53"/>
+      <c r="BP1" s="53"/>
+      <c r="BQ1" s="53"/>
+      <c r="BR1" s="53"/>
+      <c r="BS1" s="53"/>
+      <c r="BT1" s="53"/>
+      <c r="BU1" s="53"/>
+      <c r="BV1" s="53"/>
+      <c r="BW1" s="53"/>
+      <c r="BX1" s="53"/>
+      <c r="BY1" s="53"/>
+      <c r="BZ1" s="53"/>
+      <c r="CA1" s="53"/>
+      <c r="CB1" s="53"/>
+      <c r="CC1" s="53"/>
+      <c r="CD1" s="53"/>
+      <c r="CE1" s="53"/>
+      <c r="CF1" s="53"/>
+      <c r="CG1" s="53"/>
+      <c r="CH1" s="53"/>
+      <c r="CI1" s="53"/>
+      <c r="CJ1" s="53"/>
+      <c r="CK1" s="53"/>
+      <c r="CL1" s="53"/>
+      <c r="CM1" s="53"/>
+      <c r="CN1" s="53"/>
+      <c r="CO1" s="53"/>
+      <c r="CP1" s="53"/>
+      <c r="CQ1" s="53"/>
+      <c r="CR1" s="53"/>
+      <c r="CS1" s="53"/>
+      <c r="CT1" s="53"/>
+      <c r="CU1" s="53"/>
+      <c r="CV1" s="53"/>
+      <c r="CW1" s="53"/>
+      <c r="CX1" s="53"/>
+      <c r="CY1" s="53"/>
       <c r="CZ1" s="11"/>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="53" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="53" t="s">
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="53" t="s">
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="53" t="s">
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="53" t="s">
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="53" t="s">
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="54"/>
-      <c r="BB2" s="54"/>
-      <c r="BC2" s="55"/>
-      <c r="BD2" s="53" t="s">
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="55"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="53" t="s">
+      <c r="BE2" s="55"/>
+      <c r="BF2" s="55"/>
+      <c r="BG2" s="55"/>
+      <c r="BH2" s="55"/>
+      <c r="BI2" s="55"/>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="BL2" s="54"/>
-      <c r="BM2" s="54"/>
-      <c r="BN2" s="54"/>
-      <c r="BO2" s="54"/>
-      <c r="BP2" s="54"/>
-      <c r="BQ2" s="55"/>
-      <c r="BR2" s="53" t="s">
+      <c r="BL2" s="55"/>
+      <c r="BM2" s="55"/>
+      <c r="BN2" s="55"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="55"/>
+      <c r="BQ2" s="56"/>
+      <c r="BR2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="BS2" s="54"/>
-      <c r="BT2" s="54"/>
-      <c r="BU2" s="54"/>
-      <c r="BV2" s="54"/>
-      <c r="BW2" s="54"/>
-      <c r="BX2" s="55"/>
-      <c r="BY2" s="53" t="s">
+      <c r="BS2" s="55"/>
+      <c r="BT2" s="55"/>
+      <c r="BU2" s="55"/>
+      <c r="BV2" s="55"/>
+      <c r="BW2" s="55"/>
+      <c r="BX2" s="56"/>
+      <c r="BY2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="BZ2" s="54"/>
-      <c r="CA2" s="54"/>
-      <c r="CB2" s="54"/>
-      <c r="CC2" s="54"/>
-      <c r="CD2" s="54"/>
-      <c r="CE2" s="55"/>
-      <c r="CF2" s="53" t="s">
+      <c r="BZ2" s="55"/>
+      <c r="CA2" s="55"/>
+      <c r="CB2" s="55"/>
+      <c r="CC2" s="55"/>
+      <c r="CD2" s="55"/>
+      <c r="CE2" s="56"/>
+      <c r="CF2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="CG2" s="54"/>
-      <c r="CH2" s="54"/>
-      <c r="CI2" s="54"/>
-      <c r="CJ2" s="54"/>
-      <c r="CK2" s="54"/>
-      <c r="CL2" s="55"/>
-      <c r="CM2" s="53" t="s">
+      <c r="CG2" s="55"/>
+      <c r="CH2" s="55"/>
+      <c r="CI2" s="55"/>
+      <c r="CJ2" s="55"/>
+      <c r="CK2" s="55"/>
+      <c r="CL2" s="56"/>
+      <c r="CM2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" s="54"/>
-      <c r="CO2" s="54"/>
-      <c r="CP2" s="54"/>
-      <c r="CQ2" s="54"/>
-      <c r="CR2" s="54"/>
-      <c r="CS2" s="55"/>
-      <c r="CT2" s="53" t="s">
+      <c r="CN2" s="55"/>
+      <c r="CO2" s="55"/>
+      <c r="CP2" s="55"/>
+      <c r="CQ2" s="55"/>
+      <c r="CR2" s="55"/>
+      <c r="CS2" s="56"/>
+      <c r="CT2" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="CU2" s="54"/>
-      <c r="CV2" s="54"/>
-      <c r="CW2" s="54"/>
-      <c r="CX2" s="54"/>
-      <c r="CY2" s="54"/>
-      <c r="CZ2" s="55"/>
+      <c r="CU2" s="55"/>
+      <c r="CV2" s="55"/>
+      <c r="CW2" s="55"/>
+      <c r="CX2" s="55"/>
+      <c r="CY2" s="55"/>
+      <c r="CZ2" s="56"/>
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="G3" s="61">
+      <c r="G3" s="57">
         <f>G5</f>
         <v>42107</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="56">
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="61">
         <f>N5</f>
         <v>42114</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="56">
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="61">
         <f>U5</f>
         <v>42121</v>
       </c>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="56">
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="61">
         <f>AB5</f>
         <v>42128</v>
       </c>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="56">
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="61">
         <f>AI5</f>
         <v>42135</v>
       </c>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="56">
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="61">
         <f>AP5</f>
         <v>42142</v>
       </c>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="56">
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="58"/>
+      <c r="AU3" s="58"/>
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="61">
         <f t="shared" ref="AW3" si="0">AW5</f>
         <v>42149</v>
       </c>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="57"/>
-      <c r="BC3" s="58"/>
-      <c r="BD3" s="56">
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="58"/>
+      <c r="BA3" s="58"/>
+      <c r="BB3" s="58"/>
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="61">
         <f t="shared" ref="BD3" si="1">BD5</f>
         <v>42156</v>
       </c>
-      <c r="BE3" s="57"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="57"/>
-      <c r="BI3" s="57"/>
-      <c r="BJ3" s="58"/>
-      <c r="BK3" s="56">
+      <c r="BE3" s="58"/>
+      <c r="BF3" s="58"/>
+      <c r="BG3" s="58"/>
+      <c r="BH3" s="58"/>
+      <c r="BI3" s="58"/>
+      <c r="BJ3" s="59"/>
+      <c r="BK3" s="61">
         <f t="shared" ref="BK3" si="2">BK5</f>
         <v>42163</v>
       </c>
-      <c r="BL3" s="57"/>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="57"/>
-      <c r="BO3" s="57"/>
-      <c r="BP3" s="57"/>
-      <c r="BQ3" s="58"/>
-      <c r="BR3" s="56">
+      <c r="BL3" s="58"/>
+      <c r="BM3" s="58"/>
+      <c r="BN3" s="58"/>
+      <c r="BO3" s="58"/>
+      <c r="BP3" s="58"/>
+      <c r="BQ3" s="59"/>
+      <c r="BR3" s="61">
         <f t="shared" ref="BR3" si="3">BR5</f>
         <v>42170</v>
       </c>
-      <c r="BS3" s="57"/>
-      <c r="BT3" s="57"/>
-      <c r="BU3" s="57"/>
-      <c r="BV3" s="57"/>
-      <c r="BW3" s="57"/>
-      <c r="BX3" s="58"/>
-      <c r="BY3" s="56">
+      <c r="BS3" s="58"/>
+      <c r="BT3" s="58"/>
+      <c r="BU3" s="58"/>
+      <c r="BV3" s="58"/>
+      <c r="BW3" s="58"/>
+      <c r="BX3" s="59"/>
+      <c r="BY3" s="61">
         <f t="shared" ref="BY3" si="4">BY5</f>
         <v>42177</v>
       </c>
-      <c r="BZ3" s="57"/>
-      <c r="CA3" s="57"/>
-      <c r="CB3" s="57"/>
-      <c r="CC3" s="57"/>
-      <c r="CD3" s="57"/>
-      <c r="CE3" s="58"/>
-      <c r="CF3" s="56">
+      <c r="BZ3" s="58"/>
+      <c r="CA3" s="58"/>
+      <c r="CB3" s="58"/>
+      <c r="CC3" s="58"/>
+      <c r="CD3" s="58"/>
+      <c r="CE3" s="59"/>
+      <c r="CF3" s="61">
         <f t="shared" ref="CF3" si="5">CF5</f>
         <v>42184</v>
       </c>
-      <c r="CG3" s="57"/>
-      <c r="CH3" s="57"/>
-      <c r="CI3" s="57"/>
-      <c r="CJ3" s="57"/>
-      <c r="CK3" s="57"/>
-      <c r="CL3" s="58"/>
-      <c r="CM3" s="56">
+      <c r="CG3" s="58"/>
+      <c r="CH3" s="58"/>
+      <c r="CI3" s="58"/>
+      <c r="CJ3" s="58"/>
+      <c r="CK3" s="58"/>
+      <c r="CL3" s="59"/>
+      <c r="CM3" s="61">
         <f t="shared" ref="CM3" si="6">CM5</f>
         <v>42191</v>
       </c>
-      <c r="CN3" s="57"/>
-      <c r="CO3" s="57"/>
-      <c r="CP3" s="57"/>
-      <c r="CQ3" s="57"/>
-      <c r="CR3" s="57"/>
-      <c r="CS3" s="58"/>
-      <c r="CT3" s="56">
+      <c r="CN3" s="58"/>
+      <c r="CO3" s="58"/>
+      <c r="CP3" s="58"/>
+      <c r="CQ3" s="58"/>
+      <c r="CR3" s="58"/>
+      <c r="CS3" s="59"/>
+      <c r="CT3" s="61">
         <f t="shared" ref="CT3" si="7">CT5</f>
         <v>42198</v>
       </c>
-      <c r="CU3" s="57"/>
-      <c r="CV3" s="57"/>
-      <c r="CW3" s="57"/>
-      <c r="CX3" s="57"/>
-      <c r="CY3" s="57"/>
-      <c r="CZ3" s="58"/>
+      <c r="CU3" s="58"/>
+      <c r="CV3" s="58"/>
+      <c r="CW3" s="58"/>
+      <c r="CX3" s="58"/>
+      <c r="CY3" s="58"/>
+      <c r="CZ3" s="59"/>
     </row>
     <row r="4" spans="1:104" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -22193,6 +22199,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CM3:CS3"/>
+    <mergeCell ref="CT3:CZ3"/>
+    <mergeCell ref="BY2:CE2"/>
+    <mergeCell ref="CF2:CL2"/>
+    <mergeCell ref="BY3:CE3"/>
+    <mergeCell ref="CF3:CL3"/>
+    <mergeCell ref="CM2:CS2"/>
+    <mergeCell ref="BD3:BJ3"/>
+    <mergeCell ref="BK2:BQ2"/>
+    <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="BK3:BQ3"/>
+    <mergeCell ref="BR3:BX3"/>
     <mergeCell ref="A1:CY1"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="G3:M3"/>
@@ -22209,19 +22228,6 @@
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="AP3:AV3"/>
     <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="BD3:BJ3"/>
-    <mergeCell ref="BK2:BQ2"/>
-    <mergeCell ref="BR2:BX2"/>
-    <mergeCell ref="BK3:BQ3"/>
-    <mergeCell ref="BR3:BX3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CM3:CS3"/>
-    <mergeCell ref="CT3:CZ3"/>
-    <mergeCell ref="BY2:CE2"/>
-    <mergeCell ref="CF2:CL2"/>
-    <mergeCell ref="BY3:CE3"/>
-    <mergeCell ref="CF3:CL3"/>
-    <mergeCell ref="CM2:CS2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:CW300">
     <cfRule type="expression" dxfId="14" priority="77">
@@ -45137,10 +45143,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45179,7 +45185,7 @@
       </c>
       <c r="H3">
         <f>SUM(Table1[Time Spent (hours)])</f>
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -45233,10 +45239,10 @@
         <v>195</v>
       </c>
       <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="52">
-        <v>42116</v>
+        <v>12</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -45248,6 +45254,17 @@
       </c>
       <c r="C10" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="52">
+        <v>42151</v>
       </c>
     </row>
   </sheetData>

--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Git\CaseStudiesMachineLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fin Bauer\Documents\Case Studies\CaseStudiesMachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9570" tabRatio="842" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Some Hints and Explanations" sheetId="3" r:id="rId1"/>
@@ -45,12 +45,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="213">
   <si>
     <t>Typ</t>
   </si>
@@ -556,18 +559,6 @@
     <t>Literature Research</t>
   </si>
   <si>
-    <t>13.-15.4.2015</t>
-  </si>
-  <si>
-    <t>Python Tutorial</t>
-  </si>
-  <si>
-    <t>13.4.-now</t>
-  </si>
-  <si>
-    <t>24.4.+25.4.+27.4.+29.4.</t>
-  </si>
-  <si>
     <t>Prepare Pitch</t>
   </si>
   <si>
@@ -575,9 +566,6 @@
   </si>
   <si>
     <t>Meetings</t>
-  </si>
-  <si>
-    <t>20.4., 22.4., 27.4.</t>
   </si>
   <si>
     <t>Special lecture</t>
@@ -677,6 +665,33 @@
   </si>
   <si>
     <t>Implementation Proximal Method</t>
+  </si>
+  <si>
+    <t>20.4., 23.4., 27.4.,15.5.,1.6.</t>
+  </si>
+  <si>
+    <t>24.4.+25.4.+27.4.+29.4.,6.5.,8.5.,10.5.</t>
+  </si>
+  <si>
+    <t>20.-24.4.2015, 20.5.-24.5.</t>
+  </si>
+  <si>
+    <t>Midtermpresentation</t>
+  </si>
+  <si>
+    <t>23.5.,24.5.,27.5.</t>
+  </si>
+  <si>
+    <t>TUMMS</t>
+  </si>
+  <si>
+    <t>29.5.</t>
+  </si>
+  <si>
+    <t>(Python Tutorial)</t>
+  </si>
+  <si>
+    <t>13.4.-25.4.</t>
   </si>
 </sst>
 </file>
@@ -1117,271 +1132,11 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
-    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift 3" xfId="2" builtinId="18"/>
+    <cellStyle name="Überschrift 4" xfId="3" builtinId="19"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <b/>
@@ -1546,6 +1301,71 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -1579,8 +1399,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="47"/>
-      <tableStyleElement type="headerRow" dxfId="46"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="25"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1708,7 +1528,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1743,7 +1563,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1930,13 +1750,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="197" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="111.5703125" customWidth="1"/>
+    <col min="1" max="1" width="111.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -2027,6 +1847,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2034,11 +1859,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L323"/>
   <sheetViews>
-    <sheetView topLeftCell="D27" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView topLeftCell="D27" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
       <selection activeCell="A31" sqref="A1:L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="21" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="23" customWidth="1"/>
@@ -2953,13 +2778,13 @@
         <v>32</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E28" s="19">
         <v>42156</v>
@@ -2985,13 +2810,13 @@
         <v>32</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E29" s="19">
         <v>42522</v>
@@ -3017,13 +2842,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E30" s="19">
         <v>42156</v>
@@ -5081,41 +4906,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A38:B323">
-    <cfRule type="expression" dxfId="34" priority="114">
+    <cfRule type="expression" dxfId="6" priority="114">
       <formula>(#REF!="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:XFD37 A38:XFD322">
-    <cfRule type="expression" dxfId="33" priority="116">
+    <cfRule type="expression" dxfId="5" priority="116">
       <formula>(#REF!="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>(MID($A37,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L5 A7:L37">
-    <cfRule type="expression" dxfId="31" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>(MID($A3,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B5 A7:B37">
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>(MID($A3,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:L6">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>(MID($A6,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="28" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>(MID($A6,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5123,11 +4953,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L412"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="139" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="21" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="23" customWidth="1"/>
@@ -6043,13 +5873,13 @@
         <v>32</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E28" s="19">
         <v>42156</v>
@@ -6075,13 +5905,13 @@
         <v>30</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E29" s="19">
         <v>42522</v>
@@ -6107,13 +5937,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E30" s="19">
         <v>42156</v>
@@ -9610,56 +9440,61 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A39:B302">
-    <cfRule type="expression" dxfId="45" priority="86">
+    <cfRule type="expression" dxfId="24" priority="86">
       <formula>(MID($A39,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD300 M3:XFD38">
-    <cfRule type="expression" dxfId="44" priority="90">
+    <cfRule type="expression" dxfId="23" priority="90">
       <formula>(MID($A3,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B300">
-    <cfRule type="expression" dxfId="43" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>(MID($A39,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B38">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>(#REF!="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:L38">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="20" priority="7">
       <formula>(#REF!="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>(MID($A37,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L5 A7:L37">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>(MID($A3,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B5 A7:B37">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>(MID($A3,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:L6">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>(MID($A6,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>(MID($A6,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9667,14 +9502,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ430"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="128" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="AJ29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
@@ -10693,7 +10528,7 @@
         <v>42204</v>
       </c>
     </row>
-    <row r="6" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:104" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="str">
         <f>IF('Milestones + Packages'!B3&lt;&gt; "",'Milestones + Packages'!B3,"")</f>
         <v>Brainstorming phase</v>
@@ -10723,7 +10558,7 @@
         <v>42114</v>
       </c>
     </row>
-    <row r="7" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:104" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="str">
         <f>IF('Milestones + Packages'!B4&lt;&gt; "",'Milestones + Packages'!B4,"")</f>
         <v>Choose ML Application</v>
@@ -10783,7 +10618,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:104" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="str">
         <f>IF('Milestones + Packages'!B6&lt;&gt; "",'Milestones + Packages'!B6,"")</f>
         <v>Project Schedule</v>
@@ -10813,7 +10648,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:104" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="str">
         <f>IF('Milestones + Packages'!B7&lt;&gt; "",'Milestones + Packages'!B7,"")</f>
         <v>Define Milestones &amp; Packages</v>
@@ -10843,7 +10678,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:104" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="str">
         <f>IF('Milestones + Packages'!B8&lt;&gt; "",'Milestones + Packages'!B8,"")</f>
         <v>Revise and Finalize Project Plan</v>
@@ -10903,7 +10738,7 @@
         <v>42134</v>
       </c>
     </row>
-    <row r="13" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:104" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="str">
         <f>IF('Milestones + Packages'!B10&lt;&gt; "",'Milestones + Packages'!B10,"")</f>
         <v>Poster Macrodesign</v>
@@ -10963,7 +10798,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:104" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="str">
         <f>IF('Milestones + Packages'!B12&lt;&gt; "",'Milestones + Packages'!B12,"")</f>
         <v>Discuss and Finalize Poster Concept</v>
@@ -10993,7 +10828,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:104" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="str">
         <f>IF('Milestones + Packages'!B13&lt;&gt; "",'Milestones + Packages'!B13,"")</f>
         <v>Implementation</v>
@@ -11023,7 +10858,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="str">
         <f>IF('Milestones + Packages'!B14&lt;&gt; "",'Milestones + Packages'!B14,"")</f>
         <v>Internal Poster Presentation</v>
@@ -11053,7 +10888,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="str">
         <f>IF('Milestones + Packages'!B15&lt;&gt; "",'Milestones + Packages'!B15,"")</f>
         <v>Revise and Finalize Poster</v>
@@ -11143,7 +10978,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="str">
         <f>IF('Milestones + Packages'!B18&lt;&gt; "",'Milestones + Packages'!B18,"")</f>
         <v>Design UX</v>
@@ -11173,7 +11008,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="str">
         <f>IF('Milestones + Packages'!B19&lt;&gt; "",'Milestones + Packages'!B19,"")</f>
         <v xml:space="preserve">Finalize Booth </v>
@@ -11203,7 +11038,7 @@
         <v>42134</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="str">
         <f>IF('Milestones + Packages'!B20&lt;&gt; "",'Milestones + Packages'!B20,"")</f>
         <v>Prototype "App"</v>
@@ -11293,7 +11128,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="str">
         <f>IF('Milestones + Packages'!B23&lt;&gt; "",'Milestones + Packages'!B23,"")</f>
         <v>Further development</v>
@@ -11323,7 +11158,7 @@
         <v>42121</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="str">
         <f>IF('Milestones + Packages'!B24&lt;&gt; "",'Milestones + Packages'!B24,"")</f>
         <v xml:space="preserve">Algorithms </v>
@@ -11383,7 +11218,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="str">
         <f>IF('Milestones + Packages'!B26&lt;&gt; "",'Milestones + Packages'!B26,"")</f>
         <v>Literature Review</v>
@@ -11413,7 +11248,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="str">
         <f>IF('Milestones + Packages'!B27&lt;&gt; "",'Milestones + Packages'!B27,"")</f>
         <v>Model Selection</v>
@@ -11533,7 +11368,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="str">
         <f>IF('Milestones + Packages'!B31&lt;&gt; "",'Milestones + Packages'!B31,"")</f>
         <v>Tweaking for application</v>
@@ -11563,7 +11398,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="str">
         <f>IF('Milestones + Packages'!B32&lt;&gt; "",'Milestones + Packages'!B32,"")</f>
         <v>Testing, Benchmarking</v>
@@ -11593,7 +11428,7 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="str">
         <f>IF('Milestones + Packages'!B33&lt;&gt; "",'Milestones + Packages'!B33,"")</f>
         <v>Midterm Presenation</v>
@@ -11623,7 +11458,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="str">
         <f>IF('Milestones + Packages'!B34&lt;&gt; "",'Milestones + Packages'!B34,"")</f>
         <v>Prepare Presentation</v>
@@ -11683,7 +11518,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="str">
         <f>IF('Milestones + Packages'!B36&lt;&gt; "",'Milestones + Packages'!B36,"")</f>
         <v>Compile Results</v>
@@ -11713,7 +11548,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="str">
         <f>IF('Milestones + Packages'!B37&lt;&gt; "",'Milestones + Packages'!B37,"")</f>
         <v>Abstract</v>
@@ -11743,7 +11578,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="str">
         <f>IF('Milestones + Packages'!B38&lt;&gt; "",'Milestones + Packages'!B38,"")</f>
         <v>Prepare Presentation</v>
@@ -22644,12 +22479,12 @@
     <mergeCell ref="CM2:CS2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:CW300">
-    <cfRule type="expression" dxfId="42" priority="77">
+    <cfRule type="expression" dxfId="14" priority="77">
       <formula>NOT(ISNA(VLOOKUP(G$5,$F:$F,1,FALSE)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -22756,6 +22591,9 @@
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -22768,15 +22606,15 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" customWidth="1"/>
     <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="9" max="10" width="16.85546875" customWidth="1"/>
   </cols>
@@ -45551,19 +45389,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45599,7 +45442,7 @@
       </c>
       <c r="H3">
         <f>SUM(Table1[Time Spent (hours)])</f>
-        <v>66.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -45629,7 +45472,7 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -45639,40 +45482,40 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -45683,24 +45526,35 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B13">
         <v>1.5</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14">
+        <v>2.5</v>
+      </c>
+      <c r="C14" s="50">
+        <v>42153</v>
       </c>
     </row>
   </sheetData>
@@ -45720,6 +45574,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -45732,7 +45589,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45812,6 +45669,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -45824,7 +45684,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45930,6 +45790,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -45938,11 +45801,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.42578125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -46067,7 +45930,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -46089,7 +45952,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -46100,7 +45963,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -46111,62 +45974,62 @@
         <v>9.5</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B16" s="49">
         <v>3</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B17">
         <v>1.5</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -46186,19 +46049,22 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -46235,7 +46101,7 @@
       </c>
       <c r="H3">
         <f>SUM(Table13456[Time Spent (hours)])</f>
-        <v>47</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -46243,10 +46109,10 @@
         <v>167</v>
       </c>
       <c r="B4" s="49">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -46262,13 +46128,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="B6" s="49">
         <v>8</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -46276,43 +46142,65 @@
         <v>87</v>
       </c>
       <c r="B7" s="49">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B8" s="49">
         <v>2</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B9" s="49">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B10" s="49">
         <v>2</v>
       </c>
       <c r="C10" s="49" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12">
+        <v>3.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -46332,6 +46220,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="217">
   <si>
     <t>Typ</t>
   </si>
@@ -625,9 +625,6 @@
     <t>Team Meeting</t>
   </si>
   <si>
-    <t>18.05.2015</t>
-  </si>
-  <si>
     <t>27.5.</t>
   </si>
   <si>
@@ -692,6 +689,21 @@
   </si>
   <si>
     <t>13.4.-25.4.</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>Jakob</t>
+  </si>
+  <si>
+    <t>Proximal Implementation</t>
+  </si>
+  <si>
+    <t>1.6.,2.6.,3.6.,4.6.,5.6.,7.6.,9.9.,10.6.,11.6.,15.6.</t>
+  </si>
+  <si>
+    <t>18.05.2015, 15.06.</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1114,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1111,7 +1126,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,13 +1135,10 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2778,13 +2790,13 @@
         <v>32</v>
       </c>
       <c r="B28" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>197</v>
-      </c>
       <c r="D28" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E28" s="19">
         <v>42156</v>
@@ -2810,13 +2822,13 @@
         <v>32</v>
       </c>
       <c r="B29" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>199</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>200</v>
       </c>
       <c r="E29" s="19">
         <v>42522</v>
@@ -2842,13 +2854,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>202</v>
-      </c>
       <c r="D30" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E30" s="19">
         <v>42156</v>
@@ -4953,8 +4965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L412"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5009,19 +5021,19 @@
         <v>2</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>53</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -5873,13 +5885,13 @@
         <v>32</v>
       </c>
       <c r="B28" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>197</v>
-      </c>
       <c r="D28" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E28" s="19">
         <v>42156</v>
@@ -5905,13 +5917,13 @@
         <v>30</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C29" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="18" t="s">
         <v>199</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>200</v>
       </c>
       <c r="E29" s="19">
         <v>42522</v>
@@ -5937,13 +5949,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>202</v>
-      </c>
       <c r="D30" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E30" s="19">
         <v>42156</v>
@@ -9549,385 +9561,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="58"/>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="58"/>
-      <c r="BO1" s="58"/>
-      <c r="BP1" s="58"/>
-      <c r="BQ1" s="58"/>
-      <c r="BR1" s="58"/>
-      <c r="BS1" s="58"/>
-      <c r="BT1" s="58"/>
-      <c r="BU1" s="58"/>
-      <c r="BV1" s="58"/>
-      <c r="BW1" s="58"/>
-      <c r="BX1" s="58"/>
-      <c r="BY1" s="58"/>
-      <c r="BZ1" s="58"/>
-      <c r="CA1" s="58"/>
-      <c r="CB1" s="58"/>
-      <c r="CC1" s="58"/>
-      <c r="CD1" s="58"/>
-      <c r="CE1" s="58"/>
-      <c r="CF1" s="58"/>
-      <c r="CG1" s="58"/>
-      <c r="CH1" s="58"/>
-      <c r="CI1" s="58"/>
-      <c r="CJ1" s="58"/>
-      <c r="CK1" s="58"/>
-      <c r="CL1" s="58"/>
-      <c r="CM1" s="58"/>
-      <c r="CN1" s="58"/>
-      <c r="CO1" s="58"/>
-      <c r="CP1" s="58"/>
-      <c r="CQ1" s="58"/>
-      <c r="CR1" s="58"/>
-      <c r="CS1" s="58"/>
-      <c r="CT1" s="58"/>
-      <c r="CU1" s="58"/>
-      <c r="CV1" s="58"/>
-      <c r="CW1" s="58"/>
-      <c r="CX1" s="58"/>
-      <c r="CY1" s="58"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52"/>
+      <c r="BD1" s="52"/>
+      <c r="BE1" s="52"/>
+      <c r="BF1" s="52"/>
+      <c r="BG1" s="52"/>
+      <c r="BH1" s="52"/>
+      <c r="BI1" s="52"/>
+      <c r="BJ1" s="52"/>
+      <c r="BK1" s="52"/>
+      <c r="BL1" s="52"/>
+      <c r="BM1" s="52"/>
+      <c r="BN1" s="52"/>
+      <c r="BO1" s="52"/>
+      <c r="BP1" s="52"/>
+      <c r="BQ1" s="52"/>
+      <c r="BR1" s="52"/>
+      <c r="BS1" s="52"/>
+      <c r="BT1" s="52"/>
+      <c r="BU1" s="52"/>
+      <c r="BV1" s="52"/>
+      <c r="BW1" s="52"/>
+      <c r="BX1" s="52"/>
+      <c r="BY1" s="52"/>
+      <c r="BZ1" s="52"/>
+      <c r="CA1" s="52"/>
+      <c r="CB1" s="52"/>
+      <c r="CC1" s="52"/>
+      <c r="CD1" s="52"/>
+      <c r="CE1" s="52"/>
+      <c r="CF1" s="52"/>
+      <c r="CG1" s="52"/>
+      <c r="CH1" s="52"/>
+      <c r="CI1" s="52"/>
+      <c r="CJ1" s="52"/>
+      <c r="CK1" s="52"/>
+      <c r="CL1" s="52"/>
+      <c r="CM1" s="52"/>
+      <c r="CN1" s="52"/>
+      <c r="CO1" s="52"/>
+      <c r="CP1" s="52"/>
+      <c r="CQ1" s="52"/>
+      <c r="CR1" s="52"/>
+      <c r="CS1" s="52"/>
+      <c r="CT1" s="52"/>
+      <c r="CU1" s="52"/>
+      <c r="CV1" s="52"/>
+      <c r="CW1" s="52"/>
+      <c r="CX1" s="52"/>
+      <c r="CY1" s="52"/>
       <c r="CZ1" s="11"/>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="52" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="52" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="52" t="s">
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="52" t="s">
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="52" t="s">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="52" t="s">
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="53"/>
-      <c r="AY2" s="53"/>
-      <c r="AZ2" s="53"/>
-      <c r="BA2" s="53"/>
-      <c r="BB2" s="53"/>
-      <c r="BC2" s="54"/>
-      <c r="BD2" s="52" t="s">
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54"/>
+      <c r="BC2" s="55"/>
+      <c r="BD2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="BE2" s="53"/>
-      <c r="BF2" s="53"/>
-      <c r="BG2" s="53"/>
-      <c r="BH2" s="53"/>
-      <c r="BI2" s="53"/>
-      <c r="BJ2" s="54"/>
-      <c r="BK2" s="52" t="s">
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="BL2" s="53"/>
-      <c r="BM2" s="53"/>
-      <c r="BN2" s="53"/>
-      <c r="BO2" s="53"/>
-      <c r="BP2" s="53"/>
-      <c r="BQ2" s="54"/>
-      <c r="BR2" s="52" t="s">
+      <c r="BL2" s="54"/>
+      <c r="BM2" s="54"/>
+      <c r="BN2" s="54"/>
+      <c r="BO2" s="54"/>
+      <c r="BP2" s="54"/>
+      <c r="BQ2" s="55"/>
+      <c r="BR2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="BS2" s="53"/>
-      <c r="BT2" s="53"/>
-      <c r="BU2" s="53"/>
-      <c r="BV2" s="53"/>
-      <c r="BW2" s="53"/>
-      <c r="BX2" s="54"/>
-      <c r="BY2" s="52" t="s">
+      <c r="BS2" s="54"/>
+      <c r="BT2" s="54"/>
+      <c r="BU2" s="54"/>
+      <c r="BV2" s="54"/>
+      <c r="BW2" s="54"/>
+      <c r="BX2" s="55"/>
+      <c r="BY2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="BZ2" s="53"/>
-      <c r="CA2" s="53"/>
-      <c r="CB2" s="53"/>
-      <c r="CC2" s="53"/>
-      <c r="CD2" s="53"/>
-      <c r="CE2" s="54"/>
-      <c r="CF2" s="52" t="s">
+      <c r="BZ2" s="54"/>
+      <c r="CA2" s="54"/>
+      <c r="CB2" s="54"/>
+      <c r="CC2" s="54"/>
+      <c r="CD2" s="54"/>
+      <c r="CE2" s="55"/>
+      <c r="CF2" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="CG2" s="53"/>
-      <c r="CH2" s="53"/>
-      <c r="CI2" s="53"/>
-      <c r="CJ2" s="53"/>
-      <c r="CK2" s="53"/>
-      <c r="CL2" s="54"/>
-      <c r="CM2" s="52" t="s">
+      <c r="CG2" s="54"/>
+      <c r="CH2" s="54"/>
+      <c r="CI2" s="54"/>
+      <c r="CJ2" s="54"/>
+      <c r="CK2" s="54"/>
+      <c r="CL2" s="55"/>
+      <c r="CM2" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" s="53"/>
-      <c r="CO2" s="53"/>
-      <c r="CP2" s="53"/>
-      <c r="CQ2" s="53"/>
-      <c r="CR2" s="53"/>
-      <c r="CS2" s="54"/>
-      <c r="CT2" s="52" t="s">
+      <c r="CN2" s="54"/>
+      <c r="CO2" s="54"/>
+      <c r="CP2" s="54"/>
+      <c r="CQ2" s="54"/>
+      <c r="CR2" s="54"/>
+      <c r="CS2" s="55"/>
+      <c r="CT2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="CU2" s="53"/>
-      <c r="CV2" s="53"/>
-      <c r="CW2" s="53"/>
-      <c r="CX2" s="53"/>
-      <c r="CY2" s="53"/>
-      <c r="CZ2" s="54"/>
+      <c r="CU2" s="54"/>
+      <c r="CV2" s="54"/>
+      <c r="CW2" s="54"/>
+      <c r="CX2" s="54"/>
+      <c r="CY2" s="54"/>
+      <c r="CZ2" s="55"/>
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="G3" s="60">
+      <c r="G3" s="56">
         <f>G5</f>
         <v>42107</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="55">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="60">
         <f>N5</f>
         <v>42114</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="55">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="60">
         <f>U5</f>
         <v>42121</v>
       </c>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="55">
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="60">
         <f>AB5</f>
         <v>42128</v>
       </c>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="55">
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="60">
         <f>AI5</f>
         <v>42135</v>
       </c>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="55">
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="60">
         <f>AP5</f>
         <v>42142</v>
       </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="55">
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="60">
         <f t="shared" ref="AW3" si="0">AW5</f>
         <v>42149</v>
       </c>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="56"/>
-      <c r="BC3" s="57"/>
-      <c r="BD3" s="55">
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="57"/>
+      <c r="BC3" s="58"/>
+      <c r="BD3" s="60">
         <f t="shared" ref="BD3" si="1">BD5</f>
         <v>42156</v>
       </c>
-      <c r="BE3" s="56"/>
-      <c r="BF3" s="56"/>
-      <c r="BG3" s="56"/>
-      <c r="BH3" s="56"/>
-      <c r="BI3" s="56"/>
-      <c r="BJ3" s="57"/>
-      <c r="BK3" s="55">
+      <c r="BE3" s="57"/>
+      <c r="BF3" s="57"/>
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="57"/>
+      <c r="BI3" s="57"/>
+      <c r="BJ3" s="58"/>
+      <c r="BK3" s="60">
         <f t="shared" ref="BK3" si="2">BK5</f>
         <v>42163</v>
       </c>
-      <c r="BL3" s="56"/>
-      <c r="BM3" s="56"/>
-      <c r="BN3" s="56"/>
-      <c r="BO3" s="56"/>
-      <c r="BP3" s="56"/>
-      <c r="BQ3" s="57"/>
-      <c r="BR3" s="55">
+      <c r="BL3" s="57"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="58"/>
+      <c r="BR3" s="60">
         <f t="shared" ref="BR3" si="3">BR5</f>
         <v>42170</v>
       </c>
-      <c r="BS3" s="56"/>
-      <c r="BT3" s="56"/>
-      <c r="BU3" s="56"/>
-      <c r="BV3" s="56"/>
-      <c r="BW3" s="56"/>
-      <c r="BX3" s="57"/>
-      <c r="BY3" s="55">
+      <c r="BS3" s="57"/>
+      <c r="BT3" s="57"/>
+      <c r="BU3" s="57"/>
+      <c r="BV3" s="57"/>
+      <c r="BW3" s="57"/>
+      <c r="BX3" s="58"/>
+      <c r="BY3" s="60">
         <f t="shared" ref="BY3" si="4">BY5</f>
         <v>42177</v>
       </c>
-      <c r="BZ3" s="56"/>
-      <c r="CA3" s="56"/>
-      <c r="CB3" s="56"/>
-      <c r="CC3" s="56"/>
-      <c r="CD3" s="56"/>
-      <c r="CE3" s="57"/>
-      <c r="CF3" s="55">
+      <c r="BZ3" s="57"/>
+      <c r="CA3" s="57"/>
+      <c r="CB3" s="57"/>
+      <c r="CC3" s="57"/>
+      <c r="CD3" s="57"/>
+      <c r="CE3" s="58"/>
+      <c r="CF3" s="60">
         <f t="shared" ref="CF3" si="5">CF5</f>
         <v>42184</v>
       </c>
-      <c r="CG3" s="56"/>
-      <c r="CH3" s="56"/>
-      <c r="CI3" s="56"/>
-      <c r="CJ3" s="56"/>
-      <c r="CK3" s="56"/>
-      <c r="CL3" s="57"/>
-      <c r="CM3" s="55">
+      <c r="CG3" s="57"/>
+      <c r="CH3" s="57"/>
+      <c r="CI3" s="57"/>
+      <c r="CJ3" s="57"/>
+      <c r="CK3" s="57"/>
+      <c r="CL3" s="58"/>
+      <c r="CM3" s="60">
         <f t="shared" ref="CM3" si="6">CM5</f>
         <v>42191</v>
       </c>
-      <c r="CN3" s="56"/>
-      <c r="CO3" s="56"/>
-      <c r="CP3" s="56"/>
-      <c r="CQ3" s="56"/>
-      <c r="CR3" s="56"/>
-      <c r="CS3" s="57"/>
-      <c r="CT3" s="55">
+      <c r="CN3" s="57"/>
+      <c r="CO3" s="57"/>
+      <c r="CP3" s="57"/>
+      <c r="CQ3" s="57"/>
+      <c r="CR3" s="57"/>
+      <c r="CS3" s="58"/>
+      <c r="CT3" s="60">
         <f t="shared" ref="CT3" si="7">CT5</f>
         <v>42198</v>
       </c>
-      <c r="CU3" s="56"/>
-      <c r="CV3" s="56"/>
-      <c r="CW3" s="56"/>
-      <c r="CX3" s="56"/>
-      <c r="CY3" s="56"/>
-      <c r="CZ3" s="57"/>
+      <c r="CU3" s="57"/>
+      <c r="CV3" s="57"/>
+      <c r="CW3" s="57"/>
+      <c r="CX3" s="57"/>
+      <c r="CY3" s="57"/>
+      <c r="CZ3" s="58"/>
     </row>
     <row r="4" spans="1:104" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -10551,7 +10563,7 @@
 IF('Milestones + Packages'!J3&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K3&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L3&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F6" s="1">
         <f>IF('Milestones + Packages'!A3="(M)",'Gantt Chart'!B6,"")</f>
@@ -10581,7 +10593,7 @@
 IF('Milestones + Packages'!J4&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K4&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L4&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F7" s="1" t="str">
         <f>IF('Milestones + Packages'!A4="(M)",'Gantt Chart'!B7,"")</f>
@@ -10611,7 +10623,7 @@
 IF('Milestones + Packages'!J5&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K5&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L5&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">   Team Member 4  </v>
+        <v xml:space="preserve">   Stefan  </v>
       </c>
       <c r="F8" s="1" t="str">
         <f>IF('Milestones + Packages'!A5="(M)",'Gantt Chart'!B8,"")</f>
@@ -10641,7 +10653,7 @@
 IF('Milestones + Packages'!J6&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K6&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L6&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F9" s="1">
         <f>IF('Milestones + Packages'!A6="(M)",'Gantt Chart'!B9,"")</f>
@@ -10671,7 +10683,7 @@
 IF('Milestones + Packages'!J7&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K7&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L7&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F10" s="1" t="str">
         <f>IF('Milestones + Packages'!A7="(M)",'Gantt Chart'!B10,"")</f>
@@ -10701,7 +10713,7 @@
 IF('Milestones + Packages'!J8&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K8&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L8&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F11" s="1" t="str">
         <f>IF('Milestones + Packages'!A8="(M)",'Gantt Chart'!B11,"")</f>
@@ -10761,7 +10773,7 @@
 IF('Milestones + Packages'!J10&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K10&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L10&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F13" s="1" t="str">
         <f>IF('Milestones + Packages'!A10="(M)",'Gantt Chart'!B13,"")</f>
@@ -10791,7 +10803,7 @@
 IF('Milestones + Packages'!J11&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K11&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L11&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1    Team Member 5 </v>
+        <v xml:space="preserve">Fin    Jakob </v>
       </c>
       <c r="F14" s="1" t="str">
         <f>IF('Milestones + Packages'!A11="(M)",'Gantt Chart'!B14,"")</f>
@@ -10821,7 +10833,7 @@
 IF('Milestones + Packages'!J12&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K12&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L12&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F15" s="1" t="str">
         <f>IF('Milestones + Packages'!A12="(M)",'Gantt Chart'!B15,"")</f>
@@ -10851,7 +10863,7 @@
 IF('Milestones + Packages'!J13&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K13&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L13&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F16" s="1" t="str">
         <f>IF('Milestones + Packages'!A13="(M)",'Gantt Chart'!B16,"")</f>
@@ -10881,7 +10893,7 @@
 IF('Milestones + Packages'!J14&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K14&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L14&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F17" s="1" t="str">
         <f>IF('Milestones + Packages'!A15="(M)",'Gantt Chart'!B17,"")</f>
@@ -10911,7 +10923,7 @@
 IF('Milestones + Packages'!J15&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K15&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L15&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F18" s="1">
         <f>IF('Milestones + Packages'!A16="(M)",'Gantt Chart'!B18,"")</f>
@@ -10971,7 +10983,7 @@
 IF('Milestones + Packages'!J17&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K17&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L17&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1    Team Member 5 </v>
+        <v xml:space="preserve">Fin    Jakob </v>
       </c>
       <c r="F20" s="1" t="str">
         <f>IF('Milestones + Packages'!A18="(M)",'Gantt Chart'!B20,"")</f>
@@ -11001,7 +11013,7 @@
 IF('Milestones + Packages'!J18&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K18&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L18&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F21" s="1" t="str">
         <f>IF('Milestones + Packages'!A19="(M)",'Gantt Chart'!B21,"")</f>
@@ -11031,7 +11043,7 @@
 IF('Milestones + Packages'!J19&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K19&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L19&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F22" s="1">
         <f>IF('Milestones + Packages'!A20="(M)",'Gantt Chart'!B22,"")</f>
@@ -11061,7 +11073,7 @@
 IF('Milestones + Packages'!J20&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K20&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L20&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F23" s="1" t="str">
         <f>IF('Milestones + Packages'!A21="(M)",'Gantt Chart'!B23,"")</f>
@@ -11091,7 +11103,7 @@
 IF('Milestones + Packages'!J21&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K21&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L21&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve"> Team Member 2 Team Member 3   </v>
+        <v xml:space="preserve"> Stan Roland   </v>
       </c>
       <c r="F24" s="1" t="str">
         <f>IF('Milestones + Packages'!A22="(M)",'Gantt Chart'!B24,"")</f>
@@ -11121,7 +11133,7 @@
 IF('Milestones + Packages'!J22&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K22&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L22&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">    Team Member 5 </v>
+        <v xml:space="preserve">    Jakob </v>
       </c>
       <c r="F25" s="1" t="str">
         <f>IF('Milestones + Packages'!A23="(M)",'Gantt Chart'!B25,"")</f>
@@ -11151,7 +11163,7 @@
 IF('Milestones + Packages'!J23&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K23&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L23&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F26" s="1">
         <f>IF('Milestones + Packages'!A24="(M)",'Gantt Chart'!B26,"")</f>
@@ -11181,7 +11193,7 @@
 IF('Milestones + Packages'!J24&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K24&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L24&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F27" s="1" t="str">
         <f>IF('Milestones + Packages'!A25="(M)",'Gantt Chart'!B27,"")</f>
@@ -11211,7 +11223,7 @@
 IF('Milestones + Packages'!J25&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K25&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L25&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2    </v>
+        <v xml:space="preserve">Fin Stan    </v>
       </c>
       <c r="F28" s="1" t="str">
         <f>IF('Milestones + Packages'!A26="(M)",'Gantt Chart'!B28,"")</f>
@@ -11241,7 +11253,7 @@
 IF('Milestones + Packages'!J26&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K26&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L26&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F29" s="1" t="str">
         <f>IF('Milestones + Packages'!A27="(M)",'Gantt Chart'!B29,"")</f>
@@ -11271,7 +11283,7 @@
 IF('Milestones + Packages'!J27&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K27&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L27&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F30" s="1" t="str">
         <f>IF('Milestones + Packages'!A28="(M)",'Gantt Chart'!B30,"")</f>
@@ -11301,7 +11313,7 @@
 IF('Milestones + Packages'!J28&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K28&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L28&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">  Team Member 3 Team Member 4  </v>
+        <v xml:space="preserve">  Roland Stefan  </v>
       </c>
       <c r="F31" s="1" t="str">
         <f>IF('Milestones + Packages'!A29="(M)",'Gantt Chart'!B31,"")</f>
@@ -11331,7 +11343,7 @@
 IF('Milestones + Packages'!J29&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K29&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L29&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1    Team Member 5 </v>
+        <v xml:space="preserve">Fin    Jakob </v>
       </c>
       <c r="F32" s="1" t="str">
         <f>IF('Milestones + Packages'!A30="(M)",'Gantt Chart'!B32,"")</f>
@@ -11361,7 +11373,7 @@
 IF('Milestones + Packages'!J30&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K30&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L30&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve"> Team Member 2    </v>
+        <v xml:space="preserve"> Stan    </v>
       </c>
       <c r="F33" s="1" t="str">
         <f>IF('Milestones + Packages'!A31="(M)",'Gantt Chart'!B33,"")</f>
@@ -11391,7 +11403,7 @@
 IF('Milestones + Packages'!J31&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K31&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L31&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F34" s="1" t="str">
         <f>IF('Milestones + Packages'!A32="(M)",'Gantt Chart'!B34,"")</f>
@@ -11421,7 +11433,7 @@
 IF('Milestones + Packages'!J32&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K32&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L32&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F35" s="1">
         <f>IF('Milestones + Packages'!A33="(M)",'Gantt Chart'!B35,"")</f>
@@ -11451,7 +11463,7 @@
 IF('Milestones + Packages'!J33&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K33&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L33&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F36" s="1" t="str">
         <f>IF('Milestones + Packages'!A34="(M)",'Gantt Chart'!B36,"")</f>
@@ -11481,7 +11493,7 @@
 IF('Milestones + Packages'!J34&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K34&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L34&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F37" s="1">
         <f>IF('Milestones + Packages'!A35="(M)",'Gantt Chart'!B37,"")</f>
@@ -11541,7 +11553,7 @@
 IF('Milestones + Packages'!J36&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K36&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L36&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F39" s="1" t="str">
         <f>IF('Milestones + Packages'!A37="(M)",'Gantt Chart'!B39,"")</f>
@@ -11571,14 +11583,14 @@
 IF('Milestones + Packages'!J37&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K37&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L37&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F40" s="1" t="str">
         <f>IF('Milestones + Packages'!A38="(M)",'Gantt Chart'!B40,"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="str">
         <f>IF('Milestones + Packages'!B38&lt;&gt; "",'Milestones + Packages'!B38,"")</f>
         <v>Prepare Presentation</v>
@@ -11601,7 +11613,7 @@
 IF('Milestones + Packages'!J38&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K38&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L38&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Team Member 1 Team Member 2 Team Member 3 Team Member 4 Team Member 5 </v>
+        <v xml:space="preserve">Fin Stan Roland Stefan Jakob </v>
       </c>
       <c r="F41" s="1" t="str">
         <f>IF('Milestones + Packages'!A39="(M)",'Gantt Chart'!B41,"")</f>
@@ -22448,6 +22460,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CM3:CS3"/>
+    <mergeCell ref="CT3:CZ3"/>
+    <mergeCell ref="BY2:CE2"/>
+    <mergeCell ref="CF2:CL2"/>
+    <mergeCell ref="BY3:CE3"/>
+    <mergeCell ref="CF3:CL3"/>
+    <mergeCell ref="CM2:CS2"/>
+    <mergeCell ref="BD3:BJ3"/>
+    <mergeCell ref="BK2:BQ2"/>
+    <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="BK3:BQ3"/>
+    <mergeCell ref="BR3:BX3"/>
     <mergeCell ref="A1:CY1"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="G3:M3"/>
@@ -22464,19 +22489,6 @@
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="AP3:AV3"/>
     <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="BD3:BJ3"/>
-    <mergeCell ref="BK2:BQ2"/>
-    <mergeCell ref="BR2:BX2"/>
-    <mergeCell ref="BK3:BQ3"/>
-    <mergeCell ref="BR3:BX3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CM3:CS3"/>
-    <mergeCell ref="CT3:CZ3"/>
-    <mergeCell ref="BY2:CE2"/>
-    <mergeCell ref="CF2:CL2"/>
-    <mergeCell ref="BY3:CE3"/>
-    <mergeCell ref="CF3:CL3"/>
-    <mergeCell ref="CM2:CS2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:CW300">
     <cfRule type="expression" dxfId="14" priority="77">
@@ -22622,43 +22634,43 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="str">
         <f>'Milestones + Packages'!H2</f>
-        <v>Team Member 1</v>
+        <v>Fin</v>
       </c>
       <c r="B1" s="13" t="str">
         <f>'Milestones + Packages'!H2</f>
-        <v>Team Member 1</v>
+        <v>Fin</v>
       </c>
       <c r="C1" s="13" t="str">
         <f>'Milestones + Packages'!I2</f>
-        <v>Team Member 2</v>
+        <v>Stan</v>
       </c>
       <c r="D1" s="13" t="str">
         <f>'Milestones + Packages'!I2</f>
-        <v>Team Member 2</v>
+        <v>Stan</v>
       </c>
       <c r="E1" s="13" t="str">
         <f>'Milestones + Packages'!J2</f>
-        <v>Team Member 3</v>
+        <v>Roland</v>
       </c>
       <c r="F1" s="13" t="str">
         <f>'Milestones + Packages'!J2</f>
-        <v>Team Member 3</v>
+        <v>Roland</v>
       </c>
       <c r="G1" s="13" t="str">
         <f>'Milestones + Packages'!K2</f>
-        <v>Team Member 4</v>
+        <v>Stefan</v>
       </c>
       <c r="H1" s="13" t="str">
         <f>'Milestones + Packages'!K2</f>
-        <v>Team Member 4</v>
+        <v>Stefan</v>
       </c>
       <c r="I1" s="13" t="str">
         <f>'Milestones + Packages'!L2</f>
-        <v>Team Member 5</v>
+        <v>Jakob</v>
       </c>
       <c r="J1" s="13" t="str">
         <f>'Milestones + Packages'!L2</f>
-        <v>Team Member 5</v>
+        <v>Jakob</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -45400,10 +45412,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45418,7 +45430,7 @@
     <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="37" t="str">
         <f>CONCATENATE("Workload ",'Milestones + Packages'!H2)</f>
-        <v>Workload Team Member 1</v>
+        <v>Workload Fin</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -45442,7 +45454,7 @@
       </c>
       <c r="H3">
         <f>SUM(Table1[Time Spent (hours)])</f>
-        <v>69</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -45540,21 +45552,32 @@
         <v>189</v>
       </c>
       <c r="B13">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B14">
         <v>2.5</v>
       </c>
       <c r="C14" s="50">
         <v>42153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15">
+        <v>41.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -45601,7 +45624,7 @@
     <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="37" t="str">
         <f>CONCATENATE("Workload ",'Milestones + Packages'!I2)</f>
-        <v>Workload Team Member 2</v>
+        <v>Workload Stan</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -45697,7 +45720,7 @@
     <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="37" t="str">
         <f>CONCATENATE("Workload ",'Milestones + Packages'!J2)</f>
-        <v>Workload Team Member 3</v>
+        <v>Workload Roland</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -45818,7 +45841,7 @@
     <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="37" t="str">
         <f>CONCATENATE("Workload ",'Milestones + Packages'!K2)</f>
-        <v>Workload Team Member 4</v>
+        <v>Workload Stefan</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -45930,7 +45953,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -45990,7 +46013,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17">
         <v>1.5</v>
@@ -46018,18 +46041,18 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -46077,7 +46100,7 @@
     <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="37" t="str">
         <f>CONCATENATE("Workload ",'Milestones + Packages'!L2)</f>
-        <v>Workload Team Member 5</v>
+        <v>Workload Jakob</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -46112,7 +46135,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -46128,13 +46151,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="49">
         <v>8</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -46145,7 +46168,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -46167,7 +46190,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -46183,24 +46206,24 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B12">
         <v>3.5</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fin Bauer\Documents\Case Studies\CaseStudiesMachineLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Git\CaseStudiesMachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Some Hints and Explanations" sheetId="3" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="222">
   <si>
     <t>Typ</t>
   </si>
@@ -705,6 +705,21 @@
   <si>
     <t>18.05.2015, 15.06.</t>
   </si>
+  <si>
+    <t>10.6.</t>
+  </si>
+  <si>
+    <t>15.6.</t>
+  </si>
+  <si>
+    <t>Team Meeting, coding session at Stans house + debugging SQN</t>
+  </si>
+  <si>
+    <t>Meeting with Andre, Debugging, Testing SQN</t>
+  </si>
+  <si>
+    <t>21.6.</t>
+  </si>
 </sst>
 </file>
 
@@ -1114,10 +1129,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,7 +1138,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1135,18 +1147,21 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift 3" xfId="2" builtinId="18"/>
-    <cellStyle name="Überschrift 4" xfId="3" builtinId="19"/>
+    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -1472,8 +1487,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="A3:D20" totalsRowShown="0">
-  <autoFilter ref="A3:D20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="A3:D23" totalsRowShown="0">
+  <autoFilter ref="A3:D23"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Task"/>
     <tableColumn id="2" name="Time Spent (hours)"/>
@@ -1766,7 +1781,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="111.42578125" customWidth="1"/>
   </cols>
@@ -1875,7 +1890,7 @@
       <selection activeCell="A31" sqref="A1:L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="21" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="23" customWidth="1"/>
@@ -4969,7 +4984,7 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="21" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="23" customWidth="1"/>
@@ -9521,7 +9536,7 @@
       <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
@@ -9561,385 +9576,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52"/>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
-      <c r="BG1" s="52"/>
-      <c r="BH1" s="52"/>
-      <c r="BI1" s="52"/>
-      <c r="BJ1" s="52"/>
-      <c r="BK1" s="52"/>
-      <c r="BL1" s="52"/>
-      <c r="BM1" s="52"/>
-      <c r="BN1" s="52"/>
-      <c r="BO1" s="52"/>
-      <c r="BP1" s="52"/>
-      <c r="BQ1" s="52"/>
-      <c r="BR1" s="52"/>
-      <c r="BS1" s="52"/>
-      <c r="BT1" s="52"/>
-      <c r="BU1" s="52"/>
-      <c r="BV1" s="52"/>
-      <c r="BW1" s="52"/>
-      <c r="BX1" s="52"/>
-      <c r="BY1" s="52"/>
-      <c r="BZ1" s="52"/>
-      <c r="CA1" s="52"/>
-      <c r="CB1" s="52"/>
-      <c r="CC1" s="52"/>
-      <c r="CD1" s="52"/>
-      <c r="CE1" s="52"/>
-      <c r="CF1" s="52"/>
-      <c r="CG1" s="52"/>
-      <c r="CH1" s="52"/>
-      <c r="CI1" s="52"/>
-      <c r="CJ1" s="52"/>
-      <c r="CK1" s="52"/>
-      <c r="CL1" s="52"/>
-      <c r="CM1" s="52"/>
-      <c r="CN1" s="52"/>
-      <c r="CO1" s="52"/>
-      <c r="CP1" s="52"/>
-      <c r="CQ1" s="52"/>
-      <c r="CR1" s="52"/>
-      <c r="CS1" s="52"/>
-      <c r="CT1" s="52"/>
-      <c r="CU1" s="52"/>
-      <c r="CV1" s="52"/>
-      <c r="CW1" s="52"/>
-      <c r="CX1" s="52"/>
-      <c r="CY1" s="52"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="58"/>
+      <c r="BP1" s="58"/>
+      <c r="BQ1" s="58"/>
+      <c r="BR1" s="58"/>
+      <c r="BS1" s="58"/>
+      <c r="BT1" s="58"/>
+      <c r="BU1" s="58"/>
+      <c r="BV1" s="58"/>
+      <c r="BW1" s="58"/>
+      <c r="BX1" s="58"/>
+      <c r="BY1" s="58"/>
+      <c r="BZ1" s="58"/>
+      <c r="CA1" s="58"/>
+      <c r="CB1" s="58"/>
+      <c r="CC1" s="58"/>
+      <c r="CD1" s="58"/>
+      <c r="CE1" s="58"/>
+      <c r="CF1" s="58"/>
+      <c r="CG1" s="58"/>
+      <c r="CH1" s="58"/>
+      <c r="CI1" s="58"/>
+      <c r="CJ1" s="58"/>
+      <c r="CK1" s="58"/>
+      <c r="CL1" s="58"/>
+      <c r="CM1" s="58"/>
+      <c r="CN1" s="58"/>
+      <c r="CO1" s="58"/>
+      <c r="CP1" s="58"/>
+      <c r="CQ1" s="58"/>
+      <c r="CR1" s="58"/>
+      <c r="CS1" s="58"/>
+      <c r="CT1" s="58"/>
+      <c r="CU1" s="58"/>
+      <c r="CV1" s="58"/>
+      <c r="CW1" s="58"/>
+      <c r="CX1" s="58"/>
+      <c r="CY1" s="58"/>
       <c r="CZ1" s="11"/>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="59" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="59" t="s">
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="59" t="s">
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="59" t="s">
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="59" t="s">
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="59" t="s">
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="54"/>
-      <c r="BB2" s="54"/>
-      <c r="BC2" s="55"/>
-      <c r="BD2" s="59" t="s">
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="59" t="s">
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="54"/>
+      <c r="BK2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="BL2" s="54"/>
-      <c r="BM2" s="54"/>
-      <c r="BN2" s="54"/>
-      <c r="BO2" s="54"/>
-      <c r="BP2" s="54"/>
-      <c r="BQ2" s="55"/>
-      <c r="BR2" s="59" t="s">
+      <c r="BL2" s="53"/>
+      <c r="BM2" s="53"/>
+      <c r="BN2" s="53"/>
+      <c r="BO2" s="53"/>
+      <c r="BP2" s="53"/>
+      <c r="BQ2" s="54"/>
+      <c r="BR2" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="BS2" s="54"/>
-      <c r="BT2" s="54"/>
-      <c r="BU2" s="54"/>
-      <c r="BV2" s="54"/>
-      <c r="BW2" s="54"/>
-      <c r="BX2" s="55"/>
-      <c r="BY2" s="59" t="s">
+      <c r="BS2" s="53"/>
+      <c r="BT2" s="53"/>
+      <c r="BU2" s="53"/>
+      <c r="BV2" s="53"/>
+      <c r="BW2" s="53"/>
+      <c r="BX2" s="54"/>
+      <c r="BY2" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="BZ2" s="54"/>
-      <c r="CA2" s="54"/>
-      <c r="CB2" s="54"/>
-      <c r="CC2" s="54"/>
-      <c r="CD2" s="54"/>
-      <c r="CE2" s="55"/>
-      <c r="CF2" s="59" t="s">
+      <c r="BZ2" s="53"/>
+      <c r="CA2" s="53"/>
+      <c r="CB2" s="53"/>
+      <c r="CC2" s="53"/>
+      <c r="CD2" s="53"/>
+      <c r="CE2" s="54"/>
+      <c r="CF2" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="CG2" s="54"/>
-      <c r="CH2" s="54"/>
-      <c r="CI2" s="54"/>
-      <c r="CJ2" s="54"/>
-      <c r="CK2" s="54"/>
-      <c r="CL2" s="55"/>
-      <c r="CM2" s="59" t="s">
+      <c r="CG2" s="53"/>
+      <c r="CH2" s="53"/>
+      <c r="CI2" s="53"/>
+      <c r="CJ2" s="53"/>
+      <c r="CK2" s="53"/>
+      <c r="CL2" s="54"/>
+      <c r="CM2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" s="54"/>
-      <c r="CO2" s="54"/>
-      <c r="CP2" s="54"/>
-      <c r="CQ2" s="54"/>
-      <c r="CR2" s="54"/>
-      <c r="CS2" s="55"/>
-      <c r="CT2" s="59" t="s">
+      <c r="CN2" s="53"/>
+      <c r="CO2" s="53"/>
+      <c r="CP2" s="53"/>
+      <c r="CQ2" s="53"/>
+      <c r="CR2" s="53"/>
+      <c r="CS2" s="54"/>
+      <c r="CT2" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="CU2" s="54"/>
-      <c r="CV2" s="54"/>
-      <c r="CW2" s="54"/>
-      <c r="CX2" s="54"/>
-      <c r="CY2" s="54"/>
-      <c r="CZ2" s="55"/>
+      <c r="CU2" s="53"/>
+      <c r="CV2" s="53"/>
+      <c r="CW2" s="53"/>
+      <c r="CX2" s="53"/>
+      <c r="CY2" s="53"/>
+      <c r="CZ2" s="54"/>
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="G3" s="56">
+      <c r="G3" s="60">
         <f>G5</f>
         <v>42107</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="60">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="55">
         <f>N5</f>
         <v>42114</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="60">
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="55">
         <f>U5</f>
         <v>42121</v>
       </c>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="60">
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="55">
         <f>AB5</f>
         <v>42128</v>
       </c>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="60">
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="55">
         <f>AI5</f>
         <v>42135</v>
       </c>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="60">
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="55">
         <f>AP5</f>
         <v>42142</v>
       </c>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="60">
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="55">
         <f t="shared" ref="AW3" si="0">AW5</f>
         <v>42149</v>
       </c>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="57"/>
-      <c r="BC3" s="58"/>
-      <c r="BD3" s="60">
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="57"/>
+      <c r="BD3" s="55">
         <f t="shared" ref="BD3" si="1">BD5</f>
         <v>42156</v>
       </c>
-      <c r="BE3" s="57"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="57"/>
-      <c r="BI3" s="57"/>
-      <c r="BJ3" s="58"/>
-      <c r="BK3" s="60">
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="56"/>
+      <c r="BG3" s="56"/>
+      <c r="BH3" s="56"/>
+      <c r="BI3" s="56"/>
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="55">
         <f t="shared" ref="BK3" si="2">BK5</f>
         <v>42163</v>
       </c>
-      <c r="BL3" s="57"/>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="57"/>
-      <c r="BO3" s="57"/>
-      <c r="BP3" s="57"/>
-      <c r="BQ3" s="58"/>
-      <c r="BR3" s="60">
+      <c r="BL3" s="56"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="56"/>
+      <c r="BP3" s="56"/>
+      <c r="BQ3" s="57"/>
+      <c r="BR3" s="55">
         <f t="shared" ref="BR3" si="3">BR5</f>
         <v>42170</v>
       </c>
-      <c r="BS3" s="57"/>
-      <c r="BT3" s="57"/>
-      <c r="BU3" s="57"/>
-      <c r="BV3" s="57"/>
-      <c r="BW3" s="57"/>
-      <c r="BX3" s="58"/>
-      <c r="BY3" s="60">
+      <c r="BS3" s="56"/>
+      <c r="BT3" s="56"/>
+      <c r="BU3" s="56"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="56"/>
+      <c r="BX3" s="57"/>
+      <c r="BY3" s="55">
         <f t="shared" ref="BY3" si="4">BY5</f>
         <v>42177</v>
       </c>
-      <c r="BZ3" s="57"/>
-      <c r="CA3" s="57"/>
-      <c r="CB3" s="57"/>
-      <c r="CC3" s="57"/>
-      <c r="CD3" s="57"/>
-      <c r="CE3" s="58"/>
-      <c r="CF3" s="60">
+      <c r="BZ3" s="56"/>
+      <c r="CA3" s="56"/>
+      <c r="CB3" s="56"/>
+      <c r="CC3" s="56"/>
+      <c r="CD3" s="56"/>
+      <c r="CE3" s="57"/>
+      <c r="CF3" s="55">
         <f t="shared" ref="CF3" si="5">CF5</f>
         <v>42184</v>
       </c>
-      <c r="CG3" s="57"/>
-      <c r="CH3" s="57"/>
-      <c r="CI3" s="57"/>
-      <c r="CJ3" s="57"/>
-      <c r="CK3" s="57"/>
-      <c r="CL3" s="58"/>
-      <c r="CM3" s="60">
+      <c r="CG3" s="56"/>
+      <c r="CH3" s="56"/>
+      <c r="CI3" s="56"/>
+      <c r="CJ3" s="56"/>
+      <c r="CK3" s="56"/>
+      <c r="CL3" s="57"/>
+      <c r="CM3" s="55">
         <f t="shared" ref="CM3" si="6">CM5</f>
         <v>42191</v>
       </c>
-      <c r="CN3" s="57"/>
-      <c r="CO3" s="57"/>
-      <c r="CP3" s="57"/>
-      <c r="CQ3" s="57"/>
-      <c r="CR3" s="57"/>
-      <c r="CS3" s="58"/>
-      <c r="CT3" s="60">
+      <c r="CN3" s="56"/>
+      <c r="CO3" s="56"/>
+      <c r="CP3" s="56"/>
+      <c r="CQ3" s="56"/>
+      <c r="CR3" s="56"/>
+      <c r="CS3" s="57"/>
+      <c r="CT3" s="55">
         <f t="shared" ref="CT3" si="7">CT5</f>
         <v>42198</v>
       </c>
-      <c r="CU3" s="57"/>
-      <c r="CV3" s="57"/>
-      <c r="CW3" s="57"/>
-      <c r="CX3" s="57"/>
-      <c r="CY3" s="57"/>
-      <c r="CZ3" s="58"/>
+      <c r="CU3" s="56"/>
+      <c r="CV3" s="56"/>
+      <c r="CW3" s="56"/>
+      <c r="CX3" s="56"/>
+      <c r="CY3" s="56"/>
+      <c r="CZ3" s="57"/>
     </row>
     <row r="4" spans="1:104" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -10540,7 +10555,7 @@
         <v>42204</v>
       </c>
     </row>
-    <row r="6" spans="1:104" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="str">
         <f>IF('Milestones + Packages'!B3&lt;&gt; "",'Milestones + Packages'!B3,"")</f>
         <v>Brainstorming phase</v>
@@ -10570,7 +10585,7 @@
         <v>42114</v>
       </c>
     </row>
-    <row r="7" spans="1:104" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="str">
         <f>IF('Milestones + Packages'!B4&lt;&gt; "",'Milestones + Packages'!B4,"")</f>
         <v>Choose ML Application</v>
@@ -10630,7 +10645,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:104" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="str">
         <f>IF('Milestones + Packages'!B6&lt;&gt; "",'Milestones + Packages'!B6,"")</f>
         <v>Project Schedule</v>
@@ -10660,7 +10675,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:104" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="str">
         <f>IF('Milestones + Packages'!B7&lt;&gt; "",'Milestones + Packages'!B7,"")</f>
         <v>Define Milestones &amp; Packages</v>
@@ -10690,7 +10705,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:104" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="str">
         <f>IF('Milestones + Packages'!B8&lt;&gt; "",'Milestones + Packages'!B8,"")</f>
         <v>Revise and Finalize Project Plan</v>
@@ -10750,7 +10765,7 @@
         <v>42134</v>
       </c>
     </row>
-    <row r="13" spans="1:104" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="str">
         <f>IF('Milestones + Packages'!B10&lt;&gt; "",'Milestones + Packages'!B10,"")</f>
         <v>Poster Macrodesign</v>
@@ -10810,7 +10825,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:104" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="str">
         <f>IF('Milestones + Packages'!B12&lt;&gt; "",'Milestones + Packages'!B12,"")</f>
         <v>Discuss and Finalize Poster Concept</v>
@@ -10840,7 +10855,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:104" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="str">
         <f>IF('Milestones + Packages'!B13&lt;&gt; "",'Milestones + Packages'!B13,"")</f>
         <v>Implementation</v>
@@ -10870,7 +10885,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="str">
         <f>IF('Milestones + Packages'!B14&lt;&gt; "",'Milestones + Packages'!B14,"")</f>
         <v>Internal Poster Presentation</v>
@@ -10900,7 +10915,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="str">
         <f>IF('Milestones + Packages'!B15&lt;&gt; "",'Milestones + Packages'!B15,"")</f>
         <v>Revise and Finalize Poster</v>
@@ -10990,7 +11005,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="str">
         <f>IF('Milestones + Packages'!B18&lt;&gt; "",'Milestones + Packages'!B18,"")</f>
         <v>Design UX</v>
@@ -11020,7 +11035,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="str">
         <f>IF('Milestones + Packages'!B19&lt;&gt; "",'Milestones + Packages'!B19,"")</f>
         <v xml:space="preserve">Finalize Booth </v>
@@ -11050,7 +11065,7 @@
         <v>42134</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="str">
         <f>IF('Milestones + Packages'!B20&lt;&gt; "",'Milestones + Packages'!B20,"")</f>
         <v>Prototype "App"</v>
@@ -11140,7 +11155,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="str">
         <f>IF('Milestones + Packages'!B23&lt;&gt; "",'Milestones + Packages'!B23,"")</f>
         <v>Further development</v>
@@ -11170,7 +11185,7 @@
         <v>42121</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="str">
         <f>IF('Milestones + Packages'!B24&lt;&gt; "",'Milestones + Packages'!B24,"")</f>
         <v xml:space="preserve">Algorithms </v>
@@ -11230,7 +11245,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="str">
         <f>IF('Milestones + Packages'!B26&lt;&gt; "",'Milestones + Packages'!B26,"")</f>
         <v>Literature Review</v>
@@ -11260,7 +11275,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="str">
         <f>IF('Milestones + Packages'!B27&lt;&gt; "",'Milestones + Packages'!B27,"")</f>
         <v>Model Selection</v>
@@ -11380,7 +11395,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="str">
         <f>IF('Milestones + Packages'!B31&lt;&gt; "",'Milestones + Packages'!B31,"")</f>
         <v>Tweaking for application</v>
@@ -11410,7 +11425,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="str">
         <f>IF('Milestones + Packages'!B32&lt;&gt; "",'Milestones + Packages'!B32,"")</f>
         <v>Testing, Benchmarking</v>
@@ -11440,7 +11455,7 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="str">
         <f>IF('Milestones + Packages'!B33&lt;&gt; "",'Milestones + Packages'!B33,"")</f>
         <v>Midterm Presenation</v>
@@ -11470,7 +11485,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="str">
         <f>IF('Milestones + Packages'!B34&lt;&gt; "",'Milestones + Packages'!B34,"")</f>
         <v>Prepare Presentation</v>
@@ -11530,7 +11545,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="str">
         <f>IF('Milestones + Packages'!B36&lt;&gt; "",'Milestones + Packages'!B36,"")</f>
         <v>Compile Results</v>
@@ -11560,7 +11575,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="str">
         <f>IF('Milestones + Packages'!B37&lt;&gt; "",'Milestones + Packages'!B37,"")</f>
         <v>Abstract</v>
@@ -22460,19 +22475,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CM3:CS3"/>
-    <mergeCell ref="CT3:CZ3"/>
-    <mergeCell ref="BY2:CE2"/>
-    <mergeCell ref="CF2:CL2"/>
-    <mergeCell ref="BY3:CE3"/>
-    <mergeCell ref="CF3:CL3"/>
-    <mergeCell ref="CM2:CS2"/>
-    <mergeCell ref="BD3:BJ3"/>
-    <mergeCell ref="BK2:BQ2"/>
-    <mergeCell ref="BR2:BX2"/>
-    <mergeCell ref="BK3:BQ3"/>
-    <mergeCell ref="BR3:BX3"/>
     <mergeCell ref="A1:CY1"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="G3:M3"/>
@@ -22489,6 +22491,19 @@
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="AP3:AV3"/>
     <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="BD3:BJ3"/>
+    <mergeCell ref="BK2:BQ2"/>
+    <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="BK3:BQ3"/>
+    <mergeCell ref="BR3:BX3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CM3:CS3"/>
+    <mergeCell ref="CT3:CZ3"/>
+    <mergeCell ref="BY2:CE2"/>
+    <mergeCell ref="CF2:CL2"/>
+    <mergeCell ref="BY3:CE3"/>
+    <mergeCell ref="CF3:CL3"/>
+    <mergeCell ref="CM2:CS2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:CW300">
     <cfRule type="expression" dxfId="14" priority="77">
@@ -22618,7 +22633,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
@@ -45414,11 +45429,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45612,7 +45627,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45707,7 +45722,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45822,13 +45837,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.42578125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45865,7 +45880,7 @@
       </c>
       <c r="H3">
         <f>SUM(Table1345[Time Spent (hours)])</f>
-        <v>69.5</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -46053,6 +46068,33 @@
       </c>
       <c r="C20" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -46068,7 +46110,7 @@
           <x14:formula1>
             <xm:f>'task extraction'!$H$2:$H$350</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A20</xm:sqref>
+          <xm:sqref>A4:A23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -46087,7 +46129,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>

--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="224">
   <si>
     <t>Typ</t>
   </si>
@@ -715,10 +715,16 @@
     <t>Team Meeting, coding session at Stans house + debugging SQN</t>
   </si>
   <si>
-    <t>Meeting with Andre, Debugging, Testing SQN</t>
+    <t>21.6.</t>
   </si>
   <si>
-    <t>21.6.</t>
+    <t>Meeting with Andre</t>
+  </si>
+  <si>
+    <t>8.6.</t>
+  </si>
+  <si>
+    <t>SQN implementierung, debugging</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1135,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1138,7 +1147,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,13 +1156,10 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1487,8 +1493,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="A3:D23" totalsRowShown="0">
-  <autoFilter ref="A3:D23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="A3:D24" totalsRowShown="0">
+  <autoFilter ref="A3:D24"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Task"/>
     <tableColumn id="2" name="Time Spent (hours)"/>
@@ -9576,385 +9582,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="58"/>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="58"/>
-      <c r="BO1" s="58"/>
-      <c r="BP1" s="58"/>
-      <c r="BQ1" s="58"/>
-      <c r="BR1" s="58"/>
-      <c r="BS1" s="58"/>
-      <c r="BT1" s="58"/>
-      <c r="BU1" s="58"/>
-      <c r="BV1" s="58"/>
-      <c r="BW1" s="58"/>
-      <c r="BX1" s="58"/>
-      <c r="BY1" s="58"/>
-      <c r="BZ1" s="58"/>
-      <c r="CA1" s="58"/>
-      <c r="CB1" s="58"/>
-      <c r="CC1" s="58"/>
-      <c r="CD1" s="58"/>
-      <c r="CE1" s="58"/>
-      <c r="CF1" s="58"/>
-      <c r="CG1" s="58"/>
-      <c r="CH1" s="58"/>
-      <c r="CI1" s="58"/>
-      <c r="CJ1" s="58"/>
-      <c r="CK1" s="58"/>
-      <c r="CL1" s="58"/>
-      <c r="CM1" s="58"/>
-      <c r="CN1" s="58"/>
-      <c r="CO1" s="58"/>
-      <c r="CP1" s="58"/>
-      <c r="CQ1" s="58"/>
-      <c r="CR1" s="58"/>
-      <c r="CS1" s="58"/>
-      <c r="CT1" s="58"/>
-      <c r="CU1" s="58"/>
-      <c r="CV1" s="58"/>
-      <c r="CW1" s="58"/>
-      <c r="CX1" s="58"/>
-      <c r="CY1" s="58"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52"/>
+      <c r="BD1" s="52"/>
+      <c r="BE1" s="52"/>
+      <c r="BF1" s="52"/>
+      <c r="BG1" s="52"/>
+      <c r="BH1" s="52"/>
+      <c r="BI1" s="52"/>
+      <c r="BJ1" s="52"/>
+      <c r="BK1" s="52"/>
+      <c r="BL1" s="52"/>
+      <c r="BM1" s="52"/>
+      <c r="BN1" s="52"/>
+      <c r="BO1" s="52"/>
+      <c r="BP1" s="52"/>
+      <c r="BQ1" s="52"/>
+      <c r="BR1" s="52"/>
+      <c r="BS1" s="52"/>
+      <c r="BT1" s="52"/>
+      <c r="BU1" s="52"/>
+      <c r="BV1" s="52"/>
+      <c r="BW1" s="52"/>
+      <c r="BX1" s="52"/>
+      <c r="BY1" s="52"/>
+      <c r="BZ1" s="52"/>
+      <c r="CA1" s="52"/>
+      <c r="CB1" s="52"/>
+      <c r="CC1" s="52"/>
+      <c r="CD1" s="52"/>
+      <c r="CE1" s="52"/>
+      <c r="CF1" s="52"/>
+      <c r="CG1" s="52"/>
+      <c r="CH1" s="52"/>
+      <c r="CI1" s="52"/>
+      <c r="CJ1" s="52"/>
+      <c r="CK1" s="52"/>
+      <c r="CL1" s="52"/>
+      <c r="CM1" s="52"/>
+      <c r="CN1" s="52"/>
+      <c r="CO1" s="52"/>
+      <c r="CP1" s="52"/>
+      <c r="CQ1" s="52"/>
+      <c r="CR1" s="52"/>
+      <c r="CS1" s="52"/>
+      <c r="CT1" s="52"/>
+      <c r="CU1" s="52"/>
+      <c r="CV1" s="52"/>
+      <c r="CW1" s="52"/>
+      <c r="CX1" s="52"/>
+      <c r="CY1" s="52"/>
       <c r="CZ1" s="11"/>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="52" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="52" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="52" t="s">
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="52" t="s">
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="52" t="s">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="52" t="s">
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="53"/>
-      <c r="AY2" s="53"/>
-      <c r="AZ2" s="53"/>
-      <c r="BA2" s="53"/>
-      <c r="BB2" s="53"/>
-      <c r="BC2" s="54"/>
-      <c r="BD2" s="52" t="s">
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54"/>
+      <c r="BC2" s="55"/>
+      <c r="BD2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="BE2" s="53"/>
-      <c r="BF2" s="53"/>
-      <c r="BG2" s="53"/>
-      <c r="BH2" s="53"/>
-      <c r="BI2" s="53"/>
-      <c r="BJ2" s="54"/>
-      <c r="BK2" s="52" t="s">
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="BL2" s="53"/>
-      <c r="BM2" s="53"/>
-      <c r="BN2" s="53"/>
-      <c r="BO2" s="53"/>
-      <c r="BP2" s="53"/>
-      <c r="BQ2" s="54"/>
-      <c r="BR2" s="52" t="s">
+      <c r="BL2" s="54"/>
+      <c r="BM2" s="54"/>
+      <c r="BN2" s="54"/>
+      <c r="BO2" s="54"/>
+      <c r="BP2" s="54"/>
+      <c r="BQ2" s="55"/>
+      <c r="BR2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="BS2" s="53"/>
-      <c r="BT2" s="53"/>
-      <c r="BU2" s="53"/>
-      <c r="BV2" s="53"/>
-      <c r="BW2" s="53"/>
-      <c r="BX2" s="54"/>
-      <c r="BY2" s="52" t="s">
+      <c r="BS2" s="54"/>
+      <c r="BT2" s="54"/>
+      <c r="BU2" s="54"/>
+      <c r="BV2" s="54"/>
+      <c r="BW2" s="54"/>
+      <c r="BX2" s="55"/>
+      <c r="BY2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="BZ2" s="53"/>
-      <c r="CA2" s="53"/>
-      <c r="CB2" s="53"/>
-      <c r="CC2" s="53"/>
-      <c r="CD2" s="53"/>
-      <c r="CE2" s="54"/>
-      <c r="CF2" s="52" t="s">
+      <c r="BZ2" s="54"/>
+      <c r="CA2" s="54"/>
+      <c r="CB2" s="54"/>
+      <c r="CC2" s="54"/>
+      <c r="CD2" s="54"/>
+      <c r="CE2" s="55"/>
+      <c r="CF2" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="CG2" s="53"/>
-      <c r="CH2" s="53"/>
-      <c r="CI2" s="53"/>
-      <c r="CJ2" s="53"/>
-      <c r="CK2" s="53"/>
-      <c r="CL2" s="54"/>
-      <c r="CM2" s="52" t="s">
+      <c r="CG2" s="54"/>
+      <c r="CH2" s="54"/>
+      <c r="CI2" s="54"/>
+      <c r="CJ2" s="54"/>
+      <c r="CK2" s="54"/>
+      <c r="CL2" s="55"/>
+      <c r="CM2" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" s="53"/>
-      <c r="CO2" s="53"/>
-      <c r="CP2" s="53"/>
-      <c r="CQ2" s="53"/>
-      <c r="CR2" s="53"/>
-      <c r="CS2" s="54"/>
-      <c r="CT2" s="52" t="s">
+      <c r="CN2" s="54"/>
+      <c r="CO2" s="54"/>
+      <c r="CP2" s="54"/>
+      <c r="CQ2" s="54"/>
+      <c r="CR2" s="54"/>
+      <c r="CS2" s="55"/>
+      <c r="CT2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="CU2" s="53"/>
-      <c r="CV2" s="53"/>
-      <c r="CW2" s="53"/>
-      <c r="CX2" s="53"/>
-      <c r="CY2" s="53"/>
-      <c r="CZ2" s="54"/>
+      <c r="CU2" s="54"/>
+      <c r="CV2" s="54"/>
+      <c r="CW2" s="54"/>
+      <c r="CX2" s="54"/>
+      <c r="CY2" s="54"/>
+      <c r="CZ2" s="55"/>
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="G3" s="60">
+      <c r="G3" s="56">
         <f>G5</f>
         <v>42107</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="55">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="60">
         <f>N5</f>
         <v>42114</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="55">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="60">
         <f>U5</f>
         <v>42121</v>
       </c>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="55">
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="60">
         <f>AB5</f>
         <v>42128</v>
       </c>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="55">
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="60">
         <f>AI5</f>
         <v>42135</v>
       </c>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="55">
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="60">
         <f>AP5</f>
         <v>42142</v>
       </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="55">
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="60">
         <f t="shared" ref="AW3" si="0">AW5</f>
         <v>42149</v>
       </c>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="56"/>
-      <c r="BC3" s="57"/>
-      <c r="BD3" s="55">
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="57"/>
+      <c r="BC3" s="58"/>
+      <c r="BD3" s="60">
         <f t="shared" ref="BD3" si="1">BD5</f>
         <v>42156</v>
       </c>
-      <c r="BE3" s="56"/>
-      <c r="BF3" s="56"/>
-      <c r="BG3" s="56"/>
-      <c r="BH3" s="56"/>
-      <c r="BI3" s="56"/>
-      <c r="BJ3" s="57"/>
-      <c r="BK3" s="55">
+      <c r="BE3" s="57"/>
+      <c r="BF3" s="57"/>
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="57"/>
+      <c r="BI3" s="57"/>
+      <c r="BJ3" s="58"/>
+      <c r="BK3" s="60">
         <f t="shared" ref="BK3" si="2">BK5</f>
         <v>42163</v>
       </c>
-      <c r="BL3" s="56"/>
-      <c r="BM3" s="56"/>
-      <c r="BN3" s="56"/>
-      <c r="BO3" s="56"/>
-      <c r="BP3" s="56"/>
-      <c r="BQ3" s="57"/>
-      <c r="BR3" s="55">
+      <c r="BL3" s="57"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="58"/>
+      <c r="BR3" s="60">
         <f t="shared" ref="BR3" si="3">BR5</f>
         <v>42170</v>
       </c>
-      <c r="BS3" s="56"/>
-      <c r="BT3" s="56"/>
-      <c r="BU3" s="56"/>
-      <c r="BV3" s="56"/>
-      <c r="BW3" s="56"/>
-      <c r="BX3" s="57"/>
-      <c r="BY3" s="55">
+      <c r="BS3" s="57"/>
+      <c r="BT3" s="57"/>
+      <c r="BU3" s="57"/>
+      <c r="BV3" s="57"/>
+      <c r="BW3" s="57"/>
+      <c r="BX3" s="58"/>
+      <c r="BY3" s="60">
         <f t="shared" ref="BY3" si="4">BY5</f>
         <v>42177</v>
       </c>
-      <c r="BZ3" s="56"/>
-      <c r="CA3" s="56"/>
-      <c r="CB3" s="56"/>
-      <c r="CC3" s="56"/>
-      <c r="CD3" s="56"/>
-      <c r="CE3" s="57"/>
-      <c r="CF3" s="55">
+      <c r="BZ3" s="57"/>
+      <c r="CA3" s="57"/>
+      <c r="CB3" s="57"/>
+      <c r="CC3" s="57"/>
+      <c r="CD3" s="57"/>
+      <c r="CE3" s="58"/>
+      <c r="CF3" s="60">
         <f t="shared" ref="CF3" si="5">CF5</f>
         <v>42184</v>
       </c>
-      <c r="CG3" s="56"/>
-      <c r="CH3" s="56"/>
-      <c r="CI3" s="56"/>
-      <c r="CJ3" s="56"/>
-      <c r="CK3" s="56"/>
-      <c r="CL3" s="57"/>
-      <c r="CM3" s="55">
+      <c r="CG3" s="57"/>
+      <c r="CH3" s="57"/>
+      <c r="CI3" s="57"/>
+      <c r="CJ3" s="57"/>
+      <c r="CK3" s="57"/>
+      <c r="CL3" s="58"/>
+      <c r="CM3" s="60">
         <f t="shared" ref="CM3" si="6">CM5</f>
         <v>42191</v>
       </c>
-      <c r="CN3" s="56"/>
-      <c r="CO3" s="56"/>
-      <c r="CP3" s="56"/>
-      <c r="CQ3" s="56"/>
-      <c r="CR3" s="56"/>
-      <c r="CS3" s="57"/>
-      <c r="CT3" s="55">
+      <c r="CN3" s="57"/>
+      <c r="CO3" s="57"/>
+      <c r="CP3" s="57"/>
+      <c r="CQ3" s="57"/>
+      <c r="CR3" s="57"/>
+      <c r="CS3" s="58"/>
+      <c r="CT3" s="60">
         <f t="shared" ref="CT3" si="7">CT5</f>
         <v>42198</v>
       </c>
-      <c r="CU3" s="56"/>
-      <c r="CV3" s="56"/>
-      <c r="CW3" s="56"/>
-      <c r="CX3" s="56"/>
-      <c r="CY3" s="56"/>
-      <c r="CZ3" s="57"/>
+      <c r="CU3" s="57"/>
+      <c r="CV3" s="57"/>
+      <c r="CW3" s="57"/>
+      <c r="CX3" s="57"/>
+      <c r="CY3" s="57"/>
+      <c r="CZ3" s="58"/>
     </row>
     <row r="4" spans="1:104" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -22475,6 +22481,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CM3:CS3"/>
+    <mergeCell ref="CT3:CZ3"/>
+    <mergeCell ref="BY2:CE2"/>
+    <mergeCell ref="CF2:CL2"/>
+    <mergeCell ref="BY3:CE3"/>
+    <mergeCell ref="CF3:CL3"/>
+    <mergeCell ref="CM2:CS2"/>
+    <mergeCell ref="BD3:BJ3"/>
+    <mergeCell ref="BK2:BQ2"/>
+    <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="BK3:BQ3"/>
+    <mergeCell ref="BR3:BX3"/>
     <mergeCell ref="A1:CY1"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="G3:M3"/>
@@ -22491,19 +22510,6 @@
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="AP3:AV3"/>
     <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="BD3:BJ3"/>
-    <mergeCell ref="BK2:BQ2"/>
-    <mergeCell ref="BR2:BX2"/>
-    <mergeCell ref="BK3:BQ3"/>
-    <mergeCell ref="BR3:BX3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CM3:CS3"/>
-    <mergeCell ref="CT3:CZ3"/>
-    <mergeCell ref="BY2:CE2"/>
-    <mergeCell ref="CF2:CL2"/>
-    <mergeCell ref="BY3:CE3"/>
-    <mergeCell ref="CF3:CL3"/>
-    <mergeCell ref="CM2:CS2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:CW300">
     <cfRule type="expression" dxfId="14" priority="77">
@@ -45837,10 +45843,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45880,7 +45886,7 @@
       </c>
       <c r="H3">
         <f>SUM(Table1345[Time Spent (hours)])</f>
-        <v>89.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -46070,31 +46076,42 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>219</v>
-      </c>
-      <c r="B21">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>217</v>
+    <row r="21" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="49">
+        <v>10</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23">
+        <v>1.5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>220</v>
-      </c>
-      <c r="B22">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -46110,7 +46127,7 @@
           <x14:formula1>
             <xm:f>'task extraction'!$H$2:$H$350</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A23</xm:sqref>
+          <xm:sqref>A4:A24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="225">
   <si>
     <t>Typ</t>
   </si>
@@ -726,6 +726,9 @@
   <si>
     <t>SQN implementierung, debugging</t>
   </si>
+  <si>
+    <t>Coding / Reading / Understanding Session bei Fin</t>
+  </si>
 </sst>
 </file>
 
@@ -1135,10 +1138,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,7 +1147,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,10 +1156,13 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -9582,385 +9585,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52"/>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
-      <c r="BG1" s="52"/>
-      <c r="BH1" s="52"/>
-      <c r="BI1" s="52"/>
-      <c r="BJ1" s="52"/>
-      <c r="BK1" s="52"/>
-      <c r="BL1" s="52"/>
-      <c r="BM1" s="52"/>
-      <c r="BN1" s="52"/>
-      <c r="BO1" s="52"/>
-      <c r="BP1" s="52"/>
-      <c r="BQ1" s="52"/>
-      <c r="BR1" s="52"/>
-      <c r="BS1" s="52"/>
-      <c r="BT1" s="52"/>
-      <c r="BU1" s="52"/>
-      <c r="BV1" s="52"/>
-      <c r="BW1" s="52"/>
-      <c r="BX1" s="52"/>
-      <c r="BY1" s="52"/>
-      <c r="BZ1" s="52"/>
-      <c r="CA1" s="52"/>
-      <c r="CB1" s="52"/>
-      <c r="CC1" s="52"/>
-      <c r="CD1" s="52"/>
-      <c r="CE1" s="52"/>
-      <c r="CF1" s="52"/>
-      <c r="CG1" s="52"/>
-      <c r="CH1" s="52"/>
-      <c r="CI1" s="52"/>
-      <c r="CJ1" s="52"/>
-      <c r="CK1" s="52"/>
-      <c r="CL1" s="52"/>
-      <c r="CM1" s="52"/>
-      <c r="CN1" s="52"/>
-      <c r="CO1" s="52"/>
-      <c r="CP1" s="52"/>
-      <c r="CQ1" s="52"/>
-      <c r="CR1" s="52"/>
-      <c r="CS1" s="52"/>
-      <c r="CT1" s="52"/>
-      <c r="CU1" s="52"/>
-      <c r="CV1" s="52"/>
-      <c r="CW1" s="52"/>
-      <c r="CX1" s="52"/>
-      <c r="CY1" s="52"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="58"/>
+      <c r="BP1" s="58"/>
+      <c r="BQ1" s="58"/>
+      <c r="BR1" s="58"/>
+      <c r="BS1" s="58"/>
+      <c r="BT1" s="58"/>
+      <c r="BU1" s="58"/>
+      <c r="BV1" s="58"/>
+      <c r="BW1" s="58"/>
+      <c r="BX1" s="58"/>
+      <c r="BY1" s="58"/>
+      <c r="BZ1" s="58"/>
+      <c r="CA1" s="58"/>
+      <c r="CB1" s="58"/>
+      <c r="CC1" s="58"/>
+      <c r="CD1" s="58"/>
+      <c r="CE1" s="58"/>
+      <c r="CF1" s="58"/>
+      <c r="CG1" s="58"/>
+      <c r="CH1" s="58"/>
+      <c r="CI1" s="58"/>
+      <c r="CJ1" s="58"/>
+      <c r="CK1" s="58"/>
+      <c r="CL1" s="58"/>
+      <c r="CM1" s="58"/>
+      <c r="CN1" s="58"/>
+      <c r="CO1" s="58"/>
+      <c r="CP1" s="58"/>
+      <c r="CQ1" s="58"/>
+      <c r="CR1" s="58"/>
+      <c r="CS1" s="58"/>
+      <c r="CT1" s="58"/>
+      <c r="CU1" s="58"/>
+      <c r="CV1" s="58"/>
+      <c r="CW1" s="58"/>
+      <c r="CX1" s="58"/>
+      <c r="CY1" s="58"/>
       <c r="CZ1" s="11"/>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="59" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="59" t="s">
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="59" t="s">
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="59" t="s">
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="59" t="s">
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="59" t="s">
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="54"/>
-      <c r="BB2" s="54"/>
-      <c r="BC2" s="55"/>
-      <c r="BD2" s="59" t="s">
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="59" t="s">
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="54"/>
+      <c r="BK2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="BL2" s="54"/>
-      <c r="BM2" s="54"/>
-      <c r="BN2" s="54"/>
-      <c r="BO2" s="54"/>
-      <c r="BP2" s="54"/>
-      <c r="BQ2" s="55"/>
-      <c r="BR2" s="59" t="s">
+      <c r="BL2" s="53"/>
+      <c r="BM2" s="53"/>
+      <c r="BN2" s="53"/>
+      <c r="BO2" s="53"/>
+      <c r="BP2" s="53"/>
+      <c r="BQ2" s="54"/>
+      <c r="BR2" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="BS2" s="54"/>
-      <c r="BT2" s="54"/>
-      <c r="BU2" s="54"/>
-      <c r="BV2" s="54"/>
-      <c r="BW2" s="54"/>
-      <c r="BX2" s="55"/>
-      <c r="BY2" s="59" t="s">
+      <c r="BS2" s="53"/>
+      <c r="BT2" s="53"/>
+      <c r="BU2" s="53"/>
+      <c r="BV2" s="53"/>
+      <c r="BW2" s="53"/>
+      <c r="BX2" s="54"/>
+      <c r="BY2" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="BZ2" s="54"/>
-      <c r="CA2" s="54"/>
-      <c r="CB2" s="54"/>
-      <c r="CC2" s="54"/>
-      <c r="CD2" s="54"/>
-      <c r="CE2" s="55"/>
-      <c r="CF2" s="59" t="s">
+      <c r="BZ2" s="53"/>
+      <c r="CA2" s="53"/>
+      <c r="CB2" s="53"/>
+      <c r="CC2" s="53"/>
+      <c r="CD2" s="53"/>
+      <c r="CE2" s="54"/>
+      <c r="CF2" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="CG2" s="54"/>
-      <c r="CH2" s="54"/>
-      <c r="CI2" s="54"/>
-      <c r="CJ2" s="54"/>
-      <c r="CK2" s="54"/>
-      <c r="CL2" s="55"/>
-      <c r="CM2" s="59" t="s">
+      <c r="CG2" s="53"/>
+      <c r="CH2" s="53"/>
+      <c r="CI2" s="53"/>
+      <c r="CJ2" s="53"/>
+      <c r="CK2" s="53"/>
+      <c r="CL2" s="54"/>
+      <c r="CM2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" s="54"/>
-      <c r="CO2" s="54"/>
-      <c r="CP2" s="54"/>
-      <c r="CQ2" s="54"/>
-      <c r="CR2" s="54"/>
-      <c r="CS2" s="55"/>
-      <c r="CT2" s="59" t="s">
+      <c r="CN2" s="53"/>
+      <c r="CO2" s="53"/>
+      <c r="CP2" s="53"/>
+      <c r="CQ2" s="53"/>
+      <c r="CR2" s="53"/>
+      <c r="CS2" s="54"/>
+      <c r="CT2" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="CU2" s="54"/>
-      <c r="CV2" s="54"/>
-      <c r="CW2" s="54"/>
-      <c r="CX2" s="54"/>
-      <c r="CY2" s="54"/>
-      <c r="CZ2" s="55"/>
+      <c r="CU2" s="53"/>
+      <c r="CV2" s="53"/>
+      <c r="CW2" s="53"/>
+      <c r="CX2" s="53"/>
+      <c r="CY2" s="53"/>
+      <c r="CZ2" s="54"/>
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="G3" s="56">
+      <c r="G3" s="60">
         <f>G5</f>
         <v>42107</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="60">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="55">
         <f>N5</f>
         <v>42114</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="60">
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="55">
         <f>U5</f>
         <v>42121</v>
       </c>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="60">
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="55">
         <f>AB5</f>
         <v>42128</v>
       </c>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="60">
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="55">
         <f>AI5</f>
         <v>42135</v>
       </c>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="60">
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="55">
         <f>AP5</f>
         <v>42142</v>
       </c>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="60">
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="55">
         <f t="shared" ref="AW3" si="0">AW5</f>
         <v>42149</v>
       </c>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="57"/>
-      <c r="BC3" s="58"/>
-      <c r="BD3" s="60">
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="57"/>
+      <c r="BD3" s="55">
         <f t="shared" ref="BD3" si="1">BD5</f>
         <v>42156</v>
       </c>
-      <c r="BE3" s="57"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="57"/>
-      <c r="BI3" s="57"/>
-      <c r="BJ3" s="58"/>
-      <c r="BK3" s="60">
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="56"/>
+      <c r="BG3" s="56"/>
+      <c r="BH3" s="56"/>
+      <c r="BI3" s="56"/>
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="55">
         <f t="shared" ref="BK3" si="2">BK5</f>
         <v>42163</v>
       </c>
-      <c r="BL3" s="57"/>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="57"/>
-      <c r="BO3" s="57"/>
-      <c r="BP3" s="57"/>
-      <c r="BQ3" s="58"/>
-      <c r="BR3" s="60">
+      <c r="BL3" s="56"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="56"/>
+      <c r="BP3" s="56"/>
+      <c r="BQ3" s="57"/>
+      <c r="BR3" s="55">
         <f t="shared" ref="BR3" si="3">BR5</f>
         <v>42170</v>
       </c>
-      <c r="BS3" s="57"/>
-      <c r="BT3" s="57"/>
-      <c r="BU3" s="57"/>
-      <c r="BV3" s="57"/>
-      <c r="BW3" s="57"/>
-      <c r="BX3" s="58"/>
-      <c r="BY3" s="60">
+      <c r="BS3" s="56"/>
+      <c r="BT3" s="56"/>
+      <c r="BU3" s="56"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="56"/>
+      <c r="BX3" s="57"/>
+      <c r="BY3" s="55">
         <f t="shared" ref="BY3" si="4">BY5</f>
         <v>42177</v>
       </c>
-      <c r="BZ3" s="57"/>
-      <c r="CA3" s="57"/>
-      <c r="CB3" s="57"/>
-      <c r="CC3" s="57"/>
-      <c r="CD3" s="57"/>
-      <c r="CE3" s="58"/>
-      <c r="CF3" s="60">
+      <c r="BZ3" s="56"/>
+      <c r="CA3" s="56"/>
+      <c r="CB3" s="56"/>
+      <c r="CC3" s="56"/>
+      <c r="CD3" s="56"/>
+      <c r="CE3" s="57"/>
+      <c r="CF3" s="55">
         <f t="shared" ref="CF3" si="5">CF5</f>
         <v>42184</v>
       </c>
-      <c r="CG3" s="57"/>
-      <c r="CH3" s="57"/>
-      <c r="CI3" s="57"/>
-      <c r="CJ3" s="57"/>
-      <c r="CK3" s="57"/>
-      <c r="CL3" s="58"/>
-      <c r="CM3" s="60">
+      <c r="CG3" s="56"/>
+      <c r="CH3" s="56"/>
+      <c r="CI3" s="56"/>
+      <c r="CJ3" s="56"/>
+      <c r="CK3" s="56"/>
+      <c r="CL3" s="57"/>
+      <c r="CM3" s="55">
         <f t="shared" ref="CM3" si="6">CM5</f>
         <v>42191</v>
       </c>
-      <c r="CN3" s="57"/>
-      <c r="CO3" s="57"/>
-      <c r="CP3" s="57"/>
-      <c r="CQ3" s="57"/>
-      <c r="CR3" s="57"/>
-      <c r="CS3" s="58"/>
-      <c r="CT3" s="60">
+      <c r="CN3" s="56"/>
+      <c r="CO3" s="56"/>
+      <c r="CP3" s="56"/>
+      <c r="CQ3" s="56"/>
+      <c r="CR3" s="56"/>
+      <c r="CS3" s="57"/>
+      <c r="CT3" s="55">
         <f t="shared" ref="CT3" si="7">CT5</f>
         <v>42198</v>
       </c>
-      <c r="CU3" s="57"/>
-      <c r="CV3" s="57"/>
-      <c r="CW3" s="57"/>
-      <c r="CX3" s="57"/>
-      <c r="CY3" s="57"/>
-      <c r="CZ3" s="58"/>
+      <c r="CU3" s="56"/>
+      <c r="CV3" s="56"/>
+      <c r="CW3" s="56"/>
+      <c r="CX3" s="56"/>
+      <c r="CY3" s="56"/>
+      <c r="CZ3" s="57"/>
     </row>
     <row r="4" spans="1:104" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -22481,19 +22484,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CM3:CS3"/>
-    <mergeCell ref="CT3:CZ3"/>
-    <mergeCell ref="BY2:CE2"/>
-    <mergeCell ref="CF2:CL2"/>
-    <mergeCell ref="BY3:CE3"/>
-    <mergeCell ref="CF3:CL3"/>
-    <mergeCell ref="CM2:CS2"/>
-    <mergeCell ref="BD3:BJ3"/>
-    <mergeCell ref="BK2:BQ2"/>
-    <mergeCell ref="BR2:BX2"/>
-    <mergeCell ref="BK3:BQ3"/>
-    <mergeCell ref="BR3:BX3"/>
     <mergeCell ref="A1:CY1"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="G3:M3"/>
@@ -22510,6 +22500,19 @@
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="AP3:AV3"/>
     <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="BD3:BJ3"/>
+    <mergeCell ref="BK2:BQ2"/>
+    <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="BK3:BQ3"/>
+    <mergeCell ref="BR3:BX3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CM3:CS3"/>
+    <mergeCell ref="CT3:CZ3"/>
+    <mergeCell ref="BY2:CE2"/>
+    <mergeCell ref="CF2:CL2"/>
+    <mergeCell ref="BY3:CE3"/>
+    <mergeCell ref="CF3:CL3"/>
+    <mergeCell ref="CM2:CS2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:CW300">
     <cfRule type="expression" dxfId="14" priority="77">
@@ -45845,8 +45848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45886,7 +45889,7 @@
       </c>
       <c r="H3">
         <f>SUM(Table1345[Time Spent (hours)])</f>
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -46110,6 +46113,12 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
       <c r="C24" t="s">
         <v>220</v>
       </c>

--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Git\CaseStudiesMachineLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fin Bauer\Documents\Case Studies\CaseStudiesMachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Some Hints and Explanations" sheetId="3" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="227">
   <si>
     <t>Typ</t>
   </si>
@@ -571,9 +571,6 @@
     <t>Special lecture</t>
   </si>
   <si>
-    <t>24.4.2015, 25.4.2015, 27.4.2015, 29.4.2015, 6.5.2015, 8.5.2015, 10.5.2015</t>
-  </si>
-  <si>
     <t>6.5.</t>
   </si>
   <si>
@@ -604,22 +601,10 @@
     <t>Mid-Term Presentation</t>
   </si>
   <si>
-    <t>23.4.2015,24.4.2015</t>
-  </si>
-  <si>
-    <t>19.4.2015,22.4.2015,24.4.2015</t>
-  </si>
-  <si>
-    <t>22.04.2015, 25.05.2015, 26.05.2015</t>
-  </si>
-  <si>
     <t>GUI for Booth</t>
   </si>
   <si>
     <t>Special Lecture</t>
-  </si>
-  <si>
-    <t>24.04.2015</t>
   </si>
   <si>
     <t>Team Meeting</t>
@@ -700,12 +685,6 @@
     <t>Proximal Implementation</t>
   </si>
   <si>
-    <t>1.6.,2.6.,3.6.,4.6.,5.6.,7.6.,9.9.,10.6.,11.6.,15.6.</t>
-  </si>
-  <si>
-    <t>18.05.2015, 15.06.</t>
-  </si>
-  <si>
     <t>10.6.</t>
   </si>
   <si>
@@ -728,6 +707,33 @@
   </si>
   <si>
     <t>Coding / Reading / Understanding Session bei Fin</t>
+  </si>
+  <si>
+    <t>Dictionary Learning Implementation</t>
+  </si>
+  <si>
+    <t>21.6, 22.6.</t>
+  </si>
+  <si>
+    <t>1.6.,2.6.,3.6.,4.6.,5.6.,7.6.,9.6.,10.6.,11.6.,15.6.,23.6.,24.6.,25.6.</t>
+  </si>
+  <si>
+    <t>18.5., 15.6.</t>
+  </si>
+  <si>
+    <t>23.4.,24.4.</t>
+  </si>
+  <si>
+    <t>22.4., 25.5., 26.5.</t>
+  </si>
+  <si>
+    <t>19.4.,22.4.,24.4.</t>
+  </si>
+  <si>
+    <t>15.4., 16.4.</t>
+  </si>
+  <si>
+    <t>24.4., 25.4., 27.4., 29.4., 6.5., 8.5., 10.5.</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1144,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,7 +1156,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,21 +1165,18 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
-    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift 3" xfId="2" builtinId="18"/>
+    <cellStyle name="Überschrift 4" xfId="3" builtinId="19"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -1790,7 +1796,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="111.42578125" customWidth="1"/>
   </cols>
@@ -1899,7 +1905,7 @@
       <selection activeCell="A31" sqref="A1:L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="21" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="23" customWidth="1"/>
@@ -2814,13 +2820,13 @@
         <v>32</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E28" s="19">
         <v>42156</v>
@@ -2846,13 +2852,13 @@
         <v>32</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E29" s="19">
         <v>42522</v>
@@ -2878,13 +2884,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E30" s="19">
         <v>42156</v>
@@ -4993,7 +4999,7 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="21" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="23" customWidth="1"/>
@@ -5051,13 +5057,13 @@
         <v>149</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K2" s="29" t="s">
         <v>92</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -5909,13 +5915,13 @@
         <v>32</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E28" s="19">
         <v>42156</v>
@@ -5941,13 +5947,13 @@
         <v>30</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E29" s="19">
         <v>42522</v>
@@ -5973,13 +5979,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E30" s="19">
         <v>42156</v>
@@ -9545,7 +9551,7 @@
       <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
@@ -9585,385 +9591,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="58"/>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="58"/>
-      <c r="BO1" s="58"/>
-      <c r="BP1" s="58"/>
-      <c r="BQ1" s="58"/>
-      <c r="BR1" s="58"/>
-      <c r="BS1" s="58"/>
-      <c r="BT1" s="58"/>
-      <c r="BU1" s="58"/>
-      <c r="BV1" s="58"/>
-      <c r="BW1" s="58"/>
-      <c r="BX1" s="58"/>
-      <c r="BY1" s="58"/>
-      <c r="BZ1" s="58"/>
-      <c r="CA1" s="58"/>
-      <c r="CB1" s="58"/>
-      <c r="CC1" s="58"/>
-      <c r="CD1" s="58"/>
-      <c r="CE1" s="58"/>
-      <c r="CF1" s="58"/>
-      <c r="CG1" s="58"/>
-      <c r="CH1" s="58"/>
-      <c r="CI1" s="58"/>
-      <c r="CJ1" s="58"/>
-      <c r="CK1" s="58"/>
-      <c r="CL1" s="58"/>
-      <c r="CM1" s="58"/>
-      <c r="CN1" s="58"/>
-      <c r="CO1" s="58"/>
-      <c r="CP1" s="58"/>
-      <c r="CQ1" s="58"/>
-      <c r="CR1" s="58"/>
-      <c r="CS1" s="58"/>
-      <c r="CT1" s="58"/>
-      <c r="CU1" s="58"/>
-      <c r="CV1" s="58"/>
-      <c r="CW1" s="58"/>
-      <c r="CX1" s="58"/>
-      <c r="CY1" s="58"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52"/>
+      <c r="BD1" s="52"/>
+      <c r="BE1" s="52"/>
+      <c r="BF1" s="52"/>
+      <c r="BG1" s="52"/>
+      <c r="BH1" s="52"/>
+      <c r="BI1" s="52"/>
+      <c r="BJ1" s="52"/>
+      <c r="BK1" s="52"/>
+      <c r="BL1" s="52"/>
+      <c r="BM1" s="52"/>
+      <c r="BN1" s="52"/>
+      <c r="BO1" s="52"/>
+      <c r="BP1" s="52"/>
+      <c r="BQ1" s="52"/>
+      <c r="BR1" s="52"/>
+      <c r="BS1" s="52"/>
+      <c r="BT1" s="52"/>
+      <c r="BU1" s="52"/>
+      <c r="BV1" s="52"/>
+      <c r="BW1" s="52"/>
+      <c r="BX1" s="52"/>
+      <c r="BY1" s="52"/>
+      <c r="BZ1" s="52"/>
+      <c r="CA1" s="52"/>
+      <c r="CB1" s="52"/>
+      <c r="CC1" s="52"/>
+      <c r="CD1" s="52"/>
+      <c r="CE1" s="52"/>
+      <c r="CF1" s="52"/>
+      <c r="CG1" s="52"/>
+      <c r="CH1" s="52"/>
+      <c r="CI1" s="52"/>
+      <c r="CJ1" s="52"/>
+      <c r="CK1" s="52"/>
+      <c r="CL1" s="52"/>
+      <c r="CM1" s="52"/>
+      <c r="CN1" s="52"/>
+      <c r="CO1" s="52"/>
+      <c r="CP1" s="52"/>
+      <c r="CQ1" s="52"/>
+      <c r="CR1" s="52"/>
+      <c r="CS1" s="52"/>
+      <c r="CT1" s="52"/>
+      <c r="CU1" s="52"/>
+      <c r="CV1" s="52"/>
+      <c r="CW1" s="52"/>
+      <c r="CX1" s="52"/>
+      <c r="CY1" s="52"/>
       <c r="CZ1" s="11"/>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="52" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="52" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="52" t="s">
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="52" t="s">
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="52" t="s">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="52" t="s">
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="53"/>
-      <c r="AY2" s="53"/>
-      <c r="AZ2" s="53"/>
-      <c r="BA2" s="53"/>
-      <c r="BB2" s="53"/>
-      <c r="BC2" s="54"/>
-      <c r="BD2" s="52" t="s">
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54"/>
+      <c r="BC2" s="55"/>
+      <c r="BD2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="BE2" s="53"/>
-      <c r="BF2" s="53"/>
-      <c r="BG2" s="53"/>
-      <c r="BH2" s="53"/>
-      <c r="BI2" s="53"/>
-      <c r="BJ2" s="54"/>
-      <c r="BK2" s="52" t="s">
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="BL2" s="53"/>
-      <c r="BM2" s="53"/>
-      <c r="BN2" s="53"/>
-      <c r="BO2" s="53"/>
-      <c r="BP2" s="53"/>
-      <c r="BQ2" s="54"/>
-      <c r="BR2" s="52" t="s">
+      <c r="BL2" s="54"/>
+      <c r="BM2" s="54"/>
+      <c r="BN2" s="54"/>
+      <c r="BO2" s="54"/>
+      <c r="BP2" s="54"/>
+      <c r="BQ2" s="55"/>
+      <c r="BR2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="BS2" s="53"/>
-      <c r="BT2" s="53"/>
-      <c r="BU2" s="53"/>
-      <c r="BV2" s="53"/>
-      <c r="BW2" s="53"/>
-      <c r="BX2" s="54"/>
-      <c r="BY2" s="52" t="s">
+      <c r="BS2" s="54"/>
+      <c r="BT2" s="54"/>
+      <c r="BU2" s="54"/>
+      <c r="BV2" s="54"/>
+      <c r="BW2" s="54"/>
+      <c r="BX2" s="55"/>
+      <c r="BY2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="BZ2" s="53"/>
-      <c r="CA2" s="53"/>
-      <c r="CB2" s="53"/>
-      <c r="CC2" s="53"/>
-      <c r="CD2" s="53"/>
-      <c r="CE2" s="54"/>
-      <c r="CF2" s="52" t="s">
+      <c r="BZ2" s="54"/>
+      <c r="CA2" s="54"/>
+      <c r="CB2" s="54"/>
+      <c r="CC2" s="54"/>
+      <c r="CD2" s="54"/>
+      <c r="CE2" s="55"/>
+      <c r="CF2" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="CG2" s="53"/>
-      <c r="CH2" s="53"/>
-      <c r="CI2" s="53"/>
-      <c r="CJ2" s="53"/>
-      <c r="CK2" s="53"/>
-      <c r="CL2" s="54"/>
-      <c r="CM2" s="52" t="s">
+      <c r="CG2" s="54"/>
+      <c r="CH2" s="54"/>
+      <c r="CI2" s="54"/>
+      <c r="CJ2" s="54"/>
+      <c r="CK2" s="54"/>
+      <c r="CL2" s="55"/>
+      <c r="CM2" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" s="53"/>
-      <c r="CO2" s="53"/>
-      <c r="CP2" s="53"/>
-      <c r="CQ2" s="53"/>
-      <c r="CR2" s="53"/>
-      <c r="CS2" s="54"/>
-      <c r="CT2" s="52" t="s">
+      <c r="CN2" s="54"/>
+      <c r="CO2" s="54"/>
+      <c r="CP2" s="54"/>
+      <c r="CQ2" s="54"/>
+      <c r="CR2" s="54"/>
+      <c r="CS2" s="55"/>
+      <c r="CT2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="CU2" s="53"/>
-      <c r="CV2" s="53"/>
-      <c r="CW2" s="53"/>
-      <c r="CX2" s="53"/>
-      <c r="CY2" s="53"/>
-      <c r="CZ2" s="54"/>
+      <c r="CU2" s="54"/>
+      <c r="CV2" s="54"/>
+      <c r="CW2" s="54"/>
+      <c r="CX2" s="54"/>
+      <c r="CY2" s="54"/>
+      <c r="CZ2" s="55"/>
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="G3" s="60">
+      <c r="G3" s="56">
         <f>G5</f>
         <v>42107</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="55">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="60">
         <f>N5</f>
         <v>42114</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="55">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="60">
         <f>U5</f>
         <v>42121</v>
       </c>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="55">
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="60">
         <f>AB5</f>
         <v>42128</v>
       </c>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="55">
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="60">
         <f>AI5</f>
         <v>42135</v>
       </c>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="55">
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="60">
         <f>AP5</f>
         <v>42142</v>
       </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="55">
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="60">
         <f t="shared" ref="AW3" si="0">AW5</f>
         <v>42149</v>
       </c>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="56"/>
-      <c r="BC3" s="57"/>
-      <c r="BD3" s="55">
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="57"/>
+      <c r="BC3" s="58"/>
+      <c r="BD3" s="60">
         <f t="shared" ref="BD3" si="1">BD5</f>
         <v>42156</v>
       </c>
-      <c r="BE3" s="56"/>
-      <c r="BF3" s="56"/>
-      <c r="BG3" s="56"/>
-      <c r="BH3" s="56"/>
-      <c r="BI3" s="56"/>
-      <c r="BJ3" s="57"/>
-      <c r="BK3" s="55">
+      <c r="BE3" s="57"/>
+      <c r="BF3" s="57"/>
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="57"/>
+      <c r="BI3" s="57"/>
+      <c r="BJ3" s="58"/>
+      <c r="BK3" s="60">
         <f t="shared" ref="BK3" si="2">BK5</f>
         <v>42163</v>
       </c>
-      <c r="BL3" s="56"/>
-      <c r="BM3" s="56"/>
-      <c r="BN3" s="56"/>
-      <c r="BO3" s="56"/>
-      <c r="BP3" s="56"/>
-      <c r="BQ3" s="57"/>
-      <c r="BR3" s="55">
+      <c r="BL3" s="57"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="58"/>
+      <c r="BR3" s="60">
         <f t="shared" ref="BR3" si="3">BR5</f>
         <v>42170</v>
       </c>
-      <c r="BS3" s="56"/>
-      <c r="BT3" s="56"/>
-      <c r="BU3" s="56"/>
-      <c r="BV3" s="56"/>
-      <c r="BW3" s="56"/>
-      <c r="BX3" s="57"/>
-      <c r="BY3" s="55">
+      <c r="BS3" s="57"/>
+      <c r="BT3" s="57"/>
+      <c r="BU3" s="57"/>
+      <c r="BV3" s="57"/>
+      <c r="BW3" s="57"/>
+      <c r="BX3" s="58"/>
+      <c r="BY3" s="60">
         <f t="shared" ref="BY3" si="4">BY5</f>
         <v>42177</v>
       </c>
-      <c r="BZ3" s="56"/>
-      <c r="CA3" s="56"/>
-      <c r="CB3" s="56"/>
-      <c r="CC3" s="56"/>
-      <c r="CD3" s="56"/>
-      <c r="CE3" s="57"/>
-      <c r="CF3" s="55">
+      <c r="BZ3" s="57"/>
+      <c r="CA3" s="57"/>
+      <c r="CB3" s="57"/>
+      <c r="CC3" s="57"/>
+      <c r="CD3" s="57"/>
+      <c r="CE3" s="58"/>
+      <c r="CF3" s="60">
         <f t="shared" ref="CF3" si="5">CF5</f>
         <v>42184</v>
       </c>
-      <c r="CG3" s="56"/>
-      <c r="CH3" s="56"/>
-      <c r="CI3" s="56"/>
-      <c r="CJ3" s="56"/>
-      <c r="CK3" s="56"/>
-      <c r="CL3" s="57"/>
-      <c r="CM3" s="55">
+      <c r="CG3" s="57"/>
+      <c r="CH3" s="57"/>
+      <c r="CI3" s="57"/>
+      <c r="CJ3" s="57"/>
+      <c r="CK3" s="57"/>
+      <c r="CL3" s="58"/>
+      <c r="CM3" s="60">
         <f t="shared" ref="CM3" si="6">CM5</f>
         <v>42191</v>
       </c>
-      <c r="CN3" s="56"/>
-      <c r="CO3" s="56"/>
-      <c r="CP3" s="56"/>
-      <c r="CQ3" s="56"/>
-      <c r="CR3" s="56"/>
-      <c r="CS3" s="57"/>
-      <c r="CT3" s="55">
+      <c r="CN3" s="57"/>
+      <c r="CO3" s="57"/>
+      <c r="CP3" s="57"/>
+      <c r="CQ3" s="57"/>
+      <c r="CR3" s="57"/>
+      <c r="CS3" s="58"/>
+      <c r="CT3" s="60">
         <f t="shared" ref="CT3" si="7">CT5</f>
         <v>42198</v>
       </c>
-      <c r="CU3" s="56"/>
-      <c r="CV3" s="56"/>
-      <c r="CW3" s="56"/>
-      <c r="CX3" s="56"/>
-      <c r="CY3" s="56"/>
-      <c r="CZ3" s="57"/>
+      <c r="CU3" s="57"/>
+      <c r="CV3" s="57"/>
+      <c r="CW3" s="57"/>
+      <c r="CX3" s="57"/>
+      <c r="CY3" s="57"/>
+      <c r="CZ3" s="58"/>
     </row>
     <row r="4" spans="1:104" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -22484,6 +22490,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CM3:CS3"/>
+    <mergeCell ref="CT3:CZ3"/>
+    <mergeCell ref="BY2:CE2"/>
+    <mergeCell ref="CF2:CL2"/>
+    <mergeCell ref="BY3:CE3"/>
+    <mergeCell ref="CF3:CL3"/>
+    <mergeCell ref="CM2:CS2"/>
+    <mergeCell ref="BD3:BJ3"/>
+    <mergeCell ref="BK2:BQ2"/>
+    <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="BK3:BQ3"/>
+    <mergeCell ref="BR3:BX3"/>
     <mergeCell ref="A1:CY1"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="G3:M3"/>
@@ -22500,19 +22519,6 @@
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="AP3:AV3"/>
     <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="BD3:BJ3"/>
-    <mergeCell ref="BK2:BQ2"/>
-    <mergeCell ref="BR2:BX2"/>
-    <mergeCell ref="BK3:BQ3"/>
-    <mergeCell ref="BR3:BX3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CM3:CS3"/>
-    <mergeCell ref="CT3:CZ3"/>
-    <mergeCell ref="BY2:CE2"/>
-    <mergeCell ref="CF2:CL2"/>
-    <mergeCell ref="BY3:CE3"/>
-    <mergeCell ref="CF3:CL3"/>
-    <mergeCell ref="CM2:CS2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:CW300">
     <cfRule type="expression" dxfId="14" priority="77">
@@ -22642,7 +22648,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
@@ -45436,13 +45442,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45478,7 +45484,7 @@
       </c>
       <c r="H3">
         <f>SUM(Table1[Time Spent (hours)])</f>
-        <v>112</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -45489,7 +45495,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -45508,7 +45514,7 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -45518,90 +45524,112 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="50">
-        <v>42151</v>
+      <c r="C11" s="50" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B14">
         <v>2.5</v>
       </c>
-      <c r="C14" s="50">
-        <v>42153</v>
+      <c r="C14" s="50" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B15">
-        <v>41.5</v>
+        <v>56.5</v>
       </c>
       <c r="C15" t="s">
-        <v>215</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -45612,12 +45640,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>'task extraction'!$B$2:$B$350</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A18</xm:sqref>
+          <xm:sqref>A4:A15 A17:A18</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>'task extraction'!$H$2:$H$350</xm:f>
+          </x14:formula1>
+          <xm:sqref>A16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -45636,7 +45670,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45731,7 +45765,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45848,11 +45882,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.42578125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -45977,7 +46011,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -45999,7 +46033,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -46010,7 +46044,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -46021,106 +46055,106 @@
         <v>9.5</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" s="49">
         <v>3</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B17">
         <v>1.5</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B21" s="49">
         <v>10</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B22">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B23">
         <v>1.5</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B24">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -46152,10 +46186,10 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B4" sqref="B4:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -46203,7 +46237,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -46219,13 +46253,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B6" s="49">
         <v>8</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -46236,7 +46270,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -46258,7 +46292,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -46274,24 +46308,24 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B12">
         <v>3.5</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="232">
   <si>
     <t>Typ</t>
   </si>
@@ -735,6 +735,21 @@
   <si>
     <t>24.4., 25.4., 27.4., 29.4., 6.5., 8.5., 10.5.</t>
   </si>
+  <si>
+    <t>Proximal Testing</t>
+  </si>
+  <si>
+    <t>26.6., 27.6., 3.7., 4.7.</t>
+  </si>
+  <si>
+    <t>28.6.</t>
+  </si>
+  <si>
+    <t>Preparing Presentation</t>
+  </si>
+  <si>
+    <t>5.7.,6.7.,8.7.,9.7.,10.7.</t>
+  </si>
 </sst>
 </file>
 
@@ -1144,10 +1159,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,7 +1168,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1165,10 +1177,13 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1463,8 +1478,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D18" totalsRowShown="0">
-  <autoFilter ref="A3:D18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D20" totalsRowShown="0">
+  <autoFilter ref="A3:D20"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Task"/>
     <tableColumn id="2" name="Time Spent (hours)"/>
@@ -9591,385 +9606,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52"/>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
-      <c r="BG1" s="52"/>
-      <c r="BH1" s="52"/>
-      <c r="BI1" s="52"/>
-      <c r="BJ1" s="52"/>
-      <c r="BK1" s="52"/>
-      <c r="BL1" s="52"/>
-      <c r="BM1" s="52"/>
-      <c r="BN1" s="52"/>
-      <c r="BO1" s="52"/>
-      <c r="BP1" s="52"/>
-      <c r="BQ1" s="52"/>
-      <c r="BR1" s="52"/>
-      <c r="BS1" s="52"/>
-      <c r="BT1" s="52"/>
-      <c r="BU1" s="52"/>
-      <c r="BV1" s="52"/>
-      <c r="BW1" s="52"/>
-      <c r="BX1" s="52"/>
-      <c r="BY1" s="52"/>
-      <c r="BZ1" s="52"/>
-      <c r="CA1" s="52"/>
-      <c r="CB1" s="52"/>
-      <c r="CC1" s="52"/>
-      <c r="CD1" s="52"/>
-      <c r="CE1" s="52"/>
-      <c r="CF1" s="52"/>
-      <c r="CG1" s="52"/>
-      <c r="CH1" s="52"/>
-      <c r="CI1" s="52"/>
-      <c r="CJ1" s="52"/>
-      <c r="CK1" s="52"/>
-      <c r="CL1" s="52"/>
-      <c r="CM1" s="52"/>
-      <c r="CN1" s="52"/>
-      <c r="CO1" s="52"/>
-      <c r="CP1" s="52"/>
-      <c r="CQ1" s="52"/>
-      <c r="CR1" s="52"/>
-      <c r="CS1" s="52"/>
-      <c r="CT1" s="52"/>
-      <c r="CU1" s="52"/>
-      <c r="CV1" s="52"/>
-      <c r="CW1" s="52"/>
-      <c r="CX1" s="52"/>
-      <c r="CY1" s="52"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="58"/>
+      <c r="BP1" s="58"/>
+      <c r="BQ1" s="58"/>
+      <c r="BR1" s="58"/>
+      <c r="BS1" s="58"/>
+      <c r="BT1" s="58"/>
+      <c r="BU1" s="58"/>
+      <c r="BV1" s="58"/>
+      <c r="BW1" s="58"/>
+      <c r="BX1" s="58"/>
+      <c r="BY1" s="58"/>
+      <c r="BZ1" s="58"/>
+      <c r="CA1" s="58"/>
+      <c r="CB1" s="58"/>
+      <c r="CC1" s="58"/>
+      <c r="CD1" s="58"/>
+      <c r="CE1" s="58"/>
+      <c r="CF1" s="58"/>
+      <c r="CG1" s="58"/>
+      <c r="CH1" s="58"/>
+      <c r="CI1" s="58"/>
+      <c r="CJ1" s="58"/>
+      <c r="CK1" s="58"/>
+      <c r="CL1" s="58"/>
+      <c r="CM1" s="58"/>
+      <c r="CN1" s="58"/>
+      <c r="CO1" s="58"/>
+      <c r="CP1" s="58"/>
+      <c r="CQ1" s="58"/>
+      <c r="CR1" s="58"/>
+      <c r="CS1" s="58"/>
+      <c r="CT1" s="58"/>
+      <c r="CU1" s="58"/>
+      <c r="CV1" s="58"/>
+      <c r="CW1" s="58"/>
+      <c r="CX1" s="58"/>
+      <c r="CY1" s="58"/>
       <c r="CZ1" s="11"/>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="59" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="59" t="s">
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="59" t="s">
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="59" t="s">
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="59" t="s">
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="59" t="s">
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="54"/>
-      <c r="BB2" s="54"/>
-      <c r="BC2" s="55"/>
-      <c r="BD2" s="59" t="s">
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="59" t="s">
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="54"/>
+      <c r="BK2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="BL2" s="54"/>
-      <c r="BM2" s="54"/>
-      <c r="BN2" s="54"/>
-      <c r="BO2" s="54"/>
-      <c r="BP2" s="54"/>
-      <c r="BQ2" s="55"/>
-      <c r="BR2" s="59" t="s">
+      <c r="BL2" s="53"/>
+      <c r="BM2" s="53"/>
+      <c r="BN2" s="53"/>
+      <c r="BO2" s="53"/>
+      <c r="BP2" s="53"/>
+      <c r="BQ2" s="54"/>
+      <c r="BR2" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="BS2" s="54"/>
-      <c r="BT2" s="54"/>
-      <c r="BU2" s="54"/>
-      <c r="BV2" s="54"/>
-      <c r="BW2" s="54"/>
-      <c r="BX2" s="55"/>
-      <c r="BY2" s="59" t="s">
+      <c r="BS2" s="53"/>
+      <c r="BT2" s="53"/>
+      <c r="BU2" s="53"/>
+      <c r="BV2" s="53"/>
+      <c r="BW2" s="53"/>
+      <c r="BX2" s="54"/>
+      <c r="BY2" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="BZ2" s="54"/>
-      <c r="CA2" s="54"/>
-      <c r="CB2" s="54"/>
-      <c r="CC2" s="54"/>
-      <c r="CD2" s="54"/>
-      <c r="CE2" s="55"/>
-      <c r="CF2" s="59" t="s">
+      <c r="BZ2" s="53"/>
+      <c r="CA2" s="53"/>
+      <c r="CB2" s="53"/>
+      <c r="CC2" s="53"/>
+      <c r="CD2" s="53"/>
+      <c r="CE2" s="54"/>
+      <c r="CF2" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="CG2" s="54"/>
-      <c r="CH2" s="54"/>
-      <c r="CI2" s="54"/>
-      <c r="CJ2" s="54"/>
-      <c r="CK2" s="54"/>
-      <c r="CL2" s="55"/>
-      <c r="CM2" s="59" t="s">
+      <c r="CG2" s="53"/>
+      <c r="CH2" s="53"/>
+      <c r="CI2" s="53"/>
+      <c r="CJ2" s="53"/>
+      <c r="CK2" s="53"/>
+      <c r="CL2" s="54"/>
+      <c r="CM2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" s="54"/>
-      <c r="CO2" s="54"/>
-      <c r="CP2" s="54"/>
-      <c r="CQ2" s="54"/>
-      <c r="CR2" s="54"/>
-      <c r="CS2" s="55"/>
-      <c r="CT2" s="59" t="s">
+      <c r="CN2" s="53"/>
+      <c r="CO2" s="53"/>
+      <c r="CP2" s="53"/>
+      <c r="CQ2" s="53"/>
+      <c r="CR2" s="53"/>
+      <c r="CS2" s="54"/>
+      <c r="CT2" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="CU2" s="54"/>
-      <c r="CV2" s="54"/>
-      <c r="CW2" s="54"/>
-      <c r="CX2" s="54"/>
-      <c r="CY2" s="54"/>
-      <c r="CZ2" s="55"/>
+      <c r="CU2" s="53"/>
+      <c r="CV2" s="53"/>
+      <c r="CW2" s="53"/>
+      <c r="CX2" s="53"/>
+      <c r="CY2" s="53"/>
+      <c r="CZ2" s="54"/>
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="G3" s="56">
+      <c r="G3" s="60">
         <f>G5</f>
         <v>42107</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="60">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="55">
         <f>N5</f>
         <v>42114</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="60">
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="55">
         <f>U5</f>
         <v>42121</v>
       </c>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="60">
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="55">
         <f>AB5</f>
         <v>42128</v>
       </c>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="60">
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="55">
         <f>AI5</f>
         <v>42135</v>
       </c>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="60">
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="55">
         <f>AP5</f>
         <v>42142</v>
       </c>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="60">
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="55">
         <f t="shared" ref="AW3" si="0">AW5</f>
         <v>42149</v>
       </c>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="57"/>
-      <c r="BC3" s="58"/>
-      <c r="BD3" s="60">
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="57"/>
+      <c r="BD3" s="55">
         <f t="shared" ref="BD3" si="1">BD5</f>
         <v>42156</v>
       </c>
-      <c r="BE3" s="57"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="57"/>
-      <c r="BI3" s="57"/>
-      <c r="BJ3" s="58"/>
-      <c r="BK3" s="60">
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="56"/>
+      <c r="BG3" s="56"/>
+      <c r="BH3" s="56"/>
+      <c r="BI3" s="56"/>
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="55">
         <f t="shared" ref="BK3" si="2">BK5</f>
         <v>42163</v>
       </c>
-      <c r="BL3" s="57"/>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="57"/>
-      <c r="BO3" s="57"/>
-      <c r="BP3" s="57"/>
-      <c r="BQ3" s="58"/>
-      <c r="BR3" s="60">
+      <c r="BL3" s="56"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="56"/>
+      <c r="BP3" s="56"/>
+      <c r="BQ3" s="57"/>
+      <c r="BR3" s="55">
         <f t="shared" ref="BR3" si="3">BR5</f>
         <v>42170</v>
       </c>
-      <c r="BS3" s="57"/>
-      <c r="BT3" s="57"/>
-      <c r="BU3" s="57"/>
-      <c r="BV3" s="57"/>
-      <c r="BW3" s="57"/>
-      <c r="BX3" s="58"/>
-      <c r="BY3" s="60">
+      <c r="BS3" s="56"/>
+      <c r="BT3" s="56"/>
+      <c r="BU3" s="56"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="56"/>
+      <c r="BX3" s="57"/>
+      <c r="BY3" s="55">
         <f t="shared" ref="BY3" si="4">BY5</f>
         <v>42177</v>
       </c>
-      <c r="BZ3" s="57"/>
-      <c r="CA3" s="57"/>
-      <c r="CB3" s="57"/>
-      <c r="CC3" s="57"/>
-      <c r="CD3" s="57"/>
-      <c r="CE3" s="58"/>
-      <c r="CF3" s="60">
+      <c r="BZ3" s="56"/>
+      <c r="CA3" s="56"/>
+      <c r="CB3" s="56"/>
+      <c r="CC3" s="56"/>
+      <c r="CD3" s="56"/>
+      <c r="CE3" s="57"/>
+      <c r="CF3" s="55">
         <f t="shared" ref="CF3" si="5">CF5</f>
         <v>42184</v>
       </c>
-      <c r="CG3" s="57"/>
-      <c r="CH3" s="57"/>
-      <c r="CI3" s="57"/>
-      <c r="CJ3" s="57"/>
-      <c r="CK3" s="57"/>
-      <c r="CL3" s="58"/>
-      <c r="CM3" s="60">
+      <c r="CG3" s="56"/>
+      <c r="CH3" s="56"/>
+      <c r="CI3" s="56"/>
+      <c r="CJ3" s="56"/>
+      <c r="CK3" s="56"/>
+      <c r="CL3" s="57"/>
+      <c r="CM3" s="55">
         <f t="shared" ref="CM3" si="6">CM5</f>
         <v>42191</v>
       </c>
-      <c r="CN3" s="57"/>
-      <c r="CO3" s="57"/>
-      <c r="CP3" s="57"/>
-      <c r="CQ3" s="57"/>
-      <c r="CR3" s="57"/>
-      <c r="CS3" s="58"/>
-      <c r="CT3" s="60">
+      <c r="CN3" s="56"/>
+      <c r="CO3" s="56"/>
+      <c r="CP3" s="56"/>
+      <c r="CQ3" s="56"/>
+      <c r="CR3" s="56"/>
+      <c r="CS3" s="57"/>
+      <c r="CT3" s="55">
         <f t="shared" ref="CT3" si="7">CT5</f>
         <v>42198</v>
       </c>
-      <c r="CU3" s="57"/>
-      <c r="CV3" s="57"/>
-      <c r="CW3" s="57"/>
-      <c r="CX3" s="57"/>
-      <c r="CY3" s="57"/>
-      <c r="CZ3" s="58"/>
+      <c r="CU3" s="56"/>
+      <c r="CV3" s="56"/>
+      <c r="CW3" s="56"/>
+      <c r="CX3" s="56"/>
+      <c r="CY3" s="56"/>
+      <c r="CZ3" s="57"/>
     </row>
     <row r="4" spans="1:104" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -22490,19 +22505,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CM3:CS3"/>
-    <mergeCell ref="CT3:CZ3"/>
-    <mergeCell ref="BY2:CE2"/>
-    <mergeCell ref="CF2:CL2"/>
-    <mergeCell ref="BY3:CE3"/>
-    <mergeCell ref="CF3:CL3"/>
-    <mergeCell ref="CM2:CS2"/>
-    <mergeCell ref="BD3:BJ3"/>
-    <mergeCell ref="BK2:BQ2"/>
-    <mergeCell ref="BR2:BX2"/>
-    <mergeCell ref="BK3:BQ3"/>
-    <mergeCell ref="BR3:BX3"/>
     <mergeCell ref="A1:CY1"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="G3:M3"/>
@@ -22519,6 +22521,19 @@
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="AP3:AV3"/>
     <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="BD3:BJ3"/>
+    <mergeCell ref="BK2:BQ2"/>
+    <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="BK3:BQ3"/>
+    <mergeCell ref="BR3:BX3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CM3:CS3"/>
+    <mergeCell ref="CT3:CZ3"/>
+    <mergeCell ref="BY2:CE2"/>
+    <mergeCell ref="CF2:CL2"/>
+    <mergeCell ref="BY3:CE3"/>
+    <mergeCell ref="CF3:CL3"/>
+    <mergeCell ref="CM2:CS2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:CW300">
     <cfRule type="expression" dxfId="14" priority="77">
@@ -45442,10 +45457,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45484,7 +45499,7 @@
       </c>
       <c r="H3">
         <f>SUM(Table1[Time Spent (hours)])</f>
-        <v>143</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -45604,7 +45619,7 @@
         <v>209</v>
       </c>
       <c r="B15">
-        <v>56.5</v>
+        <v>66.5</v>
       </c>
       <c r="C15" t="s">
         <v>220</v>
@@ -45630,6 +45645,39 @@
       </c>
       <c r="C17" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
